--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A39F7E-4517-4D8D-BE4D-36FC4CBB299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AFFABF-F64D-4E44-8E46-809FFC21CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$B$1:$B$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$C$1:$C$433</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <customWorkbookViews>
@@ -3686,7 +3686,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>121207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3734,8 +3734,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>102567</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>113453</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3782,8 +3782,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>433</xdr:row>
-      <xdr:rowOff>123848</xdr:rowOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>308905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3830,8 +3830,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>433</xdr:row>
-      <xdr:rowOff>123848</xdr:rowOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>308905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3878,7 +3878,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>317367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3926,7 +3926,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>185058</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3974,7 +3974,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>185058</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4022,8 +4022,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>433</xdr:row>
-      <xdr:rowOff>126151</xdr:rowOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>126150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4427,11 +4427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4473,7 +4472,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
         <v>587</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>588</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>589</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="s">
         <v>1</v>
       </c>
@@ -4533,7 +4532,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="95" t="s">
         <v>234</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
         <v>257</v>
       </c>
@@ -4559,7 +4558,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="s">
         <v>216</v>
       </c>
@@ -4570,7 +4569,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="95" t="s">
         <v>2</v>
       </c>
@@ -4584,7 +4583,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="95" t="s">
         <v>3</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="95" t="s">
         <v>340</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="95" t="s">
         <v>4</v>
       </c>
@@ -4620,7 +4619,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="95" t="s">
         <v>334</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="95" t="s">
         <v>422</v>
       </c>
@@ -4642,7 +4641,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="95" t="s">
         <v>233</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
         <v>184</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="114" t="s">
         <v>894</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="95" t="s">
         <v>185</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="95" t="s">
         <v>186</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="95" t="s">
         <v>187</v>
       </c>
@@ -4720,7 +4719,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="95" t="s">
         <v>188</v>
       </c>
@@ -4731,7 +4730,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="95" t="s">
         <v>189</v>
       </c>
@@ -4742,7 +4741,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="95" t="s">
         <v>190</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="95" t="s">
         <v>191</v>
       </c>
@@ -4770,7 +4769,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="95" t="s">
         <v>192</v>
       </c>
@@ -4781,7 +4780,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="95" t="s">
         <v>534</v>
       </c>
@@ -4792,7 +4791,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="95" t="s">
         <v>193</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="95" t="s">
         <v>424</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="95" t="s">
         <v>423</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="95" t="s">
         <v>668</v>
       </c>
@@ -4839,7 +4838,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="95" t="s">
         <v>425</v>
       </c>
@@ -4853,7 +4852,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="95" t="s">
         <v>426</v>
       </c>
@@ -4864,7 +4863,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="95" t="s">
         <v>292</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="95" t="s">
         <v>6</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="95" t="s">
         <v>183</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="114" t="s">
         <v>895</v>
       </c>
@@ -4915,7 +4914,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="95" t="s">
         <v>180</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="114" t="s">
         <v>181</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="95" t="s">
         <v>182</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="95" t="s">
         <v>427</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="95" t="s">
         <v>667</v>
       </c>
@@ -4980,7 +4979,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="95" t="s">
         <v>194</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="95" t="s">
         <v>195</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="95" t="s">
         <v>196</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="95" t="s">
         <v>197</v>
       </c>
@@ -5027,7 +5026,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="95" t="s">
         <v>198</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="95" t="s">
         <v>103</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="95" t="s">
         <v>105</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="95" t="s">
         <v>106</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="95" t="s">
         <v>179</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="95" t="s">
         <v>107</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="95" t="s">
         <v>199</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="95" t="s">
         <v>200</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="95" t="s">
         <v>114</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="95" t="s">
         <v>226</v>
       </c>
@@ -5155,7 +5154,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="95" t="s">
         <v>225</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="95" t="s">
         <v>203</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="95" t="s">
         <v>115</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="95" t="s">
         <v>116</v>
       </c>
@@ -5205,7 +5204,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="95" t="s">
         <v>204</v>
       </c>
@@ -5216,7 +5215,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="95" t="s">
         <v>206</v>
       </c>
@@ -5232,7 +5231,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="95" t="s">
         <v>117</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="95" t="s">
         <v>205</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="95" t="s">
         <v>207</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="95" t="s">
         <v>208</v>
       </c>
@@ -5282,7 +5281,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="95" t="s">
         <v>209</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="95" t="s">
         <v>210</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="95" t="s">
         <v>211</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="95" t="s">
         <v>212</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="95" t="s">
         <v>428</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="95" t="s">
         <v>429</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="95" t="s">
         <v>431</v>
       </c>
@@ -5399,7 +5398,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="95" t="s">
         <v>224</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="95" t="s">
         <v>223</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="95" t="s">
         <v>220</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="95" t="s">
         <v>219</v>
       </c>
@@ -5452,7 +5451,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="95" t="s">
         <v>222</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="95" t="s">
         <v>221</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="95" t="s">
         <v>218</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="114" t="s">
         <v>896</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="114" t="s">
         <v>897</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="95" t="s">
         <v>217</v>
       </c>
@@ -5533,7 +5532,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="95" t="s">
         <v>122</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="114" t="s">
         <v>898</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="114" t="s">
         <v>899</v>
       </c>
@@ -5570,7 +5569,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="95" t="s">
         <v>229</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="95" t="s">
         <v>231</v>
       </c>
@@ -5592,7 +5591,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="95" t="s">
         <v>230</v>
       </c>
@@ -5607,7 +5606,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="95" t="s">
         <v>149</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="95" t="s">
         <v>160</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="95" t="s">
         <v>158</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="95" t="s">
         <v>159</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="95" t="s">
         <v>227</v>
       </c>
@@ -5671,7 +5670,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="95" t="s">
         <v>228</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="95" t="s">
         <v>239</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="95" t="s">
         <v>240</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="95" t="s">
         <v>241</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="95" t="s">
         <v>243</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="95" t="s">
         <v>244</v>
       </c>
@@ -5754,7 +5753,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="95" t="s">
         <v>245</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="98" t="s">
         <v>246</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="95" t="s">
         <v>247</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="95" t="s">
         <v>235</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="95" t="s">
         <v>236</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="95" t="s">
         <v>249</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="95" t="s">
         <v>250</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="95" t="s">
         <v>251</v>
       </c>
@@ -5868,7 +5867,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="95" t="s">
         <v>252</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="95" t="s">
         <v>237</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="95" t="s">
         <v>238</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="70" t="s">
         <v>487</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="70" t="s">
         <v>267</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="70" t="s">
         <v>268</v>
       </c>
@@ -5946,7 +5945,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="70" t="s">
         <v>270</v>
       </c>
@@ -5960,7 +5959,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="70" t="s">
         <v>636</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="70" t="s">
         <v>271</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="70" t="s">
         <v>272</v>
       </c>
@@ -5999,7 +5998,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="70" t="s">
         <v>337</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="70" t="s">
         <v>274</v>
       </c>
@@ -6021,13 +6020,13 @@
         <v>783</v>
       </c>
       <c r="C123" s="111" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="H123" s="119" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="95" t="s">
         <v>288</v>
       </c>
@@ -6038,7 +6037,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="70" t="s">
         <v>287</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="70" t="s">
         <v>286</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="70" t="s">
         <v>284</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="70" t="s">
         <v>285</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="95" t="s">
         <v>283</v>
       </c>
@@ -6108,7 +6107,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="70" t="s">
         <v>280</v>
       </c>
@@ -6122,7 +6121,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="70" t="s">
         <v>282</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="70" t="s">
         <v>281</v>
       </c>
@@ -6144,7 +6143,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="70" t="s">
         <v>291</v>
       </c>
@@ -6155,7 +6154,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="70" t="s">
         <v>537</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="70" t="s">
         <v>295</v>
       </c>
@@ -6180,7 +6179,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="95" t="s">
         <v>296</v>
       </c>
@@ -6188,13 +6187,13 @@
         <v>782</v>
       </c>
       <c r="C136" s="111" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="H136" s="119" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="70" t="s">
         <v>297</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="70" t="s">
         <v>298</v>
       </c>
@@ -6222,7 +6221,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="70" t="s">
         <v>299</v>
       </c>
@@ -6230,13 +6229,13 @@
         <v>782</v>
       </c>
       <c r="C139" s="111" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="H139" s="119" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="70" t="s">
         <v>300</v>
       </c>
@@ -6250,7 +6249,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="70" t="s">
         <v>301</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="70" t="s">
         <v>488</v>
       </c>
@@ -6275,7 +6274,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="70" t="s">
         <v>304</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="70" t="s">
         <v>305</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="70" t="s">
         <v>306</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="70" t="s">
         <v>307</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="95" t="s">
         <v>309</v>
       </c>
@@ -6337,7 +6336,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="70" t="s">
         <v>308</v>
       </c>
@@ -6348,7 +6347,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="70" t="s">
         <v>505</v>
       </c>
@@ -6362,7 +6361,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="70" t="s">
         <v>311</v>
       </c>
@@ -6373,7 +6372,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="70" t="s">
         <v>312</v>
       </c>
@@ -6381,13 +6380,13 @@
         <v>782</v>
       </c>
       <c r="C151" s="111" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="H151" s="119" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="70" t="s">
         <v>315</v>
       </c>
@@ -6422,14 +6421,14 @@
       <c r="B154" s="134" t="s">
         <v>766</v>
       </c>
-      <c r="C154" s="95" t="s">
+      <c r="C154" s="134" t="s">
         <v>767</v>
       </c>
       <c r="H154" s="119" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="70" t="s">
         <v>317</v>
       </c>
@@ -6440,7 +6439,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
         <v>432</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="70" t="s">
         <v>313</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="70" t="s">
         <v>314</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="70" t="s">
         <v>318</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="70" t="s">
         <v>321</v>
       </c>
@@ -6504,7 +6503,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="70" t="s">
         <v>322</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="70" t="s">
         <v>323</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="70" t="s">
         <v>324</v>
       </c>
@@ -6540,7 +6539,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="70" t="s">
         <v>512</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="70" t="s">
         <v>326</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="70" t="s">
         <v>327</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="70" t="s">
         <v>328</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="70" t="s">
         <v>329</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="70" t="s">
         <v>331</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="70" t="s">
         <v>289</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="70" t="s">
         <v>338</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="70" t="s">
         <v>433</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="70" t="s">
         <v>341</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="70" t="s">
         <v>342</v>
       </c>
@@ -6676,7 +6675,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="70" t="s">
         <v>343</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="70" t="s">
         <v>344</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="70" t="s">
         <v>345</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="70" t="s">
         <v>346</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="70" t="s">
         <v>347</v>
       </c>
@@ -6734,7 +6733,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="70" t="s">
         <v>348</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="70" t="s">
         <v>349</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="70" t="s">
         <v>350</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="70" t="s">
         <v>351</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="70" t="s">
         <v>352</v>
       </c>
@@ -6792,7 +6791,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="70" t="s">
         <v>353</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="70" t="s">
         <v>355</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="70" t="s">
         <v>356</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="70" t="s">
         <v>357</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="70" t="s">
         <v>630</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="70" t="s">
         <v>358</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="70" t="s">
         <v>434</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="70" t="s">
         <v>435</v>
       </c>
@@ -6900,7 +6899,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="70" t="s">
         <v>360</v>
       </c>
@@ -6914,7 +6913,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="95" t="s">
         <v>627</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="70" t="s">
         <v>582</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="95" t="s">
         <v>436</v>
       </c>
@@ -6955,7 +6954,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="98" t="s">
         <v>437</v>
       </c>
@@ -6969,7 +6968,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="95" t="s">
         <v>438</v>
       </c>
@@ -6983,7 +6982,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="95" t="s">
         <v>439</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="91" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="91" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="95" t="s">
         <v>440</v>
       </c>
@@ -7016,7 +7015,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="95" t="s">
         <v>495</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="95" t="s">
         <v>443</v>
       </c>
@@ -7059,7 +7058,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="95" t="s">
         <v>445</v>
       </c>
@@ -7073,7 +7072,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="95" t="s">
         <v>446</v>
       </c>
@@ -7081,14 +7080,14 @@
         <v>808</v>
       </c>
       <c r="C204" s="111" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="E204" s="70"/>
       <c r="H204" s="119" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="95" t="s">
         <v>447</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="95" t="s">
         <v>571</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="95" t="s">
         <v>570</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="95" t="s">
         <v>569</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="95" t="s">
         <v>568</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="95" t="s">
         <v>654</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="95" t="s">
         <v>813</v>
       </c>
@@ -7198,11 +7197,11 @@
         <v>900</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="95" t="s">
         <v>448</v>
       </c>
-      <c r="B212" s="114" t="s">
+      <c r="B212" s="134" t="s">
         <v>814</v>
       </c>
       <c r="C212" s="114" t="s">
@@ -7215,7 +7214,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="95" t="s">
         <v>450</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="95" t="s">
         <v>452</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="95" t="s">
         <v>453</v>
       </c>
@@ -7261,7 +7260,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="78" t="s">
         <v>567</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="78" t="s">
         <v>566</v>
       </c>
@@ -7290,7 +7289,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="95" t="s">
         <v>565</v>
       </c>
@@ -7305,7 +7304,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="95" t="s">
         <v>455</v>
       </c>
@@ -7320,7 +7319,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="95" t="s">
         <v>564</v>
       </c>
@@ -7338,7 +7337,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="95" t="s">
         <v>563</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="95" t="s">
         <v>655</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="95" t="s">
         <v>457</v>
       </c>
@@ -7380,7 +7379,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="95" t="s">
         <v>458</v>
       </c>
@@ -7394,7 +7393,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="95" t="s">
         <v>459</v>
       </c>
@@ -7408,7 +7407,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="95" t="s">
         <v>460</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="95" t="s">
         <v>461</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="95" t="s">
         <v>462</v>
       </c>
@@ -7441,13 +7440,13 @@
         <v>782</v>
       </c>
       <c r="C228" s="111" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="H228" s="119" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="95" t="s">
         <v>463</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="95" t="s">
         <v>464</v>
       </c>
@@ -7478,7 +7477,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="95" t="s">
         <v>465</v>
       </c>
@@ -7492,7 +7491,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="95" t="s">
         <v>468</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="95" t="s">
         <v>562</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="95" t="s">
         <v>561</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="95" t="s">
         <v>559</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="70" t="s">
         <v>560</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="95" t="s">
         <v>657</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="70" t="s">
         <v>489</v>
       </c>
@@ -7598,7 +7597,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="70" t="s">
         <v>491</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="70" t="s">
         <v>490</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="70" t="s">
         <v>530</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="70" t="s">
         <v>529</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="70" t="s">
         <v>528</v>
       </c>
@@ -7674,7 +7673,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="70" t="s">
         <v>527</v>
       </c>
@@ -7691,7 +7690,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="70" t="s">
         <v>716</v>
       </c>
@@ -7706,7 +7705,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="70" t="s">
         <v>717</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="70" t="s">
         <v>525</v>
       </c>
@@ -7737,7 +7736,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="97" t="s">
         <v>524</v>
       </c>
@@ -7754,7 +7753,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="70" t="s">
         <v>523</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="70" t="s">
         <v>496</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="70" t="s">
         <v>522</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="70" t="s">
         <v>497</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="70" t="s">
         <v>498</v>
       </c>
@@ -7839,7 +7838,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="70" t="s">
         <v>626</v>
       </c>
@@ -7855,7 +7854,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="70" t="s">
         <v>499</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="70" t="s">
         <v>500</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="70" t="s">
         <v>501</v>
       </c>
@@ -7903,7 +7902,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="70" t="s">
         <v>502</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="70" t="s">
         <v>503</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="70" t="s">
         <v>504</v>
       </c>
@@ -7951,7 +7950,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="70" t="s">
         <v>513</v>
       </c>
@@ -7967,7 +7966,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="70" t="s">
         <v>531</v>
       </c>
@@ -7983,7 +7982,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="70" t="s">
         <v>517</v>
       </c>
@@ -8003,7 +8002,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="70" t="s">
         <v>516</v>
       </c>
@@ -8019,7 +8018,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="70" t="s">
         <v>518</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="70" t="s">
         <v>519</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="70" t="s">
         <v>532</v>
       </c>
@@ -8071,7 +8070,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="70" t="s">
         <v>215</v>
       </c>
@@ -8087,7 +8086,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="70" t="s">
         <v>129</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="70" t="s">
         <v>660</v>
       </c>
@@ -8123,7 +8122,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="70" t="s">
         <v>310</v>
       </c>
@@ -8157,11 +8156,11 @@
         <v>900</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="70" t="s">
         <v>706</v>
       </c>
-      <c r="B273" s="114" t="s">
+      <c r="B273" s="134" t="s">
         <v>814</v>
       </c>
       <c r="C273" s="114" t="s">
@@ -8175,11 +8174,11 @@
         <v>900</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="70" t="s">
         <v>553</v>
       </c>
-      <c r="B274" s="114" t="s">
+      <c r="B274" s="134" t="s">
         <v>814</v>
       </c>
       <c r="C274" s="114" t="s">
@@ -8195,7 +8194,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="70" t="s">
         <v>552</v>
       </c>
@@ -8211,7 +8210,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="70" t="s">
         <v>539</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="70" t="s">
         <v>541</v>
       </c>
@@ -8241,7 +8240,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="70" t="s">
         <v>535</v>
       </c>
@@ -8255,7 +8254,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="70" t="s">
         <v>591</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="70" t="s">
         <v>538</v>
       </c>
@@ -8289,7 +8288,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="70" t="s">
         <v>551</v>
       </c>
@@ -8305,7 +8304,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="70" t="s">
         <v>550</v>
       </c>
@@ -8323,7 +8322,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="70" t="s">
         <v>555</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="70" t="s">
         <v>548</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="70" t="s">
         <v>549</v>
       </c>
@@ -8373,7 +8372,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="70" t="s">
         <v>547</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="70" t="s">
         <v>546</v>
       </c>
@@ -8405,7 +8404,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="70" t="s">
         <v>545</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="70" t="s">
         <v>544</v>
       </c>
@@ -8437,7 +8436,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="70" t="s">
         <v>543</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="70" t="s">
         <v>584</v>
       </c>
@@ -8473,7 +8472,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="70" t="s">
         <v>542</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="95" t="s">
         <v>178</v>
       </c>
@@ -8503,7 +8502,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="95" t="s">
         <v>493</v>
       </c>
@@ -8517,7 +8516,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="70" t="s">
         <v>269</v>
       </c>
@@ -8528,7 +8527,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="70" t="s">
         <v>330</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="70" t="s">
         <v>325</v>
       </c>
@@ -8556,7 +8555,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="70" t="s">
         <v>354</v>
       </c>
@@ -8570,7 +8569,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="95" t="s">
         <v>603</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="95" t="s">
         <v>449</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="70" t="s">
         <v>623</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="70" t="s">
         <v>526</v>
       </c>
@@ -8638,7 +8637,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="70" t="s">
         <v>556</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" s="70" t="s">
         <v>557</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="70" t="s">
         <v>572</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="97" t="s">
         <v>573</v>
       </c>
@@ -8695,7 +8694,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="70" t="s">
         <v>574</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="70" t="s">
         <v>575</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="100" t="s">
         <v>576</v>
       </c>
@@ -8737,7 +8736,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="97" t="s">
         <v>577</v>
       </c>
@@ -8745,13 +8744,13 @@
         <v>783</v>
       </c>
       <c r="C310" s="111" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="H310" s="119" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="97" t="s">
         <v>578</v>
       </c>
@@ -8766,7 +8765,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="70" t="s">
         <v>579</v>
       </c>
@@ -8780,7 +8779,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="97" t="s">
         <v>580</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A314" s="70" t="s">
         <v>581</v>
       </c>
@@ -8805,7 +8804,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="70" t="s">
         <v>583</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="70" t="s">
         <v>585</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="70" t="s">
         <v>586</v>
       </c>
@@ -8847,7 +8846,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="70" t="s">
         <v>720</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="70" t="s">
         <v>719</v>
       </c>
@@ -8875,7 +8874,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="70" t="s">
         <v>590</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="70" t="s">
         <v>622</v>
       </c>
@@ -8903,7 +8902,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="70" t="s">
         <v>644</v>
       </c>
@@ -8914,7 +8913,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="70" t="s">
         <v>593</v>
       </c>
@@ -8928,7 +8927,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="70" t="s">
         <v>594</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="70" t="s">
         <v>595</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="70" t="s">
         <v>596</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="70" t="s">
         <v>597</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="70" t="s">
         <v>598</v>
       </c>
@@ -9001,7 +9000,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="70" t="s">
         <v>599</v>
       </c>
@@ -9012,7 +9011,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A330" s="70" t="s">
         <v>600</v>
       </c>
@@ -9023,7 +9022,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="70" t="s">
         <v>601</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="70" t="s">
         <v>602</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="70" t="s">
         <v>604</v>
       </c>
@@ -9068,7 +9067,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="115" t="s">
         <v>605</v>
       </c>
@@ -9080,7 +9079,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="70" t="s">
         <v>606</v>
       </c>
@@ -9091,7 +9090,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="70" t="s">
         <v>607</v>
       </c>
@@ -9102,7 +9101,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="70" t="s">
         <v>608</v>
       </c>
@@ -9110,13 +9109,13 @@
         <v>782</v>
       </c>
       <c r="C337" s="111" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="H337" s="119" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="70" t="s">
         <v>609</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" s="70" t="s">
         <v>610</v>
       </c>
@@ -9141,7 +9140,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="70" t="s">
         <v>611</v>
       </c>
@@ -9155,7 +9154,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="70" t="s">
         <v>612</v>
       </c>
@@ -9169,7 +9168,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="70" t="s">
         <v>613</v>
       </c>
@@ -9183,7 +9182,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="70" t="s">
         <v>614</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="95" t="s">
         <v>456</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="97" t="s">
         <v>615</v>
       </c>
@@ -9234,7 +9233,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="97" t="s">
         <v>616</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="70" t="s">
         <v>617</v>
       </c>
@@ -9265,7 +9264,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="70" t="s">
         <v>618</v>
       </c>
@@ -9279,7 +9278,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="70" t="s">
         <v>619</v>
       </c>
@@ -9290,7 +9289,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="70" t="s">
         <v>621</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="70" t="s">
         <v>624</v>
       </c>
@@ -9315,7 +9314,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="70" t="s">
         <v>625</v>
       </c>
@@ -9329,7 +9328,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="70" t="s">
         <v>628</v>
       </c>
@@ -9343,7 +9342,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="70" t="s">
         <v>629</v>
       </c>
@@ -9357,7 +9356,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" s="70" t="s">
         <v>632</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="70" t="s">
         <v>633</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" s="70" t="s">
         <v>634</v>
       </c>
@@ -9396,7 +9395,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="70" t="s">
         <v>635</v>
       </c>
@@ -9407,7 +9406,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="70" t="s">
         <v>637</v>
       </c>
@@ -9418,7 +9417,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="70" t="s">
         <v>638</v>
       </c>
@@ -9426,13 +9425,13 @@
         <v>782</v>
       </c>
       <c r="C360" s="111" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="H360" s="119" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="92" t="s">
         <v>639</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="70" t="s">
         <v>640</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="70" t="s">
         <v>641</v>
       </c>
@@ -9477,7 +9476,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="70" t="s">
         <v>643</v>
       </c>
@@ -9491,7 +9490,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="70" t="s">
         <v>721</v>
       </c>
@@ -9506,7 +9505,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" s="70" t="s">
         <v>659</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="70" t="s">
         <v>642</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="70" t="s">
         <v>645</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="97" t="s">
         <v>648</v>
       </c>
@@ -9567,7 +9566,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="70" t="s">
         <v>540</v>
       </c>
@@ -9581,7 +9580,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="92" t="s">
         <v>646</v>
       </c>
@@ -9595,7 +9594,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="95" t="s">
         <v>467</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="70" t="s">
         <v>647</v>
       </c>
@@ -9627,7 +9626,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="70" t="s">
         <v>650</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="70" t="s">
         <v>651</v>
       </c>
@@ -9655,7 +9654,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="97" t="s">
         <v>652</v>
       </c>
@@ -9669,7 +9668,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" s="95" t="s">
         <v>5</v>
       </c>
@@ -9680,7 +9679,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="95" t="s">
         <v>653</v>
       </c>
@@ -9695,7 +9694,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="95" t="s">
         <v>232</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A380" s="70" t="s">
         <v>536</v>
       </c>
@@ -9717,7 +9716,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="70" t="s">
         <v>303</v>
       </c>
@@ -9731,7 +9730,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="70" t="s">
         <v>359</v>
       </c>
@@ -9748,7 +9747,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="70" t="s">
         <v>658</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="70" t="s">
         <v>521</v>
       </c>
@@ -9782,7 +9781,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="70" t="s">
         <v>520</v>
       </c>
@@ -9799,7 +9798,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="70" t="s">
         <v>656</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" s="70" t="s">
         <v>631</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="70" t="s">
         <v>662</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A389" s="70" t="s">
         <v>649</v>
       </c>
@@ -9856,7 +9855,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="117" t="s">
         <v>663</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="70" t="s">
         <v>664</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" s="70" t="s">
         <v>665</v>
       </c>
@@ -9894,7 +9893,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="70" t="s">
         <v>666</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="70" t="s">
         <v>671</v>
       </c>
@@ -9922,7 +9921,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="70" t="s">
         <v>670</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="70" t="s">
         <v>672</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="103" t="s">
         <v>673</v>
       </c>
@@ -9967,7 +9966,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="70" t="s">
         <v>674</v>
       </c>
@@ -9981,7 +9980,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="102" t="s">
         <v>675</v>
       </c>
@@ -9992,7 +9991,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="70" t="s">
         <v>676</v>
       </c>
@@ -10000,13 +9999,13 @@
         <v>782</v>
       </c>
       <c r="C400" s="111" t="s">
-        <v>756</v>
+        <v>814</v>
       </c>
       <c r="H400" s="119" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="70" t="s">
         <v>677</v>
       </c>
@@ -10017,7 +10016,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="70" t="s">
         <v>678</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="70" t="s">
         <v>679</v>
       </c>
@@ -10039,7 +10038,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="70" t="s">
         <v>680</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="70" t="s">
         <v>681</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="104" t="s">
         <v>682</v>
       </c>
@@ -10088,7 +10087,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="105" t="s">
         <v>684</v>
       </c>
@@ -10099,7 +10098,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="95" t="s">
         <v>201</v>
       </c>
@@ -10114,7 +10113,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="95" t="s">
         <v>202</v>
       </c>
@@ -10128,7 +10127,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" s="95" t="s">
         <v>687</v>
       </c>
@@ -10142,7 +10141,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="70" t="s">
         <v>685</v>
       </c>
@@ -10156,7 +10155,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A412" s="70" t="s">
         <v>688</v>
       </c>
@@ -10167,7 +10166,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="102" t="s">
         <v>689</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="102" t="s">
         <v>690</v>
       </c>
@@ -10189,7 +10188,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="70" t="s">
         <v>692</v>
       </c>
@@ -10203,7 +10202,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A416" s="70" t="s">
         <v>695</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="106" t="s">
         <v>699</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="70" t="s">
         <v>700</v>
       </c>
@@ -10239,7 +10238,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" s="70" t="s">
         <v>701</v>
       </c>
@@ -10253,7 +10252,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="70" t="s">
         <v>702</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="70" t="s">
         <v>703</v>
       </c>
@@ -10281,7 +10280,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A422" s="70" t="s">
         <v>704</v>
       </c>
@@ -10295,11 +10294,11 @@
         <v>900</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423" s="95" t="s">
         <v>705</v>
       </c>
-      <c r="B423" s="114" t="s">
+      <c r="B423" s="134" t="s">
         <v>814</v>
       </c>
       <c r="C423" s="74" t="s">
@@ -10309,7 +10308,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="70" t="s">
         <v>707</v>
       </c>
@@ -10320,7 +10319,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="70" t="s">
         <v>708</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="70" t="s">
         <v>709</v>
       </c>
@@ -10348,7 +10347,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>710</v>
       </c>
@@ -10365,7 +10364,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>711</v>
       </c>
@@ -10376,7 +10375,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>712</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A430" s="70" t="s">
         <v>713</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431" s="70" t="s">
         <v>714</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A432" s="70" t="s">
         <v>722</v>
       </c>
@@ -10432,7 +10431,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="70" t="s">
         <v>723</v>
       </c>
@@ -10447,13 +10446,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B433" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Смена номера телефона (General_Change_phone)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C433" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AFFABF-F64D-4E44-8E46-809FFC21CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BD6A0B-860E-4625-BBC9-AFB8AF2EF371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$C$1:$C$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$D$1:$D$433</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <customWorkbookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="908">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2454,9 +2454,6 @@
   </si>
   <si>
     <t>Временный пароль (Local_Temp_Password)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> General АМ Подключение (General_AM_Connection)</t>
   </si>
   <si>
     <t>Кредит наличными (Про платеж) (Local_DIS_Credit)</t>
@@ -3686,7 +3683,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>434</xdr:row>
       <xdr:rowOff>121207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3734,8 +3731,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>113453</xdr:rowOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>102567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3782,8 +3779,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>308905</xdr:rowOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>123848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3830,8 +3827,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>308905</xdr:rowOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>123848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3878,8 +3875,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>317367</xdr:rowOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>132310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3926,8 +3923,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>185058</xdr:rowOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3974,8 +3971,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>185058</xdr:rowOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4022,8 +4019,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>126150</xdr:rowOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>126151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4427,10 +4424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="D436" sqref="D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4448,31 +4446,31 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="120" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" s="121" t="s">
         <v>901</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="C1" s="120" t="s">
         <v>902</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="D1" s="120" t="s">
         <v>903</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="E1" s="120" t="s">
         <v>904</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="F1" s="120" t="s">
         <v>905</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="G1" s="120" t="s">
         <v>906</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="H1" s="120" t="s">
         <v>907</v>
       </c>
-      <c r="H1" s="120" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
         <v>587</v>
       </c>
@@ -4483,34 +4481,34 @@
         <v>725</v>
       </c>
       <c r="H2" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>588</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>726</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="134" t="s">
         <v>724</v>
       </c>
       <c r="D3" s="111" t="s">
         <v>444</v>
       </c>
       <c r="H3" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>589</v>
       </c>
       <c r="B4" s="95" t="s">
         <v>727</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="134" t="s">
         <v>728</v>
       </c>
       <c r="D4" s="95"/>
@@ -4518,10 +4516,10 @@
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
       <c r="H4" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="s">
         <v>1</v>
       </c>
@@ -4529,10 +4527,10 @@
         <v>749</v>
       </c>
       <c r="H5" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="95" t="s">
         <v>234</v>
       </c>
@@ -4540,10 +4538,10 @@
         <v>749</v>
       </c>
       <c r="H6" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
         <v>257</v>
       </c>
@@ -4555,10 +4553,10 @@
       </c>
       <c r="G7" s="76"/>
       <c r="H7" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="s">
         <v>216</v>
       </c>
@@ -4566,10 +4564,10 @@
         <v>177</v>
       </c>
       <c r="H8" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="95" t="s">
         <v>2</v>
       </c>
@@ -4580,10 +4578,10 @@
         <v>256</v>
       </c>
       <c r="H9" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="95" t="s">
         <v>3</v>
       </c>
@@ -4594,10 +4592,10 @@
         <v>256</v>
       </c>
       <c r="H10" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="95" t="s">
         <v>340</v>
       </c>
@@ -4605,10 +4603,10 @@
         <v>732</v>
       </c>
       <c r="H11" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="95" t="s">
         <v>4</v>
       </c>
@@ -4616,43 +4614,43 @@
         <v>256</v>
       </c>
       <c r="H12" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="B13" s="95" t="s">
-        <v>804</v>
+      <c r="B13" s="134" t="s">
+        <v>803</v>
       </c>
       <c r="H13" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="95" t="s">
         <v>422</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H14" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="134" t="s">
         <v>725</v>
       </c>
       <c r="H15" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
         <v>184</v>
       </c>
@@ -4666,21 +4664,21 @@
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="H16" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="114" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B17" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H17" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="95" t="s">
         <v>185</v>
       </c>
@@ -4691,10 +4689,10 @@
         <v>254</v>
       </c>
       <c r="H18" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="95" t="s">
         <v>186</v>
       </c>
@@ -4705,10 +4703,10 @@
         <v>737</v>
       </c>
       <c r="H19" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="95" t="s">
         <v>187</v>
       </c>
@@ -4716,10 +4714,10 @@
         <v>177</v>
       </c>
       <c r="H20" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="95" t="s">
         <v>188</v>
       </c>
@@ -4727,10 +4725,10 @@
         <v>177</v>
       </c>
       <c r="H21" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="95" t="s">
         <v>189</v>
       </c>
@@ -4738,10 +4736,10 @@
         <v>738</v>
       </c>
       <c r="H22" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="95" t="s">
         <v>190</v>
       </c>
@@ -4752,10 +4750,10 @@
         <v>740</v>
       </c>
       <c r="H23" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="95" t="s">
         <v>191</v>
       </c>
@@ -4766,10 +4764,10 @@
         <v>256</v>
       </c>
       <c r="H24" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="95" t="s">
         <v>192</v>
       </c>
@@ -4777,10 +4775,10 @@
         <v>177</v>
       </c>
       <c r="H25" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="95" t="s">
         <v>534</v>
       </c>
@@ -4788,10 +4786,10 @@
         <v>177</v>
       </c>
       <c r="H26" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="95" t="s">
         <v>193</v>
       </c>
@@ -4799,10 +4797,10 @@
         <v>742</v>
       </c>
       <c r="H27" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="95" t="s">
         <v>424</v>
       </c>
@@ -4813,10 +4811,10 @@
         <v>743</v>
       </c>
       <c r="H28" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="95" t="s">
         <v>423</v>
       </c>
@@ -4824,10 +4822,10 @@
         <v>725</v>
       </c>
       <c r="H29" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="95" t="s">
         <v>668</v>
       </c>
@@ -4835,10 +4833,10 @@
         <v>177</v>
       </c>
       <c r="H30" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="95" t="s">
         <v>425</v>
       </c>
@@ -4849,10 +4847,10 @@
         <v>744</v>
       </c>
       <c r="H31" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="95" t="s">
         <v>426</v>
       </c>
@@ -4860,10 +4858,10 @@
         <v>686</v>
       </c>
       <c r="H32" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="95" t="s">
         <v>292</v>
       </c>
@@ -4875,10 +4873,10 @@
       </c>
       <c r="D33" s="70"/>
       <c r="H33" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="95" t="s">
         <v>6</v>
       </c>
@@ -4886,10 +4884,10 @@
         <v>746</v>
       </c>
       <c r="H34" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="95" t="s">
         <v>183</v>
       </c>
@@ -4900,35 +4898,35 @@
         <v>748</v>
       </c>
       <c r="H35" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="114" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B36" s="95" t="s">
         <v>749</v>
       </c>
       <c r="H36" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="95" t="s">
         <v>180</v>
       </c>
       <c r="B37" s="134" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C37" s="134" t="s">
         <v>483</v>
       </c>
       <c r="H37" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="114" t="s">
         <v>181</v>
       </c>
@@ -4939,10 +4937,10 @@
         <v>737</v>
       </c>
       <c r="H38" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="95" t="s">
         <v>182</v>
       </c>
@@ -4950,24 +4948,24 @@
         <v>177</v>
       </c>
       <c r="H39" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="95" t="s">
         <v>427</v>
       </c>
       <c r="B40" s="134" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C40" s="134" t="s">
         <v>483</v>
       </c>
       <c r="H40" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="95" t="s">
         <v>667</v>
       </c>
@@ -4976,10 +4974,10 @@
       </c>
       <c r="C41" s="70"/>
       <c r="H41" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="95" t="s">
         <v>194</v>
       </c>
@@ -4987,10 +4985,10 @@
         <v>177</v>
       </c>
       <c r="H42" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="95" t="s">
         <v>195</v>
       </c>
@@ -5001,10 +4999,10 @@
         <v>751</v>
       </c>
       <c r="H43" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="95" t="s">
         <v>196</v>
       </c>
@@ -5012,21 +5010,21 @@
         <v>177</v>
       </c>
       <c r="H44" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="95" t="s">
         <v>197</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H45" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="95" t="s">
         <v>198</v>
       </c>
@@ -5037,10 +5035,10 @@
         <v>753</v>
       </c>
       <c r="H46" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="95" t="s">
         <v>103</v>
       </c>
@@ -5051,10 +5049,10 @@
         <v>256</v>
       </c>
       <c r="H47" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="95" t="s">
         <v>105</v>
       </c>
@@ -5062,24 +5060,24 @@
         <v>755</v>
       </c>
       <c r="C48" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H48" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="95" t="s">
         <v>106</v>
       </c>
       <c r="B49" s="95" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H49" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="95" t="s">
         <v>179</v>
       </c>
@@ -5087,16 +5085,16 @@
         <v>745</v>
       </c>
       <c r="C50" s="95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D50" s="111" t="s">
         <v>260</v>
       </c>
       <c r="H50" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="95" t="s">
         <v>107</v>
       </c>
@@ -5104,24 +5102,24 @@
         <v>177</v>
       </c>
       <c r="H51" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="95" t="s">
         <v>199</v>
       </c>
       <c r="B52" s="95" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C52" s="95" t="s">
         <v>484</v>
       </c>
       <c r="H52" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="95" t="s">
         <v>200</v>
       </c>
@@ -5129,10 +5127,10 @@
         <v>177</v>
       </c>
       <c r="H53" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="95" t="s">
         <v>114</v>
       </c>
@@ -5140,21 +5138,21 @@
         <v>177</v>
       </c>
       <c r="H54" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="95" t="s">
         <v>226</v>
       </c>
       <c r="B55" s="95" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H55" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="95" t="s">
         <v>225</v>
       </c>
@@ -5165,10 +5163,10 @@
         <v>744</v>
       </c>
       <c r="H56" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="95" t="s">
         <v>203</v>
       </c>
@@ -5176,10 +5174,10 @@
         <v>177</v>
       </c>
       <c r="H57" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="95" t="s">
         <v>115</v>
       </c>
@@ -5190,10 +5188,10 @@
         <v>592</v>
       </c>
       <c r="H58" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="95" t="s">
         <v>116</v>
       </c>
@@ -5201,10 +5199,10 @@
         <v>177</v>
       </c>
       <c r="H59" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="95" t="s">
         <v>204</v>
       </c>
@@ -5212,40 +5210,40 @@
         <v>725</v>
       </c>
       <c r="H60" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="95" t="s">
         <v>206</v>
       </c>
       <c r="B61" s="95" t="s">
+        <v>759</v>
+      </c>
+      <c r="C61" s="112" t="s">
         <v>760</v>
-      </c>
-      <c r="C61" s="112" t="s">
-        <v>761</v>
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="80"/>
       <c r="H61" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="95" t="s">
         <v>117</v>
       </c>
       <c r="B62" s="116" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C62" s="114" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H62" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="95" t="s">
         <v>205</v>
       </c>
@@ -5253,60 +5251,60 @@
         <v>259</v>
       </c>
       <c r="H63" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="95" t="s">
         <v>207</v>
       </c>
       <c r="B64" s="116" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C64" s="114" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H64" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="95" t="s">
         <v>208</v>
       </c>
       <c r="B65" s="95" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H65" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="95" t="s">
         <v>209</v>
       </c>
       <c r="B66" s="95" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C66" s="95" t="s">
         <v>729</v>
       </c>
       <c r="H66" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="95" t="s">
         <v>210</v>
       </c>
       <c r="B67" s="95" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H67" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="95" t="s">
         <v>211</v>
       </c>
@@ -5317,10 +5315,10 @@
         <v>751</v>
       </c>
       <c r="H68" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="95" t="s">
         <v>212</v>
       </c>
@@ -5328,38 +5326,38 @@
         <v>177</v>
       </c>
       <c r="H69" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="95" t="s">
         <v>213</v>
       </c>
       <c r="B70" s="134" t="s">
+        <v>765</v>
+      </c>
+      <c r="C70" s="70" t="s">
         <v>766</v>
       </c>
-      <c r="C70" s="70" t="s">
-        <v>767</v>
-      </c>
       <c r="H70" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="95" t="s">
         <v>214</v>
       </c>
       <c r="B71" s="134" t="s">
+        <v>765</v>
+      </c>
+      <c r="C71" s="70" t="s">
         <v>766</v>
       </c>
-      <c r="C71" s="70" t="s">
-        <v>767</v>
-      </c>
       <c r="H71" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="95" t="s">
         <v>428</v>
       </c>
@@ -5367,13 +5365,13 @@
         <v>262</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H72" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="95" t="s">
         <v>429</v>
       </c>
@@ -5381,10 +5379,10 @@
         <v>430</v>
       </c>
       <c r="H73" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="95" t="s">
         <v>431</v>
       </c>
@@ -5395,24 +5393,24 @@
         <v>744</v>
       </c>
       <c r="H74" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="95" t="s">
         <v>224</v>
       </c>
       <c r="B75" s="134" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C75" s="134" t="s">
         <v>483</v>
       </c>
       <c r="H75" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="95" t="s">
         <v>223</v>
       </c>
@@ -5420,10 +5418,10 @@
         <v>177</v>
       </c>
       <c r="H76" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="95" t="s">
         <v>220</v>
       </c>
@@ -5431,13 +5429,13 @@
         <v>745</v>
       </c>
       <c r="C77" s="111" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H77" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="95" t="s">
         <v>219</v>
       </c>
@@ -5448,10 +5446,10 @@
         <v>744</v>
       </c>
       <c r="H78" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="95" t="s">
         <v>222</v>
       </c>
@@ -5459,19 +5457,19 @@
         <v>260</v>
       </c>
       <c r="C79" s="95" t="s">
+        <v>769</v>
+      </c>
+      <c r="D79" s="95" t="s">
         <v>770</v>
       </c>
-      <c r="D79" s="95" t="s">
-        <v>771</v>
-      </c>
       <c r="E79" s="95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H79" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="95" t="s">
         <v>221</v>
       </c>
@@ -5479,10 +5477,10 @@
         <v>177</v>
       </c>
       <c r="H80" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="95" t="s">
         <v>218</v>
       </c>
@@ -5490,49 +5488,49 @@
         <v>739</v>
       </c>
       <c r="C81" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H81" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="114" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B82" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H82" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="114" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B83" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H83" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="95" t="s">
         <v>217</v>
       </c>
       <c r="B84" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C84" s="111" t="s">
         <v>592</v>
       </c>
       <c r="H84" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="95" t="s">
         <v>122</v>
       </c>
@@ -5543,33 +5541,33 @@
         <v>725</v>
       </c>
       <c r="H85" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="114" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B86" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H86" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="114" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B87" s="95" t="s">
         <v>177</v>
       </c>
       <c r="G87" s="77"/>
       <c r="H87" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="95" t="s">
         <v>229</v>
       </c>
@@ -5577,10 +5575,10 @@
         <v>177</v>
       </c>
       <c r="H88" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="95" t="s">
         <v>231</v>
       </c>
@@ -5588,10 +5586,10 @@
         <v>177</v>
       </c>
       <c r="H89" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="95" t="s">
         <v>230</v>
       </c>
@@ -5603,10 +5601,10 @@
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
       <c r="H90" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="95" t="s">
         <v>149</v>
       </c>
@@ -5614,24 +5612,24 @@
         <v>177</v>
       </c>
       <c r="H91" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="95" t="s">
         <v>160</v>
       </c>
       <c r="B92" s="95" t="s">
+        <v>773</v>
+      </c>
+      <c r="C92" s="111" t="s">
         <v>774</v>
       </c>
-      <c r="C92" s="111" t="s">
-        <v>775</v>
-      </c>
       <c r="H92" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="95" t="s">
         <v>158</v>
       </c>
@@ -5642,10 +5640,10 @@
         <v>735</v>
       </c>
       <c r="H93" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="95" t="s">
         <v>159</v>
       </c>
@@ -5653,10 +5651,10 @@
         <v>746</v>
       </c>
       <c r="H94" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="95" t="s">
         <v>227</v>
       </c>
@@ -5667,10 +5665,10 @@
         <v>260</v>
       </c>
       <c r="H95" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="95" t="s">
         <v>228</v>
       </c>
@@ -5681,10 +5679,10 @@
         <v>735</v>
       </c>
       <c r="H96" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="95" t="s">
         <v>239</v>
       </c>
@@ -5692,10 +5690,10 @@
         <v>177</v>
       </c>
       <c r="H97" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="95" t="s">
         <v>240</v>
       </c>
@@ -5703,10 +5701,10 @@
         <v>177</v>
       </c>
       <c r="H98" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="95" t="s">
         <v>241</v>
       </c>
@@ -5714,24 +5712,24 @@
         <v>177</v>
       </c>
       <c r="H99" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="95" t="s">
         <v>242</v>
       </c>
       <c r="B100" s="134" t="s">
+        <v>765</v>
+      </c>
+      <c r="C100" s="70" t="s">
         <v>766</v>
       </c>
-      <c r="C100" s="70" t="s">
-        <v>767</v>
-      </c>
       <c r="H100" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="95" t="s">
         <v>243</v>
       </c>
@@ -5739,10 +5737,10 @@
         <v>177</v>
       </c>
       <c r="H101" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="95" t="s">
         <v>244</v>
       </c>
@@ -5750,10 +5748,10 @@
         <v>177</v>
       </c>
       <c r="H102" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="95" t="s">
         <v>245</v>
       </c>
@@ -5761,10 +5759,10 @@
         <v>177</v>
       </c>
       <c r="H103" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="98" t="s">
         <v>246</v>
       </c>
@@ -5772,10 +5770,10 @@
         <v>177</v>
       </c>
       <c r="H104" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="95" t="s">
         <v>247</v>
       </c>
@@ -5783,41 +5781,41 @@
         <v>755</v>
       </c>
       <c r="C105" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H105" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="95" t="s">
         <v>248</v>
       </c>
       <c r="B106" s="134" t="s">
+        <v>765</v>
+      </c>
+      <c r="C106" s="70" t="s">
         <v>766</v>
       </c>
-      <c r="C106" s="70" t="s">
-        <v>767</v>
-      </c>
       <c r="H106" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="95" t="s">
         <v>235</v>
       </c>
       <c r="B107" s="116" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C107" s="114" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H107" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="95" t="s">
         <v>236</v>
       </c>
@@ -5825,24 +5823,24 @@
         <v>261</v>
       </c>
       <c r="H108" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="95" t="s">
         <v>249</v>
       </c>
       <c r="B109" s="95" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C109" s="111" t="s">
         <v>260</v>
       </c>
       <c r="H109" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="95" t="s">
         <v>250</v>
       </c>
@@ -5850,24 +5848,24 @@
         <v>177</v>
       </c>
       <c r="H110" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="95" t="s">
         <v>251</v>
       </c>
       <c r="B111" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C111" s="111" t="s">
         <v>592</v>
       </c>
       <c r="H111" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="95" t="s">
         <v>252</v>
       </c>
@@ -5875,24 +5873,24 @@
         <v>177</v>
       </c>
       <c r="H112" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="95" t="s">
         <v>237</v>
       </c>
       <c r="B113" s="114" t="s">
+        <v>776</v>
+      </c>
+      <c r="C113" s="70" t="s">
         <v>777</v>
       </c>
-      <c r="C113" s="70" t="s">
-        <v>778</v>
-      </c>
       <c r="H113" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="95" t="s">
         <v>238</v>
       </c>
@@ -5900,10 +5898,10 @@
         <v>261</v>
       </c>
       <c r="H114" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="70" t="s">
         <v>487</v>
       </c>
@@ -5914,10 +5912,10 @@
         <v>592</v>
       </c>
       <c r="H115" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="70" t="s">
         <v>267</v>
       </c>
@@ -5925,27 +5923,27 @@
         <v>755</v>
       </c>
       <c r="C116" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H116" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="70" t="s">
         <v>268</v>
       </c>
       <c r="B117" s="95" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C117" s="95" t="s">
         <v>484</v>
       </c>
       <c r="H117" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="70" t="s">
         <v>270</v>
       </c>
@@ -5956,10 +5954,10 @@
         <v>533</v>
       </c>
       <c r="H118" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="70" t="s">
         <v>636</v>
       </c>
@@ -5967,24 +5965,24 @@
         <v>177</v>
       </c>
       <c r="H119" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="70" t="s">
         <v>271</v>
       </c>
       <c r="B120" s="114" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H120" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="70" t="s">
         <v>272</v>
       </c>
@@ -5992,52 +5990,52 @@
         <v>273</v>
       </c>
       <c r="C121" s="95" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H121" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="70" t="s">
         <v>337</v>
       </c>
       <c r="B122" s="74" t="s">
+        <v>780</v>
+      </c>
+      <c r="C122" s="74" t="s">
         <v>781</v>
       </c>
-      <c r="C122" s="74" t="s">
-        <v>782</v>
-      </c>
       <c r="H122" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="70" t="s">
         <v>274</v>
       </c>
       <c r="B123" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C123" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H123" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="95" t="s">
         <v>288</v>
       </c>
       <c r="B124" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H124" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="70" t="s">
         <v>287</v>
       </c>
@@ -6045,44 +6043,44 @@
         <v>275</v>
       </c>
       <c r="H125" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="70" t="s">
         <v>286</v>
       </c>
       <c r="B126" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H126" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="70" t="s">
         <v>284</v>
       </c>
       <c r="B127" s="95" t="s">
+        <v>785</v>
+      </c>
+      <c r="C127" s="95" t="s">
         <v>786</v>
       </c>
-      <c r="C127" s="95" t="s">
+      <c r="D127" s="95" t="s">
+        <v>775</v>
+      </c>
+      <c r="E127" s="95" t="s">
         <v>787</v>
-      </c>
-      <c r="D127" s="95" t="s">
-        <v>776</v>
-      </c>
-      <c r="E127" s="95" t="s">
-        <v>788</v>
       </c>
       <c r="F127" s="111" t="s">
         <v>725</v>
       </c>
       <c r="H127" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="70" t="s">
         <v>285</v>
       </c>
@@ -6090,10 +6088,10 @@
         <v>177</v>
       </c>
       <c r="H128" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="95" t="s">
         <v>283</v>
       </c>
@@ -6101,27 +6099,27 @@
         <v>262</v>
       </c>
       <c r="C129" s="95" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H129" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="70" t="s">
         <v>280</v>
       </c>
       <c r="B130" s="74" t="s">
+        <v>780</v>
+      </c>
+      <c r="C130" s="74" t="s">
         <v>781</v>
       </c>
-      <c r="C130" s="74" t="s">
-        <v>782</v>
-      </c>
       <c r="H130" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="70" t="s">
         <v>282</v>
       </c>
@@ -6129,10 +6127,10 @@
         <v>177</v>
       </c>
       <c r="H131" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="70" t="s">
         <v>281</v>
       </c>
@@ -6140,10 +6138,10 @@
         <v>177</v>
       </c>
       <c r="H132" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="70" t="s">
         <v>291</v>
       </c>
@@ -6151,10 +6149,10 @@
         <v>725</v>
       </c>
       <c r="H133" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="70" t="s">
         <v>537</v>
       </c>
@@ -6162,52 +6160,52 @@
         <v>177</v>
       </c>
       <c r="H134" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="70" t="s">
         <v>295</v>
       </c>
       <c r="B135" s="95" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C135" s="95" t="s">
         <v>484</v>
       </c>
       <c r="H135" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="95" t="s">
         <v>296</v>
       </c>
       <c r="B136" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C136" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H136" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="70" t="s">
         <v>297</v>
       </c>
       <c r="B137" s="70" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C137" s="111" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H137" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="70" t="s">
         <v>298</v>
       </c>
@@ -6218,38 +6216,38 @@
         <v>725</v>
       </c>
       <c r="H138" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="70" t="s">
         <v>299</v>
       </c>
       <c r="B139" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C139" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H139" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="70" t="s">
         <v>300</v>
       </c>
       <c r="B140" s="74" t="s">
+        <v>780</v>
+      </c>
+      <c r="C140" s="74" t="s">
         <v>781</v>
       </c>
-      <c r="C140" s="74" t="s">
-        <v>782</v>
-      </c>
       <c r="H140" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="70" t="s">
         <v>301</v>
       </c>
@@ -6260,10 +6258,10 @@
         <v>744</v>
       </c>
       <c r="H141" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="70" t="s">
         <v>488</v>
       </c>
@@ -6271,10 +6269,10 @@
         <v>261</v>
       </c>
       <c r="H142" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="70" t="s">
         <v>304</v>
       </c>
@@ -6282,25 +6280,25 @@
         <v>177</v>
       </c>
       <c r="H143" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="70" t="s">
         <v>305</v>
       </c>
       <c r="B144" s="114" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C144" s="95" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E144" s="70"/>
       <c r="H144" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="70" t="s">
         <v>306</v>
       </c>
@@ -6311,10 +6309,10 @@
         <v>256</v>
       </c>
       <c r="H145" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="70" t="s">
         <v>307</v>
       </c>
@@ -6322,10 +6320,10 @@
         <v>725</v>
       </c>
       <c r="H146" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="95" t="s">
         <v>309</v>
       </c>
@@ -6333,10 +6331,10 @@
         <v>725</v>
       </c>
       <c r="H147" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="70" t="s">
         <v>308</v>
       </c>
@@ -6344,24 +6342,24 @@
         <v>177</v>
       </c>
       <c r="H148" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="70" t="s">
         <v>505</v>
       </c>
       <c r="B149" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C149" s="111" t="s">
         <v>255</v>
       </c>
       <c r="H149" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="70" t="s">
         <v>311</v>
       </c>
@@ -6369,66 +6367,66 @@
         <v>177</v>
       </c>
       <c r="H150" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="70" t="s">
         <v>312</v>
       </c>
       <c r="B151" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C151" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H151" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="70" t="s">
         <v>315</v>
       </c>
       <c r="B152" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="C152" s="74" t="s">
         <v>791</v>
       </c>
-      <c r="C152" s="74" t="s">
-        <v>792</v>
-      </c>
       <c r="H152" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="70" t="s">
         <v>316</v>
       </c>
       <c r="B153" s="134" t="s">
+        <v>765</v>
+      </c>
+      <c r="C153" s="70" t="s">
         <v>766</v>
       </c>
-      <c r="C153" s="70" t="s">
-        <v>767</v>
-      </c>
       <c r="H153" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="70" t="s">
         <v>319</v>
       </c>
       <c r="B154" s="134" t="s">
+        <v>765</v>
+      </c>
+      <c r="C154" s="134" t="s">
         <v>766</v>
       </c>
-      <c r="C154" s="134" t="s">
-        <v>767</v>
-      </c>
       <c r="H154" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="70" t="s">
         <v>317</v>
       </c>
@@ -6436,38 +6434,38 @@
         <v>261</v>
       </c>
       <c r="H155" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
         <v>432</v>
       </c>
       <c r="B156" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="C156" s="74" t="s">
         <v>791</v>
       </c>
-      <c r="C156" s="74" t="s">
-        <v>792</v>
-      </c>
       <c r="H156" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="70" t="s">
         <v>313</v>
       </c>
       <c r="B157" s="116" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C157" s="114" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H157" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="70" t="s">
         <v>314</v>
       </c>
@@ -6475,24 +6473,24 @@
         <v>725</v>
       </c>
       <c r="H158" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="70" t="s">
         <v>318</v>
       </c>
       <c r="B159" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C159" s="111" t="s">
         <v>592</v>
       </c>
       <c r="H159" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="70" t="s">
         <v>321</v>
       </c>
@@ -6500,10 +6498,10 @@
         <v>725</v>
       </c>
       <c r="H160" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="70" t="s">
         <v>322</v>
       </c>
@@ -6511,10 +6509,10 @@
         <v>177</v>
       </c>
       <c r="H161" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="70" t="s">
         <v>323</v>
       </c>
@@ -6525,35 +6523,35 @@
         <v>743</v>
       </c>
       <c r="H162" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="70" t="s">
         <v>324</v>
       </c>
       <c r="B163" s="114" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H163" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="70" t="s">
         <v>512</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C164" s="111" t="s">
         <v>592</v>
       </c>
       <c r="H164" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="70" t="s">
         <v>326</v>
       </c>
@@ -6564,46 +6562,46 @@
         <v>743</v>
       </c>
       <c r="H165" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="70" t="s">
         <v>327</v>
       </c>
       <c r="B166" s="95" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H166" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="70" t="s">
         <v>328</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C167" s="111" t="s">
         <v>592</v>
       </c>
       <c r="H167" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="70" t="s">
         <v>329</v>
       </c>
       <c r="B168" s="95" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H168" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="70" t="s">
         <v>331</v>
       </c>
@@ -6611,10 +6609,10 @@
         <v>263</v>
       </c>
       <c r="H169" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="70" t="s">
         <v>289</v>
       </c>
@@ -6622,10 +6620,10 @@
         <v>749</v>
       </c>
       <c r="H170" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="70" t="s">
         <v>338</v>
       </c>
@@ -6636,24 +6634,24 @@
         <v>744</v>
       </c>
       <c r="H171" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="70" t="s">
         <v>433</v>
       </c>
       <c r="B172" s="116" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C172" s="95" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H172" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="70" t="s">
         <v>341</v>
       </c>
@@ -6661,10 +6659,10 @@
         <v>177</v>
       </c>
       <c r="H173" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="70" t="s">
         <v>342</v>
       </c>
@@ -6672,21 +6670,21 @@
         <v>725</v>
       </c>
       <c r="H174" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="70" t="s">
         <v>343</v>
       </c>
       <c r="B175" s="95" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H175" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="70" t="s">
         <v>344</v>
       </c>
@@ -6694,10 +6692,10 @@
         <v>725</v>
       </c>
       <c r="H176" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="70" t="s">
         <v>345</v>
       </c>
@@ -6705,10 +6703,10 @@
         <v>177</v>
       </c>
       <c r="H177" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="70" t="s">
         <v>346</v>
       </c>
@@ -6716,13 +6714,13 @@
         <v>262</v>
       </c>
       <c r="C178" s="95" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H178" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="70" t="s">
         <v>347</v>
       </c>
@@ -6730,46 +6728,46 @@
         <v>177</v>
       </c>
       <c r="H179" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="70" t="s">
         <v>348</v>
       </c>
       <c r="B180" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H180" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="70" t="s">
         <v>349</v>
       </c>
       <c r="B181" s="95" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H181" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="70" t="s">
         <v>350</v>
       </c>
       <c r="B182" s="74" t="s">
+        <v>780</v>
+      </c>
+      <c r="C182" s="74" t="s">
         <v>781</v>
       </c>
-      <c r="C182" s="74" t="s">
-        <v>782</v>
-      </c>
       <c r="H182" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="70" t="s">
         <v>351</v>
       </c>
@@ -6777,67 +6775,67 @@
         <v>177</v>
       </c>
       <c r="H183" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="70" t="s">
         <v>352</v>
       </c>
       <c r="B184" s="95" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H184" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="70" t="s">
         <v>353</v>
       </c>
       <c r="B185" s="70" t="s">
+        <v>798</v>
+      </c>
+      <c r="C185" s="95" t="s">
         <v>799</v>
       </c>
-      <c r="C185" s="95" t="s">
+      <c r="D185" s="111" t="s">
         <v>800</v>
       </c>
-      <c r="D185" s="111" t="s">
-        <v>801</v>
-      </c>
       <c r="H185" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="70" t="s">
         <v>355</v>
       </c>
       <c r="B186" s="95" t="s">
+        <v>801</v>
+      </c>
+      <c r="C186" s="95" t="s">
         <v>802</v>
-      </c>
-      <c r="C186" s="95" t="s">
-        <v>803</v>
       </c>
       <c r="D186" s="111" t="s">
         <v>725</v>
       </c>
       <c r="H186" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="70" t="s">
         <v>356</v>
       </c>
       <c r="B187" s="96" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C187" s="70"/>
       <c r="H187" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="70" t="s">
         <v>357</v>
       </c>
@@ -6845,10 +6843,10 @@
         <v>177</v>
       </c>
       <c r="H188" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="70" t="s">
         <v>630</v>
       </c>
@@ -6859,24 +6857,24 @@
         <v>743</v>
       </c>
       <c r="H189" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="70" t="s">
         <v>358</v>
       </c>
       <c r="B190" s="114" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C190" s="70" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H190" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="70" t="s">
         <v>434</v>
       </c>
@@ -6885,21 +6883,21 @@
       </c>
       <c r="C191" s="70"/>
       <c r="H191" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="70" t="s">
         <v>435</v>
       </c>
       <c r="B192" s="95" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H192" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="70" t="s">
         <v>360</v>
       </c>
@@ -6907,13 +6905,13 @@
         <v>262</v>
       </c>
       <c r="C193" s="95" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H193" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="95" t="s">
         <v>627</v>
       </c>
@@ -6921,15 +6919,15 @@
         <v>725</v>
       </c>
       <c r="H194" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="70" t="s">
         <v>582</v>
       </c>
       <c r="B195" s="70" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C195" s="91"/>
       <c r="D195" s="91"/>
@@ -6937,24 +6935,24 @@
       <c r="F195" s="91"/>
       <c r="G195" s="91"/>
       <c r="H195" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="95" t="s">
         <v>436</v>
       </c>
       <c r="B196" s="95" t="s">
+        <v>773</v>
+      </c>
+      <c r="C196" s="111" t="s">
         <v>774</v>
       </c>
-      <c r="C196" s="111" t="s">
-        <v>775</v>
-      </c>
       <c r="H196" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="98" t="s">
         <v>437</v>
       </c>
@@ -6962,44 +6960,44 @@
         <v>737</v>
       </c>
       <c r="C197" s="111" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H197" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="95" t="s">
         <v>438</v>
       </c>
       <c r="B198" s="95" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C198" s="111" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H198" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="95" t="s">
         <v>439</v>
       </c>
       <c r="B199" s="70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C199" s="95" t="s">
         <v>739</v>
       </c>
       <c r="D199" s="111" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H199" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" s="91" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" s="91" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="95" t="s">
         <v>440</v>
       </c>
@@ -7012,24 +7010,24 @@
       <c r="F200" s="95"/>
       <c r="G200" s="95"/>
       <c r="H200" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="95" t="s">
         <v>495</v>
       </c>
       <c r="B201" s="95" t="s">
+        <v>785</v>
+      </c>
+      <c r="C201" s="95" t="s">
         <v>786</v>
       </c>
-      <c r="C201" s="95" t="s">
+      <c r="D201" s="95" t="s">
+        <v>775</v>
+      </c>
+      <c r="E201" s="95" t="s">
         <v>787</v>
-      </c>
-      <c r="D201" s="95" t="s">
-        <v>776</v>
-      </c>
-      <c r="E201" s="95" t="s">
-        <v>788</v>
       </c>
       <c r="F201" s="90" t="s">
         <v>442</v>
@@ -7038,10 +7036,10 @@
         <v>725</v>
       </c>
       <c r="H201" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="95" t="s">
         <v>443</v>
       </c>
@@ -7049,16 +7047,16 @@
         <v>444</v>
       </c>
       <c r="C202" s="95" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D202" s="70" t="s">
         <v>726</v>
       </c>
       <c r="H202" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="95" t="s">
         <v>445</v>
       </c>
@@ -7066,65 +7064,65 @@
         <v>755</v>
       </c>
       <c r="C203" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H203" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="95" t="s">
         <v>446</v>
       </c>
       <c r="B204" s="95" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C204" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E204" s="70"/>
       <c r="H204" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="95" t="s">
         <v>447</v>
       </c>
       <c r="B205" s="114" t="s">
+        <v>808</v>
+      </c>
+      <c r="C205" s="114" t="s">
         <v>809</v>
       </c>
-      <c r="C205" s="114" t="s">
-        <v>810</v>
-      </c>
       <c r="H205" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="95" t="s">
         <v>571</v>
       </c>
       <c r="B206" s="95" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C206" s="95" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D206" s="95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E206" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F206" s="111" t="s">
         <v>260</v>
       </c>
       <c r="H206" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="95" t="s">
         <v>570</v>
       </c>
@@ -7132,19 +7130,19 @@
         <v>260</v>
       </c>
       <c r="C207" s="95" t="s">
+        <v>769</v>
+      </c>
+      <c r="D207" s="95" t="s">
         <v>770</v>
       </c>
-      <c r="D207" s="95" t="s">
-        <v>771</v>
-      </c>
       <c r="E207" s="95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H207" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="95" t="s">
         <v>569</v>
       </c>
@@ -7155,30 +7153,30 @@
         <v>735</v>
       </c>
       <c r="H208" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="95" t="s">
         <v>568</v>
       </c>
       <c r="B209" s="95" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C209" s="95" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D209" s="95" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E209" s="111" t="s">
         <v>725</v>
       </c>
       <c r="H209" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="95" t="s">
         <v>654</v>
       </c>
@@ -7186,35 +7184,35 @@
         <v>725</v>
       </c>
       <c r="H210" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="95" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H211" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="95" t="s">
         <v>448</v>
       </c>
       <c r="B212" s="134" t="s">
+        <v>813</v>
+      </c>
+      <c r="C212" s="114" t="s">
         <v>814</v>
       </c>
-      <c r="C212" s="114" t="s">
+      <c r="D212" s="114" t="s">
         <v>815</v>
       </c>
-      <c r="D212" s="114" t="s">
-        <v>816</v>
-      </c>
       <c r="H212" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="95" t="s">
         <v>450</v>
       </c>
@@ -7222,14 +7220,14 @@
         <v>451</v>
       </c>
       <c r="C213" s="95" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D213" s="89"/>
       <c r="H213" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="95" t="s">
         <v>452</v>
       </c>
@@ -7237,45 +7235,45 @@
         <v>485</v>
       </c>
       <c r="C214" s="70" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H214" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="95" t="s">
         <v>453</v>
       </c>
       <c r="B215" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C215" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D215" s="111" t="s">
         <v>592</v>
       </c>
       <c r="H215" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="78" t="s">
         <v>567</v>
       </c>
       <c r="B216" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C216" s="111" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E216" s="78"/>
       <c r="H216" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="78" t="s">
         <v>566</v>
       </c>
@@ -7283,13 +7281,13 @@
         <v>262</v>
       </c>
       <c r="C217" s="78" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H217" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="95" t="s">
         <v>565</v>
       </c>
@@ -7301,10 +7299,10 @@
       </c>
       <c r="G218" s="80"/>
       <c r="H218" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="95" t="s">
         <v>455</v>
       </c>
@@ -7316,42 +7314,42 @@
       </c>
       <c r="D219" s="80"/>
       <c r="H219" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="95" t="s">
         <v>564</v>
       </c>
       <c r="B220" s="95" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C220" s="95" t="s">
         <v>741</v>
       </c>
       <c r="D220" s="111" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F220" s="78"/>
       <c r="H220" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="95" t="s">
         <v>563</v>
       </c>
       <c r="B221" s="95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C221" s="112" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H221" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="95" t="s">
         <v>655</v>
       </c>
@@ -7359,41 +7357,41 @@
         <v>741</v>
       </c>
       <c r="C222" s="95" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D222" s="111" t="s">
         <v>256</v>
       </c>
       <c r="H222" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="95" t="s">
         <v>457</v>
       </c>
       <c r="B223" s="95" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H223" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="95" t="s">
         <v>458</v>
       </c>
       <c r="B224" s="95" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C224" s="111" t="s">
         <v>592</v>
       </c>
       <c r="H224" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="95" t="s">
         <v>459</v>
       </c>
@@ -7404,24 +7402,24 @@
         <v>725</v>
       </c>
       <c r="H225" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="95" t="s">
         <v>460</v>
       </c>
       <c r="B226" s="95" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C226" s="111" t="s">
         <v>259</v>
       </c>
       <c r="H226" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="95" t="s">
         <v>461</v>
       </c>
@@ -7429,55 +7427,55 @@
         <v>725</v>
       </c>
       <c r="H227" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="95" t="s">
         <v>462</v>
       </c>
       <c r="B228" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C228" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H228" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="95" t="s">
         <v>463</v>
       </c>
       <c r="B229" s="95" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C229" s="95" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H229" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="95" t="s">
         <v>464</v>
       </c>
       <c r="B230" s="95" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C230" s="95" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D230" s="111" t="s">
         <v>259</v>
       </c>
       <c r="H230" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="95" t="s">
         <v>465</v>
       </c>
@@ -7488,10 +7486,10 @@
         <v>466</v>
       </c>
       <c r="H231" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="95" t="s">
         <v>468</v>
       </c>
@@ -7499,35 +7497,35 @@
         <v>260</v>
       </c>
       <c r="C232" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D232" s="70" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E232" s="95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F232" s="70"/>
       <c r="G232" s="70"/>
       <c r="H232" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="95" t="s">
         <v>562</v>
       </c>
       <c r="B233" s="95" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C233" s="111" t="s">
         <v>592</v>
       </c>
       <c r="H233" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="95" t="s">
         <v>561</v>
       </c>
@@ -7535,27 +7533,27 @@
         <v>441</v>
       </c>
       <c r="C234" s="95" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H234" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="95" t="s">
         <v>559</v>
       </c>
       <c r="B235" s="70" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C235" s="70" t="s">
         <v>725</v>
       </c>
       <c r="H235" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="70" t="s">
         <v>560</v>
       </c>
@@ -7563,46 +7561,46 @@
         <v>745</v>
       </c>
       <c r="C236" s="111" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H236" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="95" t="s">
         <v>657</v>
       </c>
       <c r="B237" s="98" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C237" s="111" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H237" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="70" t="s">
         <v>489</v>
       </c>
       <c r="B238" s="98" t="s">
+        <v>799</v>
+      </c>
+      <c r="C238" s="111" t="s">
         <v>800</v>
       </c>
-      <c r="C238" s="111" t="s">
-        <v>801</v>
-      </c>
       <c r="H238" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="70" t="s">
         <v>491</v>
       </c>
       <c r="B239" s="95" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C239" s="95" t="s">
         <v>726</v>
@@ -7611,24 +7609,24 @@
         <v>444</v>
       </c>
       <c r="H239" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="70" t="s">
         <v>490</v>
       </c>
       <c r="B240" s="98" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C240" s="111" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H240" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="70" t="s">
         <v>530</v>
       </c>
@@ -7636,13 +7634,13 @@
         <v>755</v>
       </c>
       <c r="C241" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H241" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="70" t="s">
         <v>529</v>
       </c>
@@ -7650,10 +7648,10 @@
         <v>755</v>
       </c>
       <c r="C242" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H242" s="119" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -7661,19 +7659,19 @@
         <v>528</v>
       </c>
       <c r="B243" s="70" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C243" s="70" t="s">
         <v>755</v>
       </c>
       <c r="D243" s="111" t="s">
-        <v>756</v>
+        <v>813</v>
       </c>
       <c r="H243" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="70" t="s">
         <v>527</v>
       </c>
@@ -7687,10 +7685,10 @@
         <v>444</v>
       </c>
       <c r="H244" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="70" t="s">
         <v>716</v>
       </c>
@@ -7698,14 +7696,14 @@
         <v>755</v>
       </c>
       <c r="C245" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D245" s="111"/>
       <c r="H245" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="70" t="s">
         <v>717</v>
       </c>
@@ -7716,87 +7714,87 @@
         <v>725</v>
       </c>
       <c r="H246" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="70" t="s">
         <v>525</v>
       </c>
       <c r="B247" s="70" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C247" s="70" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D247" s="111" t="s">
         <v>441</v>
       </c>
       <c r="H247" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="97" t="s">
         <v>524</v>
       </c>
       <c r="B248" s="97" t="s">
+        <v>798</v>
+      </c>
+      <c r="C248" s="99" t="s">
         <v>799</v>
       </c>
-      <c r="C248" s="99" t="s">
+      <c r="D248" s="111" t="s">
         <v>800</v>
       </c>
-      <c r="D248" s="111" t="s">
-        <v>801</v>
-      </c>
       <c r="H248" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="70" t="s">
         <v>523</v>
       </c>
       <c r="B249" s="70" t="s">
+        <v>785</v>
+      </c>
+      <c r="C249" s="70" t="s">
         <v>786</v>
       </c>
-      <c r="C249" s="70" t="s">
-        <v>787</v>
-      </c>
       <c r="D249" s="70" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E249" s="70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F249" s="111" t="s">
         <v>725</v>
       </c>
       <c r="H249" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="70" t="s">
         <v>496</v>
       </c>
       <c r="B250" s="70" t="s">
+        <v>805</v>
+      </c>
+      <c r="C250" s="70" t="s">
         <v>806</v>
       </c>
-      <c r="C250" s="70" t="s">
-        <v>807</v>
-      </c>
       <c r="D250" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E250" s="111" t="s">
         <v>725</v>
       </c>
       <c r="H250" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="70" t="s">
         <v>522</v>
       </c>
@@ -7807,10 +7805,10 @@
       <c r="D251" s="70"/>
       <c r="E251" s="70"/>
       <c r="H251" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="70" t="s">
         <v>497</v>
       </c>
@@ -7819,26 +7817,26 @@
       <c r="D252" s="70"/>
       <c r="E252" s="70"/>
       <c r="H252" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="70" t="s">
         <v>498</v>
       </c>
       <c r="B253" s="70" t="s">
+        <v>827</v>
+      </c>
+      <c r="C253" s="70" t="s">
         <v>828</v>
-      </c>
-      <c r="C253" s="70" t="s">
-        <v>829</v>
       </c>
       <c r="D253" s="70"/>
       <c r="E253" s="70"/>
       <c r="H253" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="70" t="s">
         <v>626</v>
       </c>
@@ -7851,44 +7849,44 @@
       <c r="D254" s="70"/>
       <c r="E254" s="70"/>
       <c r="H254" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="70" t="s">
         <v>499</v>
       </c>
       <c r="B255" s="70" t="s">
+        <v>829</v>
+      </c>
+      <c r="C255" s="70" t="s">
         <v>830</v>
-      </c>
-      <c r="C255" s="70" t="s">
-        <v>831</v>
       </c>
       <c r="D255" s="111" t="s">
         <v>725</v>
       </c>
       <c r="E255" s="70"/>
       <c r="H255" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="70" t="s">
         <v>500</v>
       </c>
       <c r="B256" s="70" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C256" s="112" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
       <c r="H256" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="70" t="s">
         <v>501</v>
       </c>
@@ -7899,74 +7897,74 @@
       <c r="D257" s="70"/>
       <c r="E257" s="70"/>
       <c r="H257" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="70" t="s">
         <v>502</v>
       </c>
       <c r="B258" s="70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C258" s="70" t="s">
         <v>739</v>
       </c>
       <c r="D258" s="111" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E258" s="70"/>
       <c r="H258" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="70" t="s">
         <v>503</v>
       </c>
       <c r="B259" s="116" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C259" s="70" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
       <c r="H259" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="70" t="s">
         <v>504</v>
       </c>
       <c r="B260" s="70" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C260" s="70"/>
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
       <c r="H260" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="70" t="s">
         <v>513</v>
       </c>
       <c r="B261" s="70" t="s">
+        <v>833</v>
+      </c>
+      <c r="C261" s="112" t="s">
         <v>834</v>
-      </c>
-      <c r="C261" s="112" t="s">
-        <v>835</v>
       </c>
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
       <c r="H261" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="70" t="s">
         <v>531</v>
       </c>
@@ -7974,15 +7972,15 @@
         <v>514</v>
       </c>
       <c r="C262" s="70" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
       <c r="H262" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="70" t="s">
         <v>517</v>
       </c>
@@ -7990,24 +7988,24 @@
         <v>485</v>
       </c>
       <c r="C263" s="70" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D263" s="70" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E263" s="111" t="s">
         <v>725</v>
       </c>
       <c r="H263" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="70" t="s">
         <v>516</v>
       </c>
       <c r="B264" s="70" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C264" s="70" t="s">
         <v>725</v>
@@ -8015,30 +8013,30 @@
       <c r="D264" s="70"/>
       <c r="E264" s="70"/>
       <c r="H264" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="70" t="s">
         <v>518</v>
       </c>
       <c r="B265" s="70" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C265" s="70" t="s">
         <v>734</v>
       </c>
       <c r="D265" s="70" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E265" s="111" t="s">
         <v>725</v>
       </c>
       <c r="H265" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="70" t="s">
         <v>519</v>
       </c>
@@ -8049,44 +8047,44 @@
       <c r="D266" s="70"/>
       <c r="E266" s="70"/>
       <c r="H266" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="70" t="s">
         <v>532</v>
       </c>
       <c r="B267" s="70" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C267" s="70" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D267" s="70" t="s">
         <v>483</v>
       </c>
       <c r="E267" s="70"/>
       <c r="H267" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="70" t="s">
         <v>215</v>
       </c>
       <c r="B268" s="70" t="s">
+        <v>790</v>
+      </c>
+      <c r="C268" s="74" t="s">
         <v>791</v>
-      </c>
-      <c r="C268" s="74" t="s">
-        <v>792</v>
       </c>
       <c r="D268" s="70"/>
       <c r="E268" s="70"/>
       <c r="H268" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="70" t="s">
         <v>129</v>
       </c>
@@ -8099,10 +8097,10 @@
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
       <c r="H269" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="70" t="s">
         <v>660</v>
       </c>
@@ -8113,16 +8111,16 @@
         <v>737</v>
       </c>
       <c r="D270" s="134" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E270" s="70" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H270" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="70" t="s">
         <v>310</v>
       </c>
@@ -8130,92 +8128,92 @@
         <v>454</v>
       </c>
       <c r="C271" s="70" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D271" s="70" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E271" s="70"/>
       <c r="H271" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="70" t="s">
         <v>554</v>
       </c>
       <c r="B272" s="70" t="s">
+        <v>765</v>
+      </c>
+      <c r="C272" s="70" t="s">
         <v>766</v>
-      </c>
-      <c r="C272" s="70" t="s">
-        <v>767</v>
       </c>
       <c r="D272" s="70"/>
       <c r="E272" s="70"/>
       <c r="H272" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="70" t="s">
         <v>706</v>
       </c>
       <c r="B273" s="134" t="s">
+        <v>813</v>
+      </c>
+      <c r="C273" s="114" t="s">
         <v>814</v>
       </c>
-      <c r="C273" s="114" t="s">
-        <v>815</v>
-      </c>
       <c r="D273" s="70" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E273" s="70"/>
       <c r="H273" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="70" t="s">
         <v>553</v>
       </c>
       <c r="B274" s="134" t="s">
+        <v>813</v>
+      </c>
+      <c r="C274" s="114" t="s">
         <v>814</v>
       </c>
-      <c r="C274" s="114" t="s">
+      <c r="D274" s="70" t="s">
         <v>815</v>
       </c>
-      <c r="D274" s="70" t="s">
-        <v>816</v>
-      </c>
       <c r="E274" s="70" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H274" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="70" t="s">
         <v>552</v>
       </c>
       <c r="B275" s="70" t="s">
+        <v>790</v>
+      </c>
+      <c r="C275" s="74" t="s">
         <v>791</v>
-      </c>
-      <c r="C275" s="74" t="s">
-        <v>792</v>
       </c>
       <c r="D275" s="70"/>
       <c r="E275" s="70"/>
       <c r="H275" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="70" t="s">
         <v>539</v>
       </c>
       <c r="B276" s="70" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C276" s="70" t="s">
         <v>725</v>
@@ -8223,10 +8221,10 @@
       <c r="D276" s="70"/>
       <c r="E276" s="70"/>
       <c r="H276" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="70" t="s">
         <v>541</v>
       </c>
@@ -8237,10 +8235,10 @@
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
       <c r="H277" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="70" t="s">
         <v>535</v>
       </c>
@@ -8251,44 +8249,44 @@
       <c r="D278" s="70"/>
       <c r="E278" s="70"/>
       <c r="H278" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="70" t="s">
         <v>591</v>
       </c>
       <c r="B279" s="70" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C279" s="70" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D279" s="111" t="s">
         <v>686</v>
       </c>
       <c r="E279" s="70"/>
       <c r="H279" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="70" t="s">
         <v>538</v>
       </c>
       <c r="B280" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C280" s="111" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
       <c r="H280" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="70" t="s">
         <v>551</v>
       </c>
@@ -8296,72 +8294,72 @@
         <v>441</v>
       </c>
       <c r="C281" s="70" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
       <c r="H281" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="70" t="s">
         <v>550</v>
       </c>
       <c r="B282" s="70" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C282" s="70" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D282" s="70" t="s">
         <v>441</v>
       </c>
       <c r="E282" s="70"/>
       <c r="H282" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="70" t="s">
         <v>555</v>
       </c>
       <c r="B283" s="70" t="s">
+        <v>844</v>
+      </c>
+      <c r="C283" s="111" t="s">
         <v>845</v>
-      </c>
-      <c r="C283" s="111" t="s">
-        <v>846</v>
       </c>
       <c r="D283" s="70"/>
       <c r="E283" s="70"/>
       <c r="H283" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="70" t="s">
         <v>548</v>
       </c>
       <c r="B284" s="70" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C284" s="70" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D284" s="70" t="s">
         <v>441</v>
       </c>
       <c r="E284" s="70"/>
       <c r="H284" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="70" t="s">
         <v>549</v>
       </c>
       <c r="B285" s="70" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C285" s="70" t="s">
         <v>441</v>
@@ -8369,10 +8367,10 @@
       <c r="D285" s="70"/>
       <c r="E285" s="70"/>
       <c r="H285" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="70" t="s">
         <v>547</v>
       </c>
@@ -8380,15 +8378,15 @@
         <v>454</v>
       </c>
       <c r="C286" s="70" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D286" s="70"/>
       <c r="E286" s="70"/>
       <c r="H286" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="70" t="s">
         <v>546</v>
       </c>
@@ -8401,10 +8399,10 @@
       <c r="F287" s="76"/>
       <c r="G287" s="76"/>
       <c r="H287" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="70" t="s">
         <v>545</v>
       </c>
@@ -8417,10 +8415,10 @@
       <c r="D288" s="70"/>
       <c r="E288" s="70"/>
       <c r="H288" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="70" t="s">
         <v>544</v>
       </c>
@@ -8433,35 +8431,35 @@
       <c r="D289" s="70"/>
       <c r="E289" s="70"/>
       <c r="H289" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="70" t="s">
         <v>543</v>
       </c>
       <c r="B290" s="70" t="s">
+        <v>785</v>
+      </c>
+      <c r="C290" s="70" t="s">
         <v>786</v>
       </c>
-      <c r="C290" s="70" t="s">
+      <c r="D290" s="70" t="s">
         <v>787</v>
-      </c>
-      <c r="D290" s="70" t="s">
-        <v>788</v>
       </c>
       <c r="E290" s="70" t="s">
         <v>725</v>
       </c>
       <c r="H290" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="70" t="s">
         <v>584</v>
       </c>
       <c r="B291" s="70" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C291" s="70" t="s">
         <v>725</v>
@@ -8469,15 +8467,15 @@
       <c r="D291" s="70"/>
       <c r="E291" s="70"/>
       <c r="H291" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="70" t="s">
         <v>542</v>
       </c>
       <c r="B292" s="70" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C292" s="70" t="s">
         <v>725</v>
@@ -8485,122 +8483,122 @@
       <c r="D292" s="70"/>
       <c r="E292" s="70"/>
       <c r="H292" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="95" t="s">
         <v>178</v>
       </c>
       <c r="B293" s="70" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C293" s="134" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H293" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="95" t="s">
         <v>493</v>
       </c>
       <c r="B294" s="70" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C294" s="134" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H294" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="70" t="s">
         <v>269</v>
       </c>
       <c r="B295" s="95" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H295" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="70" t="s">
         <v>330</v>
       </c>
       <c r="B296" s="95" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C296" s="95" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H296" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="70" t="s">
         <v>325</v>
       </c>
       <c r="B297" s="95" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C297" s="95" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H297" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="70" t="s">
         <v>354</v>
       </c>
       <c r="B298" s="95" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C298" s="95" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H298" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="95" t="s">
         <v>603</v>
       </c>
       <c r="B299" s="95" t="s">
+        <v>850</v>
+      </c>
+      <c r="C299" s="95" t="s">
+        <v>769</v>
+      </c>
+      <c r="D299" s="95" t="s">
         <v>851</v>
       </c>
-      <c r="C299" s="95" t="s">
-        <v>770</v>
-      </c>
-      <c r="D299" s="95" t="s">
-        <v>852</v>
-      </c>
       <c r="H299" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="95" t="s">
         <v>449</v>
       </c>
       <c r="B300" s="70" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C300" s="89" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H300" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="70" t="s">
         <v>623</v>
       </c>
@@ -8608,36 +8606,36 @@
         <v>745</v>
       </c>
       <c r="C301" s="70" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D301" s="95" t="s">
+        <v>850</v>
+      </c>
+      <c r="E301" s="95" t="s">
         <v>851</v>
       </c>
-      <c r="E301" s="95" t="s">
-        <v>852</v>
-      </c>
       <c r="H301" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="70" t="s">
         <v>526</v>
       </c>
       <c r="B302" s="70" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C302" s="70" t="s">
         <v>754</v>
       </c>
       <c r="D302" s="135" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H302" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="70" t="s">
         <v>556</v>
       </c>
@@ -8650,10 +8648,10 @@
       <c r="D303" s="70"/>
       <c r="E303" s="70"/>
       <c r="H303" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="70" t="s">
         <v>557</v>
       </c>
@@ -8661,26 +8659,26 @@
         <v>259</v>
       </c>
       <c r="C304" s="70" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D304" s="70"/>
       <c r="E304" s="70"/>
       <c r="H304" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="70" t="s">
         <v>572</v>
       </c>
       <c r="B305" s="95" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H305" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="97" t="s">
         <v>573</v>
       </c>
@@ -8691,41 +8689,41 @@
         <v>735</v>
       </c>
       <c r="H306" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="70" t="s">
         <v>574</v>
       </c>
       <c r="B307" s="95" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C307" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D307" s="111" t="s">
         <v>592</v>
       </c>
       <c r="H307" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="70" t="s">
         <v>575</v>
       </c>
       <c r="B308" s="74" t="s">
+        <v>780</v>
+      </c>
+      <c r="C308" s="74" t="s">
         <v>781</v>
       </c>
-      <c r="C308" s="74" t="s">
-        <v>782</v>
-      </c>
       <c r="H308" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="100" t="s">
         <v>576</v>
       </c>
@@ -8733,64 +8731,64 @@
         <v>753</v>
       </c>
       <c r="H309" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="97" t="s">
         <v>577</v>
       </c>
       <c r="B310" s="95" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C310" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H310" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="97" t="s">
         <v>578</v>
       </c>
       <c r="B311" s="118" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C311" s="118" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D311" s="97"/>
       <c r="H311" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="70" t="s">
         <v>579</v>
       </c>
       <c r="B312" s="118" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C312" s="114" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H312" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="97" t="s">
         <v>580</v>
       </c>
       <c r="B313" s="97" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H313" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="70" t="s">
         <v>581</v>
       </c>
@@ -8798,83 +8796,83 @@
         <v>732</v>
       </c>
       <c r="C314" s="95" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H314" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="70" t="s">
         <v>583</v>
       </c>
       <c r="B315" s="95" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C315" s="70" t="s">
         <v>725</v>
       </c>
       <c r="H315" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="70" t="s">
         <v>585</v>
       </c>
       <c r="B316" s="95" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C316" s="111" t="s">
         <v>743</v>
       </c>
       <c r="H316" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="70" t="s">
         <v>586</v>
       </c>
       <c r="B317" s="95" t="s">
+        <v>858</v>
+      </c>
+      <c r="C317" t="s">
         <v>859</v>
       </c>
-      <c r="C317" t="s">
-        <v>860</v>
-      </c>
       <c r="H317" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="70" t="s">
         <v>720</v>
       </c>
       <c r="B318" s="95" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C318" s="95" t="s">
         <v>743</v>
       </c>
       <c r="H318" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="70" t="s">
         <v>719</v>
       </c>
       <c r="B319" s="95" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C319" s="70" t="s">
         <v>725</v>
       </c>
       <c r="H319" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="70" t="s">
         <v>590</v>
       </c>
@@ -8882,13 +8880,13 @@
         <v>592</v>
       </c>
       <c r="C320" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H320" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="70" t="s">
         <v>622</v>
       </c>
@@ -8899,35 +8897,35 @@
         <v>466</v>
       </c>
       <c r="H321" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="70" t="s">
         <v>644</v>
       </c>
       <c r="B322" s="95" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H322" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="70" t="s">
         <v>593</v>
       </c>
       <c r="B323" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="C323" s="74" t="s">
         <v>791</v>
       </c>
-      <c r="C323" s="74" t="s">
-        <v>792</v>
-      </c>
       <c r="H323" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="70" t="s">
         <v>594</v>
       </c>
@@ -8935,41 +8933,41 @@
         <v>177</v>
       </c>
       <c r="H324" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="70" t="s">
         <v>595</v>
       </c>
       <c r="B325" s="70" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C325" s="70" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D325" s="70" t="s">
         <v>483</v>
       </c>
       <c r="H325" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="70" t="s">
         <v>596</v>
       </c>
       <c r="B326" s="95" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C326" s="111" t="s">
         <v>592</v>
       </c>
       <c r="H326" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="70" t="s">
         <v>597</v>
       </c>
@@ -8977,16 +8975,16 @@
         <v>444</v>
       </c>
       <c r="C327" s="95" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D327" s="95" t="s">
         <v>726</v>
       </c>
       <c r="H327" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="70" t="s">
         <v>598</v>
       </c>
@@ -8994,35 +8992,35 @@
         <v>745</v>
       </c>
       <c r="C328" s="111" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H328" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="70" t="s">
         <v>599</v>
       </c>
       <c r="B329" s="114" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H329" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="70" t="s">
         <v>600</v>
       </c>
       <c r="B330" s="95" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H330" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="70" t="s">
         <v>601</v>
       </c>
@@ -9033,27 +9031,27 @@
         <v>466</v>
       </c>
       <c r="H331" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="70" t="s">
         <v>602</v>
       </c>
       <c r="B332" s="95" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C332" s="95" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D332" s="111" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H332" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="70" t="s">
         <v>604</v>
       </c>
@@ -9061,13 +9059,13 @@
         <v>755</v>
       </c>
       <c r="C333" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H333" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="115" t="s">
         <v>605</v>
       </c>
@@ -9076,10 +9074,10 @@
       </c>
       <c r="C334" s="98"/>
       <c r="H334" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="70" t="s">
         <v>606</v>
       </c>
@@ -9087,10 +9085,10 @@
         <v>177</v>
       </c>
       <c r="H335" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="70" t="s">
         <v>607</v>
       </c>
@@ -9098,63 +9096,63 @@
         <v>261</v>
       </c>
       <c r="H336" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="70" t="s">
         <v>608</v>
       </c>
       <c r="B337" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C337" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H337" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="70" t="s">
         <v>609</v>
       </c>
       <c r="B338" s="95" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H338" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="70" t="s">
         <v>610</v>
       </c>
       <c r="B339" s="95" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C339" s="111" t="s">
         <v>592</v>
       </c>
       <c r="H339" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="70" t="s">
         <v>611</v>
       </c>
       <c r="B340" s="95" t="s">
+        <v>865</v>
+      </c>
+      <c r="C340" s="95" t="s">
         <v>866</v>
       </c>
-      <c r="C340" s="95" t="s">
-        <v>867</v>
-      </c>
       <c r="H340" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="70" t="s">
         <v>612</v>
       </c>
@@ -9165,41 +9163,41 @@
         <v>661</v>
       </c>
       <c r="H341" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="70" t="s">
         <v>613</v>
       </c>
       <c r="B342" s="70" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C342" s="134" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H342" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="70" t="s">
         <v>614</v>
       </c>
       <c r="B343" s="97" t="s">
+        <v>814</v>
+      </c>
+      <c r="C343" s="97" t="s">
         <v>815</v>
-      </c>
-      <c r="C343" s="97" t="s">
-        <v>816</v>
       </c>
       <c r="D343" s="111" t="s">
         <v>725</v>
       </c>
       <c r="H343" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="95" t="s">
         <v>456</v>
       </c>
@@ -9210,75 +9208,75 @@
         <v>737</v>
       </c>
       <c r="D344" s="95" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H344" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="97" t="s">
         <v>615</v>
       </c>
       <c r="B345" s="97" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C345" s="97" t="s">
+        <v>814</v>
+      </c>
+      <c r="D345" s="97" t="s">
         <v>815</v>
       </c>
-      <c r="D345" s="97" t="s">
-        <v>816</v>
-      </c>
       <c r="H345" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="97" t="s">
         <v>616</v>
       </c>
       <c r="B346" s="95" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C346" s="95" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D346" s="97" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H346" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="70" t="s">
         <v>617</v>
       </c>
       <c r="B347" s="95" t="s">
+        <v>868</v>
+      </c>
+      <c r="C347" s="95" t="s">
         <v>869</v>
       </c>
-      <c r="C347" s="95" t="s">
-        <v>870</v>
-      </c>
       <c r="H347" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="70" t="s">
         <v>618</v>
       </c>
       <c r="B348" s="95" t="s">
+        <v>870</v>
+      </c>
+      <c r="C348" s="95" t="s">
         <v>871</v>
       </c>
-      <c r="C348" s="95" t="s">
-        <v>872</v>
-      </c>
       <c r="H348" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="70" t="s">
         <v>619</v>
       </c>
@@ -9286,49 +9284,49 @@
         <v>620</v>
       </c>
       <c r="H349" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="70" t="s">
         <v>621</v>
       </c>
       <c r="B350" s="114" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H350" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="70" t="s">
         <v>624</v>
       </c>
       <c r="B351" s="101" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C351" s="70" t="s">
         <v>725</v>
       </c>
       <c r="H351" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="70" t="s">
         <v>625</v>
       </c>
       <c r="B352" s="101" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C352" s="95" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H352" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="70" t="s">
         <v>628</v>
       </c>
@@ -9339,24 +9337,24 @@
         <v>743</v>
       </c>
       <c r="H353" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="70" t="s">
         <v>629</v>
       </c>
       <c r="B354" s="114" t="s">
+        <v>874</v>
+      </c>
+      <c r="C354" s="114" t="s">
         <v>875</v>
       </c>
-      <c r="C354" s="114" t="s">
-        <v>876</v>
-      </c>
       <c r="H354" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="70" t="s">
         <v>632</v>
       </c>
@@ -9364,10 +9362,10 @@
         <v>261</v>
       </c>
       <c r="H355" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="70" t="s">
         <v>633</v>
       </c>
@@ -9375,10 +9373,10 @@
         <v>620</v>
       </c>
       <c r="H356" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="70" t="s">
         <v>634</v>
       </c>
@@ -9386,16 +9384,16 @@
         <v>454</v>
       </c>
       <c r="C357" s="70" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D357" s="70" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H357" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="70" t="s">
         <v>635</v>
       </c>
@@ -9403,10 +9401,10 @@
         <v>177</v>
       </c>
       <c r="H358" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="70" t="s">
         <v>637</v>
       </c>
@@ -9414,24 +9412,24 @@
         <v>725</v>
       </c>
       <c r="H359" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="70" t="s">
         <v>638</v>
       </c>
       <c r="B360" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C360" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H360" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="92" t="s">
         <v>639</v>
       </c>
@@ -9442,41 +9440,41 @@
         <v>514</v>
       </c>
       <c r="H361" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="70" t="s">
         <v>640</v>
       </c>
       <c r="B362" s="95" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C362" s="111" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H362" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="70" t="s">
         <v>641</v>
       </c>
       <c r="B363" s="95" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C363" s="97" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D363" s="74" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H363" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="70" t="s">
         <v>643</v>
       </c>
@@ -9487,57 +9485,57 @@
         <v>728</v>
       </c>
       <c r="H364" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="70" t="s">
         <v>721</v>
       </c>
       <c r="B365" s="116" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C365" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D365" s="113"/>
       <c r="H365" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="70" t="s">
         <v>659</v>
       </c>
       <c r="B366" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C366" s="70" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D366" s="112" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E366" s="70"/>
       <c r="H366" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="70" t="s">
         <v>642</v>
       </c>
       <c r="B367" s="95" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C367" s="95" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H367" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="70" t="s">
         <v>645</v>
       </c>
@@ -9549,10 +9547,10 @@
       </c>
       <c r="D368" s="89"/>
       <c r="H368" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="97" t="s">
         <v>648</v>
       </c>
@@ -9563,10 +9561,10 @@
         <v>466</v>
       </c>
       <c r="H369" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="70" t="s">
         <v>540</v>
       </c>
@@ -9577,41 +9575,41 @@
         <v>725</v>
       </c>
       <c r="H370" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="92" t="s">
         <v>646</v>
       </c>
       <c r="B371" s="89" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C371" s="111" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H371" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="95" t="s">
         <v>467</v>
       </c>
       <c r="B372" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C372" s="95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D372" s="112" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H372" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="70" t="s">
         <v>647</v>
       </c>
@@ -9623,63 +9621,63 @@
       </c>
       <c r="D373" s="89"/>
       <c r="H373" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="70" t="s">
         <v>650</v>
       </c>
       <c r="B374" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C374" s="95" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D374" s="112" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H374" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="70" t="s">
         <v>651</v>
       </c>
       <c r="B375" s="95" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H375" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="97" t="s">
         <v>652</v>
       </c>
       <c r="B376" s="97" t="s">
+        <v>880</v>
+      </c>
+      <c r="C376" s="97" t="s">
         <v>881</v>
       </c>
-      <c r="C376" s="97" t="s">
-        <v>882</v>
-      </c>
       <c r="H376" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="95" t="s">
         <v>5</v>
       </c>
       <c r="B377" s="95" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H377" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="95" t="s">
         <v>653</v>
       </c>
@@ -9691,10 +9689,10 @@
       <c r="E378" s="79"/>
       <c r="F378" s="79"/>
       <c r="H378" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="95" t="s">
         <v>232</v>
       </c>
@@ -9702,10 +9700,10 @@
         <v>259</v>
       </c>
       <c r="H379" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="70" t="s">
         <v>536</v>
       </c>
@@ -9713,10 +9711,10 @@
         <v>261</v>
       </c>
       <c r="H380" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="70" t="s">
         <v>303</v>
       </c>
@@ -9727,151 +9725,151 @@
         <v>466</v>
       </c>
       <c r="H381" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="70" t="s">
         <v>359</v>
       </c>
       <c r="B382" s="114" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C382" s="70" t="s">
         <v>726</v>
       </c>
       <c r="D382" s="114" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H382" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="70" t="s">
         <v>658</v>
       </c>
       <c r="B383" s="70" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C383" s="112" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D383" s="112"/>
       <c r="E383" s="70"/>
       <c r="H383" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="70" t="s">
         <v>521</v>
       </c>
       <c r="B384" s="95" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C384" s="70" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D384" s="111" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E384" s="70"/>
       <c r="H384" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="70" t="s">
         <v>520</v>
       </c>
       <c r="B385" s="95" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C385" s="70" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D385" s="112" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H385" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="70" t="s">
         <v>656</v>
       </c>
       <c r="B386" s="95" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C386" s="111" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H386" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="70" t="s">
         <v>631</v>
       </c>
       <c r="B387" s="95" t="s">
+        <v>759</v>
+      </c>
+      <c r="C387" s="112" t="s">
         <v>760</v>
       </c>
-      <c r="C387" s="112" t="s">
-        <v>761</v>
-      </c>
       <c r="H387" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="70" t="s">
         <v>662</v>
       </c>
       <c r="B388" s="95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C388" s="112" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D388" s="89"/>
       <c r="H388" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="70" t="s">
         <v>649</v>
       </c>
       <c r="B389" s="74" t="s">
+        <v>780</v>
+      </c>
+      <c r="C389" s="74" t="s">
         <v>781</v>
       </c>
-      <c r="C389" s="74" t="s">
-        <v>782</v>
-      </c>
       <c r="H389" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="117" t="s">
         <v>663</v>
       </c>
       <c r="B390" s="116" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C390" s="70" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D390" s="102"/>
       <c r="E390" s="102"/>
       <c r="H390" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="70" t="s">
         <v>664</v>
       </c>
@@ -9879,10 +9877,10 @@
         <v>177</v>
       </c>
       <c r="H391" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="70" t="s">
         <v>665</v>
       </c>
@@ -9890,10 +9888,10 @@
         <v>725</v>
       </c>
       <c r="H392" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="70" t="s">
         <v>666</v>
       </c>
@@ -9901,13 +9899,13 @@
         <v>514</v>
       </c>
       <c r="C393" s="70" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H393" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="70" t="s">
         <v>671</v>
       </c>
@@ -9918,38 +9916,38 @@
         <v>743</v>
       </c>
       <c r="H394" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="70" t="s">
         <v>670</v>
       </c>
       <c r="B395" s="134" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C395" s="134" t="s">
         <v>483</v>
       </c>
       <c r="H395" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="70" t="s">
         <v>672</v>
       </c>
       <c r="B396" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C396" s="95" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H396" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="103" t="s">
         <v>673</v>
       </c>
@@ -9963,10 +9961,10 @@
         <v>740</v>
       </c>
       <c r="H397" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="70" t="s">
         <v>674</v>
       </c>
@@ -9977,35 +9975,35 @@
         <v>740</v>
       </c>
       <c r="H398" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="102" t="s">
         <v>675</v>
       </c>
       <c r="B399" s="102" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H399" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="70" t="s">
         <v>676</v>
       </c>
       <c r="B400" s="95" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C400" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H400" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="70" t="s">
         <v>677</v>
       </c>
@@ -10013,10 +10011,10 @@
         <v>725</v>
       </c>
       <c r="H401" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="70" t="s">
         <v>678</v>
       </c>
@@ -10024,10 +10022,10 @@
         <v>256</v>
       </c>
       <c r="H402" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="70" t="s">
         <v>679</v>
       </c>
@@ -10035,41 +10033,41 @@
         <v>746</v>
       </c>
       <c r="H403" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="70" t="s">
         <v>680</v>
       </c>
       <c r="B404" s="95" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C404" s="95" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D404" s="95" t="s">
         <v>733</v>
       </c>
       <c r="H404" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="70" t="s">
         <v>681</v>
       </c>
       <c r="B405" s="114" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C405" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H405" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="104" t="s">
         <v>682</v>
       </c>
@@ -10077,17 +10075,17 @@
         <v>683</v>
       </c>
       <c r="C406" s="104" t="s">
+        <v>773</v>
+      </c>
+      <c r="D406" s="111" t="s">
         <v>774</v>
-      </c>
-      <c r="D406" s="111" t="s">
-        <v>775</v>
       </c>
       <c r="F406" s="94"/>
       <c r="H406" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="105" t="s">
         <v>684</v>
       </c>
@@ -10095,78 +10093,78 @@
         <v>749</v>
       </c>
       <c r="H407" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="95" t="s">
         <v>201</v>
       </c>
       <c r="B408" s="74" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C408" s="111" t="s">
         <v>747</v>
       </c>
       <c r="D408" s="70"/>
       <c r="H408" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="95" t="s">
         <v>202</v>
       </c>
       <c r="B409" s="74" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C409" s="111" t="s">
         <v>747</v>
       </c>
       <c r="H409" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="95" t="s">
         <v>687</v>
       </c>
       <c r="B410" s="74" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C410" s="70" t="s">
         <v>725</v>
       </c>
       <c r="H410" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="70" t="s">
         <v>685</v>
       </c>
       <c r="B411" s="74" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C411" s="74" t="s">
         <v>686</v>
       </c>
       <c r="H411" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="70" t="s">
         <v>688</v>
       </c>
       <c r="B412" s="74" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H412" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="102" t="s">
         <v>689</v>
       </c>
@@ -10174,10 +10172,10 @@
         <v>259</v>
       </c>
       <c r="H413" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="102" t="s">
         <v>690</v>
       </c>
@@ -10185,88 +10183,88 @@
         <v>256</v>
       </c>
       <c r="H414" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="70" t="s">
         <v>692</v>
       </c>
       <c r="B415" s="95" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C415" s="70" t="s">
         <v>725</v>
       </c>
       <c r="H415" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="70" t="s">
         <v>695</v>
       </c>
       <c r="B416" s="95" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H416" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="106" t="s">
         <v>699</v>
       </c>
       <c r="B417" s="70" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C417" s="74" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H417" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="70" t="s">
         <v>700</v>
       </c>
       <c r="B418" s="74" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H418" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="70" t="s">
         <v>701</v>
       </c>
       <c r="B419" s="74" t="s">
+        <v>780</v>
+      </c>
+      <c r="C419" s="74" t="s">
         <v>781</v>
       </c>
-      <c r="C419" s="74" t="s">
-        <v>782</v>
-      </c>
       <c r="H419" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="70" t="s">
         <v>702</v>
       </c>
       <c r="B420" s="74" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C420" s="74" t="s">
         <v>686</v>
       </c>
       <c r="H420" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="70" t="s">
         <v>703</v>
       </c>
@@ -10274,41 +10272,41 @@
         <v>686</v>
       </c>
       <c r="C421" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H421" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="70" t="s">
         <v>704</v>
       </c>
       <c r="B422" s="74" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C422" s="74" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H422" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="95" t="s">
         <v>705</v>
       </c>
       <c r="B423" s="134" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C423" s="74" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H423" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="70" t="s">
         <v>707</v>
       </c>
@@ -10316,24 +10314,24 @@
         <v>177</v>
       </c>
       <c r="H424" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="70" t="s">
         <v>708</v>
       </c>
       <c r="B425" s="70" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C425" s="134" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H425" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="70" t="s">
         <v>709</v>
       </c>
@@ -10344,10 +10342,10 @@
         <v>725</v>
       </c>
       <c r="H426" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>710</v>
       </c>
@@ -10355,16 +10353,16 @@
         <v>262</v>
       </c>
       <c r="C427" s="108" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D427" s="95" t="s">
         <v>724</v>
       </c>
       <c r="H427" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>711</v>
       </c>
@@ -10372,15 +10370,15 @@
         <v>725</v>
       </c>
       <c r="H428" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>712</v>
       </c>
       <c r="B429" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C429" s="70" t="s">
         <v>734</v>
@@ -10389,10 +10387,10 @@
         <v>733</v>
       </c>
       <c r="H429" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="70" t="s">
         <v>713</v>
       </c>
@@ -10400,24 +10398,24 @@
         <v>725</v>
       </c>
       <c r="H430" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="70" t="s">
         <v>714</v>
       </c>
       <c r="B431" s="74" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C431" s="111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H431" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="70" t="s">
         <v>722</v>
       </c>
@@ -10428,10 +10426,10 @@
         <v>725</v>
       </c>
       <c r="H432" s="119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="70" t="s">
         <v>723</v>
       </c>
@@ -10439,14 +10437,20 @@
         <v>715</v>
       </c>
       <c r="C433" s="111" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H433" s="119" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C433" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D433" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="General АМ Подключение (General_AM_Connection)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
     <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BD6A0B-860E-4625-BBC9-AFB8AF2EF371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FF22C0-A5F2-4556-BE04-D0ECD2A0FAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$D$1:$D$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$C$1:$C$433</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <customWorkbookViews>
@@ -3683,8 +3683,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>434</xdr:row>
-      <xdr:rowOff>121207</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>121206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3731,7 +3731,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>438</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>102567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3779,7 +3779,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>434</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>123848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3827,7 +3827,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>434</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>123848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3875,8 +3875,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>433</xdr:row>
-      <xdr:rowOff>132310</xdr:rowOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>317367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3923,8 +3923,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3971,8 +3971,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4019,7 +4019,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>434</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>126151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4428,7 +4428,7 @@
   <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D436" sqref="D436"/>
+      <selection activeCell="C431" sqref="C431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5052,7 +5052,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="95" t="s">
         <v>105</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="95" t="s">
         <v>247</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="70" t="s">
         <v>267</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="70" t="s">
         <v>274</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="95" t="s">
         <v>296</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="70" t="s">
         <v>299</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="70" t="s">
         <v>312</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="95" t="s">
         <v>445</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="95" t="s">
         <v>446</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="95" t="s">
         <v>462</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="70" t="s">
         <v>530</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="70" t="s">
         <v>529</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="70" t="s">
         <v>528</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="70" t="s">
         <v>716</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="97" t="s">
         <v>577</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="70" t="s">
         <v>604</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="70" t="s">
         <v>608</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="70" t="s">
         <v>638</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="70" t="s">
         <v>676</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431" s="70" t="s">
         <v>714</v>
       </c>
@@ -10444,7 +10444,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D433" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="C1:C433" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="General АМ Подключение (General_AM_Connection)"/>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FF22C0-A5F2-4556-BE04-D0ECD2A0FAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9130C6C-2127-456E-9440-45B5666BEC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="907">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2700,9 +2700,6 @@
   </si>
   <si>
     <t>Отказаться  (Local_Refuse)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Готовность карт (General_TAKE_CARD) </t>
   </si>
   <si>
     <t>General_ИЗК (General_IZK)</t>
@@ -3683,8 +3680,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>121206</xdr:rowOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>121207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3731,7 +3728,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>102567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3779,8 +3776,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>123848</xdr:rowOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>123847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3827,8 +3824,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>123848</xdr:rowOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>123847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3875,7 +3872,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>317367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3923,7 +3920,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3971,7 +3968,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4019,8 +4016,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>126151</xdr:rowOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>126150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4428,7 +4425,7 @@
   <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C431" sqref="C431"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4446,28 +4443,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="120" t="s">
+        <v>899</v>
+      </c>
+      <c r="B1" s="121" t="s">
         <v>900</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="C1" s="120" t="s">
         <v>901</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="D1" s="120" t="s">
         <v>902</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="E1" s="120" t="s">
         <v>903</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="F1" s="120" t="s">
         <v>904</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="G1" s="120" t="s">
         <v>905</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="H1" s="120" t="s">
         <v>906</v>
-      </c>
-      <c r="H1" s="120" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4481,7 +4478,7 @@
         <v>725</v>
       </c>
       <c r="H2" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4498,7 +4495,7 @@
         <v>444</v>
       </c>
       <c r="H3" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -4516,7 +4513,7 @@
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
       <c r="H4" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4527,7 +4524,7 @@
         <v>749</v>
       </c>
       <c r="H5" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4538,7 +4535,7 @@
         <v>749</v>
       </c>
       <c r="H6" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4553,7 +4550,7 @@
       </c>
       <c r="G7" s="76"/>
       <c r="H7" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4564,7 +4561,7 @@
         <v>177</v>
       </c>
       <c r="H8" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4578,7 +4575,7 @@
         <v>256</v>
       </c>
       <c r="H9" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4592,7 +4589,7 @@
         <v>256</v>
       </c>
       <c r="H10" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4603,7 +4600,7 @@
         <v>732</v>
       </c>
       <c r="H11" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4614,7 +4611,7 @@
         <v>256</v>
       </c>
       <c r="H12" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4625,7 +4622,7 @@
         <v>803</v>
       </c>
       <c r="H13" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4636,7 +4633,7 @@
         <v>797</v>
       </c>
       <c r="H14" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4647,7 +4644,7 @@
         <v>725</v>
       </c>
       <c r="H15" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4664,18 +4661,18 @@
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="H16" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="114" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B17" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H17" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4689,7 +4686,7 @@
         <v>254</v>
       </c>
       <c r="H18" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4703,7 +4700,7 @@
         <v>737</v>
       </c>
       <c r="H19" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4714,7 +4711,7 @@
         <v>177</v>
       </c>
       <c r="H20" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4725,7 +4722,7 @@
         <v>177</v>
       </c>
       <c r="H21" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4736,7 +4733,7 @@
         <v>738</v>
       </c>
       <c r="H22" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4750,7 +4747,7 @@
         <v>740</v>
       </c>
       <c r="H23" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4764,7 +4761,7 @@
         <v>256</v>
       </c>
       <c r="H24" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4775,7 +4772,7 @@
         <v>177</v>
       </c>
       <c r="H25" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4786,7 +4783,7 @@
         <v>177</v>
       </c>
       <c r="H26" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4797,7 +4794,7 @@
         <v>742</v>
       </c>
       <c r="H27" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4811,7 +4808,7 @@
         <v>743</v>
       </c>
       <c r="H28" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4822,7 +4819,7 @@
         <v>725</v>
       </c>
       <c r="H29" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4833,7 +4830,7 @@
         <v>177</v>
       </c>
       <c r="H30" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4847,7 +4844,7 @@
         <v>744</v>
       </c>
       <c r="H31" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4858,7 +4855,7 @@
         <v>686</v>
       </c>
       <c r="H32" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4873,7 +4870,7 @@
       </c>
       <c r="D33" s="70"/>
       <c r="H33" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4884,7 +4881,7 @@
         <v>746</v>
       </c>
       <c r="H34" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4898,21 +4895,21 @@
         <v>748</v>
       </c>
       <c r="H35" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="114" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B36" s="95" t="s">
         <v>749</v>
       </c>
       <c r="H36" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="95" t="s">
         <v>180</v>
       </c>
@@ -4923,7 +4920,7 @@
         <v>483</v>
       </c>
       <c r="H37" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4937,7 +4934,7 @@
         <v>737</v>
       </c>
       <c r="H38" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4948,10 +4945,10 @@
         <v>177</v>
       </c>
       <c r="H39" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="95" t="s">
         <v>427</v>
       </c>
@@ -4962,7 +4959,7 @@
         <v>483</v>
       </c>
       <c r="H40" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4974,7 +4971,7 @@
       </c>
       <c r="C41" s="70"/>
       <c r="H41" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4985,7 +4982,7 @@
         <v>177</v>
       </c>
       <c r="H42" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4999,7 +4996,7 @@
         <v>751</v>
       </c>
       <c r="H43" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5010,7 +5007,7 @@
         <v>177</v>
       </c>
       <c r="H44" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5021,7 +5018,7 @@
         <v>803</v>
       </c>
       <c r="H45" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5035,7 +5032,7 @@
         <v>753</v>
       </c>
       <c r="H46" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5049,10 +5046,10 @@
         <v>256</v>
       </c>
       <c r="H47" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="95" t="s">
         <v>105</v>
       </c>
@@ -5063,7 +5060,7 @@
         <v>813</v>
       </c>
       <c r="H48" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5074,7 +5071,7 @@
         <v>797</v>
       </c>
       <c r="H49" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5091,7 +5088,7 @@
         <v>260</v>
       </c>
       <c r="H50" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5102,7 +5099,7 @@
         <v>177</v>
       </c>
       <c r="H51" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5116,7 +5113,7 @@
         <v>484</v>
       </c>
       <c r="H52" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5127,7 +5124,7 @@
         <v>177</v>
       </c>
       <c r="H53" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5138,7 +5135,7 @@
         <v>177</v>
       </c>
       <c r="H54" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5149,7 +5146,7 @@
         <v>758</v>
       </c>
       <c r="H55" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5163,7 +5160,7 @@
         <v>744</v>
       </c>
       <c r="H56" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5174,7 +5171,7 @@
         <v>177</v>
       </c>
       <c r="H57" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5188,7 +5185,7 @@
         <v>592</v>
       </c>
       <c r="H58" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5199,7 +5196,7 @@
         <v>177</v>
       </c>
       <c r="H59" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5210,7 +5207,7 @@
         <v>725</v>
       </c>
       <c r="H60" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -5226,7 +5223,7 @@
       <c r="F61" s="72"/>
       <c r="G61" s="80"/>
       <c r="H61" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5240,7 +5237,7 @@
         <v>761</v>
       </c>
       <c r="H62" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5251,7 +5248,7 @@
         <v>259</v>
       </c>
       <c r="H63" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5265,7 +5262,7 @@
         <v>761</v>
       </c>
       <c r="H64" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5276,7 +5273,7 @@
         <v>762</v>
       </c>
       <c r="H65" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5290,7 +5287,7 @@
         <v>729</v>
       </c>
       <c r="H66" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5301,7 +5298,7 @@
         <v>764</v>
       </c>
       <c r="H67" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5315,7 +5312,7 @@
         <v>751</v>
       </c>
       <c r="H68" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5326,7 +5323,7 @@
         <v>177</v>
       </c>
       <c r="H69" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5340,7 +5337,7 @@
         <v>766</v>
       </c>
       <c r="H70" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5354,7 +5351,7 @@
         <v>766</v>
       </c>
       <c r="H71" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5368,7 +5365,7 @@
         <v>767</v>
       </c>
       <c r="H72" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5379,7 +5376,7 @@
         <v>430</v>
       </c>
       <c r="H73" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5393,10 +5390,10 @@
         <v>744</v>
       </c>
       <c r="H74" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="95" t="s">
         <v>224</v>
       </c>
@@ -5407,7 +5404,7 @@
         <v>483</v>
       </c>
       <c r="H75" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5418,7 +5415,7 @@
         <v>177</v>
       </c>
       <c r="H76" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5432,7 +5429,7 @@
         <v>768</v>
       </c>
       <c r="H77" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5446,7 +5443,7 @@
         <v>744</v>
       </c>
       <c r="H78" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5466,7 +5463,7 @@
         <v>756</v>
       </c>
       <c r="H79" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5477,7 +5474,7 @@
         <v>177</v>
       </c>
       <c r="H80" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5491,29 +5488,29 @@
         <v>771</v>
       </c>
       <c r="H81" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="114" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B82" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H82" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="114" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B83" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H83" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5527,7 +5524,7 @@
         <v>592</v>
       </c>
       <c r="H84" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5541,30 +5538,30 @@
         <v>725</v>
       </c>
       <c r="H85" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="114" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B86" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H86" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="114" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B87" s="95" t="s">
         <v>177</v>
       </c>
       <c r="G87" s="77"/>
       <c r="H87" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5575,7 +5572,7 @@
         <v>177</v>
       </c>
       <c r="H88" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5586,7 +5583,7 @@
         <v>177</v>
       </c>
       <c r="H89" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5601,7 +5598,7 @@
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
       <c r="H90" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5612,7 +5609,7 @@
         <v>177</v>
       </c>
       <c r="H91" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5626,7 +5623,7 @@
         <v>774</v>
       </c>
       <c r="H92" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5640,7 +5637,7 @@
         <v>735</v>
       </c>
       <c r="H93" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5651,7 +5648,7 @@
         <v>746</v>
       </c>
       <c r="H94" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5665,7 +5662,7 @@
         <v>260</v>
       </c>
       <c r="H95" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5679,7 +5676,7 @@
         <v>735</v>
       </c>
       <c r="H96" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5690,7 +5687,7 @@
         <v>177</v>
       </c>
       <c r="H97" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5701,7 +5698,7 @@
         <v>177</v>
       </c>
       <c r="H98" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5712,7 +5709,7 @@
         <v>177</v>
       </c>
       <c r="H99" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5726,7 +5723,7 @@
         <v>766</v>
       </c>
       <c r="H100" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5737,7 +5734,7 @@
         <v>177</v>
       </c>
       <c r="H101" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5748,7 +5745,7 @@
         <v>177</v>
       </c>
       <c r="H102" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5759,7 +5756,7 @@
         <v>177</v>
       </c>
       <c r="H103" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5770,10 +5767,10 @@
         <v>177</v>
       </c>
       <c r="H104" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="95" t="s">
         <v>247</v>
       </c>
@@ -5784,7 +5781,7 @@
         <v>813</v>
       </c>
       <c r="H105" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5798,7 +5795,7 @@
         <v>766</v>
       </c>
       <c r="H106" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5812,7 +5809,7 @@
         <v>761</v>
       </c>
       <c r="H107" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5823,7 +5820,7 @@
         <v>261</v>
       </c>
       <c r="H108" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5837,7 +5834,7 @@
         <v>260</v>
       </c>
       <c r="H109" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5848,7 +5845,7 @@
         <v>177</v>
       </c>
       <c r="H110" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5862,7 +5859,7 @@
         <v>592</v>
       </c>
       <c r="H111" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5873,7 +5870,7 @@
         <v>177</v>
       </c>
       <c r="H112" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5887,7 +5884,7 @@
         <v>777</v>
       </c>
       <c r="H113" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5898,7 +5895,7 @@
         <v>261</v>
       </c>
       <c r="H114" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5912,10 +5909,10 @@
         <v>592</v>
       </c>
       <c r="H115" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="70" t="s">
         <v>267</v>
       </c>
@@ -5926,7 +5923,7 @@
         <v>813</v>
       </c>
       <c r="H116" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5940,7 +5937,7 @@
         <v>484</v>
       </c>
       <c r="H117" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5954,7 +5951,7 @@
         <v>533</v>
       </c>
       <c r="H118" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5965,7 +5962,7 @@
         <v>177</v>
       </c>
       <c r="H119" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5979,7 +5976,7 @@
         <v>777</v>
       </c>
       <c r="H120" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5993,7 +5990,7 @@
         <v>779</v>
       </c>
       <c r="H121" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6007,10 +6004,10 @@
         <v>781</v>
       </c>
       <c r="H122" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="70" t="s">
         <v>274</v>
       </c>
@@ -6021,7 +6018,7 @@
         <v>813</v>
       </c>
       <c r="H123" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6032,7 +6029,7 @@
         <v>783</v>
       </c>
       <c r="H124" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6043,7 +6040,7 @@
         <v>275</v>
       </c>
       <c r="H125" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6054,7 +6051,7 @@
         <v>784</v>
       </c>
       <c r="H126" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6077,7 +6074,7 @@
         <v>725</v>
       </c>
       <c r="H127" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6088,7 +6085,7 @@
         <v>177</v>
       </c>
       <c r="H128" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -6102,7 +6099,7 @@
         <v>767</v>
       </c>
       <c r="H129" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6116,7 +6113,7 @@
         <v>781</v>
       </c>
       <c r="H130" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6127,7 +6124,7 @@
         <v>177</v>
       </c>
       <c r="H131" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6138,7 +6135,7 @@
         <v>177</v>
       </c>
       <c r="H132" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6149,7 +6146,7 @@
         <v>725</v>
       </c>
       <c r="H133" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6160,7 +6157,7 @@
         <v>177</v>
       </c>
       <c r="H134" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6174,10 +6171,10 @@
         <v>484</v>
       </c>
       <c r="H135" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="95" t="s">
         <v>296</v>
       </c>
@@ -6188,7 +6185,7 @@
         <v>813</v>
       </c>
       <c r="H136" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6202,7 +6199,7 @@
         <v>768</v>
       </c>
       <c r="H137" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6216,10 +6213,10 @@
         <v>725</v>
       </c>
       <c r="H138" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="70" t="s">
         <v>299</v>
       </c>
@@ -6230,7 +6227,7 @@
         <v>813</v>
       </c>
       <c r="H139" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6244,7 +6241,7 @@
         <v>781</v>
       </c>
       <c r="H140" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6258,7 +6255,7 @@
         <v>744</v>
       </c>
       <c r="H141" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6269,7 +6266,7 @@
         <v>261</v>
       </c>
       <c r="H142" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6280,7 +6277,7 @@
         <v>177</v>
       </c>
       <c r="H143" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6295,7 +6292,7 @@
       </c>
       <c r="E144" s="70"/>
       <c r="H144" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6309,7 +6306,7 @@
         <v>256</v>
       </c>
       <c r="H145" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6320,7 +6317,7 @@
         <v>725</v>
       </c>
       <c r="H146" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6331,7 +6328,7 @@
         <v>725</v>
       </c>
       <c r="H147" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6342,7 +6339,7 @@
         <v>177</v>
       </c>
       <c r="H148" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6356,7 +6353,7 @@
         <v>255</v>
       </c>
       <c r="H149" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6367,10 +6364,10 @@
         <v>177</v>
       </c>
       <c r="H150" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="70" t="s">
         <v>312</v>
       </c>
@@ -6381,7 +6378,7 @@
         <v>813</v>
       </c>
       <c r="H151" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6395,7 +6392,7 @@
         <v>791</v>
       </c>
       <c r="H152" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6409,7 +6406,7 @@
         <v>766</v>
       </c>
       <c r="H153" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6423,7 +6420,7 @@
         <v>766</v>
       </c>
       <c r="H154" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6434,7 +6431,7 @@
         <v>261</v>
       </c>
       <c r="H155" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6448,7 +6445,7 @@
         <v>791</v>
       </c>
       <c r="H156" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6462,7 +6459,7 @@
         <v>761</v>
       </c>
       <c r="H157" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6473,7 +6470,7 @@
         <v>725</v>
       </c>
       <c r="H158" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6487,7 +6484,7 @@
         <v>592</v>
       </c>
       <c r="H159" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6498,7 +6495,7 @@
         <v>725</v>
       </c>
       <c r="H160" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6509,7 +6506,7 @@
         <v>177</v>
       </c>
       <c r="H161" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6523,7 +6520,7 @@
         <v>743</v>
       </c>
       <c r="H162" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6534,7 +6531,7 @@
         <v>792</v>
       </c>
       <c r="H163" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6548,7 +6545,7 @@
         <v>592</v>
       </c>
       <c r="H164" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6562,7 +6559,7 @@
         <v>743</v>
       </c>
       <c r="H165" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6573,7 +6570,7 @@
         <v>793</v>
       </c>
       <c r="H166" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6587,7 +6584,7 @@
         <v>592</v>
       </c>
       <c r="H167" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6598,7 +6595,7 @@
         <v>794</v>
       </c>
       <c r="H168" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6609,7 +6606,7 @@
         <v>263</v>
       </c>
       <c r="H169" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6620,7 +6617,7 @@
         <v>749</v>
       </c>
       <c r="H170" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6634,7 +6631,7 @@
         <v>744</v>
       </c>
       <c r="H171" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6648,7 +6645,7 @@
         <v>761</v>
       </c>
       <c r="H172" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6659,7 +6656,7 @@
         <v>177</v>
       </c>
       <c r="H173" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6670,7 +6667,7 @@
         <v>725</v>
       </c>
       <c r="H174" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6681,7 +6678,7 @@
         <v>795</v>
       </c>
       <c r="H175" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6692,7 +6689,7 @@
         <v>725</v>
       </c>
       <c r="H176" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6703,7 +6700,7 @@
         <v>177</v>
       </c>
       <c r="H177" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6717,7 +6714,7 @@
         <v>767</v>
       </c>
       <c r="H178" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6728,7 +6725,7 @@
         <v>177</v>
       </c>
       <c r="H179" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6739,7 +6736,7 @@
         <v>784</v>
       </c>
       <c r="H180" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6750,7 +6747,7 @@
         <v>796</v>
       </c>
       <c r="H181" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6764,7 +6761,7 @@
         <v>781</v>
       </c>
       <c r="H182" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6775,7 +6772,7 @@
         <v>177</v>
       </c>
       <c r="H183" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6786,7 +6783,7 @@
         <v>797</v>
       </c>
       <c r="H184" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6803,7 +6800,7 @@
         <v>800</v>
       </c>
       <c r="H185" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6820,7 +6817,7 @@
         <v>725</v>
       </c>
       <c r="H186" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6832,7 +6829,7 @@
       </c>
       <c r="C187" s="70"/>
       <c r="H187" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6843,7 +6840,7 @@
         <v>177</v>
       </c>
       <c r="H188" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6857,7 +6854,7 @@
         <v>743</v>
       </c>
       <c r="H189" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6871,7 +6868,7 @@
         <v>777</v>
       </c>
       <c r="H190" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6883,7 +6880,7 @@
       </c>
       <c r="C191" s="70"/>
       <c r="H191" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6894,7 +6891,7 @@
         <v>803</v>
       </c>
       <c r="H192" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6908,7 +6905,7 @@
         <v>767</v>
       </c>
       <c r="H193" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6919,7 +6916,7 @@
         <v>725</v>
       </c>
       <c r="H194" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6935,7 +6932,7 @@
       <c r="F195" s="91"/>
       <c r="G195" s="91"/>
       <c r="H195" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6949,7 +6946,7 @@
         <v>774</v>
       </c>
       <c r="H196" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6963,7 +6960,7 @@
         <v>804</v>
       </c>
       <c r="H197" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6977,7 +6974,7 @@
         <v>768</v>
       </c>
       <c r="H198" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6994,7 +6991,7 @@
         <v>768</v>
       </c>
       <c r="H199" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="91" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7010,7 +7007,7 @@
       <c r="F200" s="95"/>
       <c r="G200" s="95"/>
       <c r="H200" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7036,7 +7033,7 @@
         <v>725</v>
       </c>
       <c r="H201" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7053,10 +7050,10 @@
         <v>726</v>
       </c>
       <c r="H202" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="95" t="s">
         <v>445</v>
       </c>
@@ -7067,10 +7064,10 @@
         <v>813</v>
       </c>
       <c r="H203" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="95" t="s">
         <v>446</v>
       </c>
@@ -7082,7 +7079,7 @@
       </c>
       <c r="E204" s="70"/>
       <c r="H204" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7096,7 +7093,7 @@
         <v>809</v>
       </c>
       <c r="H205" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7119,7 +7116,7 @@
         <v>260</v>
       </c>
       <c r="H206" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7139,7 +7136,7 @@
         <v>756</v>
       </c>
       <c r="H207" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7153,7 +7150,7 @@
         <v>735</v>
       </c>
       <c r="H208" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7173,7 +7170,7 @@
         <v>725</v>
       </c>
       <c r="H209" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7184,7 +7181,7 @@
         <v>725</v>
       </c>
       <c r="H210" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7192,7 +7189,7 @@
         <v>812</v>
       </c>
       <c r="H211" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7209,7 +7206,7 @@
         <v>815</v>
       </c>
       <c r="H212" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7224,10 +7221,10 @@
       </c>
       <c r="D213" s="89"/>
       <c r="H213" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="95" t="s">
         <v>452</v>
       </c>
@@ -7235,10 +7232,10 @@
         <v>485</v>
       </c>
       <c r="C214" s="70" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="H214" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7255,7 +7252,7 @@
         <v>592</v>
       </c>
       <c r="H215" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7270,7 +7267,7 @@
       </c>
       <c r="E216" s="78"/>
       <c r="H216" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7284,7 +7281,7 @@
         <v>767</v>
       </c>
       <c r="H217" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7299,7 +7296,7 @@
       </c>
       <c r="G218" s="80"/>
       <c r="H218" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7314,7 +7311,7 @@
       </c>
       <c r="D219" s="80"/>
       <c r="H219" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7332,7 +7329,7 @@
       </c>
       <c r="F220" s="78"/>
       <c r="H220" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7346,7 +7343,7 @@
         <v>760</v>
       </c>
       <c r="H221" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7363,7 +7360,7 @@
         <v>256</v>
       </c>
       <c r="H222" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7374,7 +7371,7 @@
         <v>820</v>
       </c>
       <c r="H223" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7388,7 +7385,7 @@
         <v>592</v>
       </c>
       <c r="H224" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7402,7 +7399,7 @@
         <v>725</v>
       </c>
       <c r="H225" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7416,7 +7413,7 @@
         <v>259</v>
       </c>
       <c r="H226" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7427,10 +7424,10 @@
         <v>725</v>
       </c>
       <c r="H227" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="95" t="s">
         <v>462</v>
       </c>
@@ -7441,7 +7438,7 @@
         <v>813</v>
       </c>
       <c r="H228" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7455,7 +7452,7 @@
         <v>821</v>
       </c>
       <c r="H229" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7472,7 +7469,7 @@
         <v>259</v>
       </c>
       <c r="H230" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7486,7 +7483,7 @@
         <v>466</v>
       </c>
       <c r="H231" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7508,7 +7505,7 @@
       <c r="F232" s="70"/>
       <c r="G232" s="70"/>
       <c r="H232" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7522,7 +7519,7 @@
         <v>592</v>
       </c>
       <c r="H233" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7536,7 +7533,7 @@
         <v>817</v>
       </c>
       <c r="H234" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7550,7 +7547,7 @@
         <v>725</v>
       </c>
       <c r="H235" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7564,7 +7561,7 @@
         <v>824</v>
       </c>
       <c r="H236" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7578,7 +7575,7 @@
         <v>800</v>
       </c>
       <c r="H237" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7592,7 +7589,7 @@
         <v>800</v>
       </c>
       <c r="H238" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7609,7 +7606,7 @@
         <v>444</v>
       </c>
       <c r="H239" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7623,10 +7620,10 @@
         <v>800</v>
       </c>
       <c r="H240" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="70" t="s">
         <v>530</v>
       </c>
@@ -7637,10 +7634,10 @@
         <v>813</v>
       </c>
       <c r="H241" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="70" t="s">
         <v>529</v>
       </c>
@@ -7651,7 +7648,7 @@
         <v>813</v>
       </c>
       <c r="H242" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7668,7 +7665,7 @@
         <v>813</v>
       </c>
       <c r="H243" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7685,10 +7682,10 @@
         <v>444</v>
       </c>
       <c r="H244" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="70" t="s">
         <v>716</v>
       </c>
@@ -7700,7 +7697,7 @@
       </c>
       <c r="D245" s="111"/>
       <c r="H245" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7714,7 +7711,7 @@
         <v>725</v>
       </c>
       <c r="H246" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7731,7 +7728,7 @@
         <v>441</v>
       </c>
       <c r="H247" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7748,7 +7745,7 @@
         <v>800</v>
       </c>
       <c r="H248" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7771,7 +7768,7 @@
         <v>725</v>
       </c>
       <c r="H249" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7791,7 +7788,7 @@
         <v>725</v>
       </c>
       <c r="H250" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7805,7 +7802,7 @@
       <c r="D251" s="70"/>
       <c r="E251" s="70"/>
       <c r="H251" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7817,7 +7814,7 @@
       <c r="D252" s="70"/>
       <c r="E252" s="70"/>
       <c r="H252" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7833,7 +7830,7 @@
       <c r="D253" s="70"/>
       <c r="E253" s="70"/>
       <c r="H253" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7849,7 +7846,7 @@
       <c r="D254" s="70"/>
       <c r="E254" s="70"/>
       <c r="H254" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7867,7 +7864,7 @@
       </c>
       <c r="E255" s="70"/>
       <c r="H255" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7883,7 +7880,7 @@
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
       <c r="H256" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7897,7 +7894,7 @@
       <c r="D257" s="70"/>
       <c r="E257" s="70"/>
       <c r="H257" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7915,7 +7912,7 @@
       </c>
       <c r="E258" s="70"/>
       <c r="H258" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7931,7 +7928,7 @@
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
       <c r="H259" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7945,7 +7942,7 @@
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
       <c r="H260" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7961,7 +7958,7 @@
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
       <c r="H261" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7977,7 +7974,7 @@
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
       <c r="H262" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7997,7 +7994,7 @@
         <v>725</v>
       </c>
       <c r="H263" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8013,7 +8010,7 @@
       <c r="D264" s="70"/>
       <c r="E264" s="70"/>
       <c r="H264" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8033,7 +8030,7 @@
         <v>725</v>
       </c>
       <c r="H265" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8047,10 +8044,10 @@
       <c r="D266" s="70"/>
       <c r="E266" s="70"/>
       <c r="H266" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="70" t="s">
         <v>532</v>
       </c>
@@ -8058,14 +8055,14 @@
         <v>787</v>
       </c>
       <c r="C267" s="70" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="D267" s="70" t="s">
         <v>483</v>
       </c>
       <c r="E267" s="70"/>
       <c r="H267" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8081,7 +8078,7 @@
       <c r="D268" s="70"/>
       <c r="E268" s="70"/>
       <c r="H268" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8097,7 +8094,7 @@
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
       <c r="H269" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8111,13 +8108,13 @@
         <v>737</v>
       </c>
       <c r="D270" s="134" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E270" s="70" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H270" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8135,7 +8132,7 @@
       </c>
       <c r="E271" s="70"/>
       <c r="H271" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8151,7 +8148,7 @@
       <c r="D272" s="70"/>
       <c r="E272" s="70"/>
       <c r="H272" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8165,11 +8162,11 @@
         <v>814</v>
       </c>
       <c r="D273" s="70" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E273" s="70"/>
       <c r="H273" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8186,10 +8183,10 @@
         <v>815</v>
       </c>
       <c r="E274" s="70" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H274" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8205,7 +8202,7 @@
       <c r="D275" s="70"/>
       <c r="E275" s="70"/>
       <c r="H275" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8221,7 +8218,7 @@
       <c r="D276" s="70"/>
       <c r="E276" s="70"/>
       <c r="H276" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8235,7 +8232,7 @@
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
       <c r="H277" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8249,7 +8246,7 @@
       <c r="D278" s="70"/>
       <c r="E278" s="70"/>
       <c r="H278" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8260,14 +8257,14 @@
         <v>759</v>
       </c>
       <c r="C279" s="70" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D279" s="111" t="s">
         <v>686</v>
       </c>
       <c r="E279" s="70"/>
       <c r="H279" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8278,12 +8275,12 @@
         <v>801</v>
       </c>
       <c r="C280" s="111" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
       <c r="H280" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8299,7 +8296,7 @@
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
       <c r="H281" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8307,7 +8304,7 @@
         <v>550</v>
       </c>
       <c r="B282" s="70" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C282" s="70" t="s">
         <v>787</v>
@@ -8317,7 +8314,7 @@
       </c>
       <c r="E282" s="70"/>
       <c r="H282" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8325,15 +8322,15 @@
         <v>555</v>
       </c>
       <c r="B283" s="70" t="s">
+        <v>843</v>
+      </c>
+      <c r="C283" s="111" t="s">
         <v>844</v>
-      </c>
-      <c r="C283" s="111" t="s">
-        <v>845</v>
       </c>
       <c r="D283" s="70"/>
       <c r="E283" s="70"/>
       <c r="H283" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8351,7 +8348,7 @@
       </c>
       <c r="E284" s="70"/>
       <c r="H284" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8367,7 +8364,7 @@
       <c r="D285" s="70"/>
       <c r="E285" s="70"/>
       <c r="H285" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8383,7 +8380,7 @@
       <c r="D286" s="70"/>
       <c r="E286" s="70"/>
       <c r="H286" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8399,7 +8396,7 @@
       <c r="F287" s="76"/>
       <c r="G287" s="76"/>
       <c r="H287" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8415,7 +8412,7 @@
       <c r="D288" s="70"/>
       <c r="E288" s="70"/>
       <c r="H288" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8431,7 +8428,7 @@
       <c r="D289" s="70"/>
       <c r="E289" s="70"/>
       <c r="H289" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8451,7 +8448,7 @@
         <v>725</v>
       </c>
       <c r="H290" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8459,7 +8456,7 @@
         <v>584</v>
       </c>
       <c r="B291" s="70" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C291" s="70" t="s">
         <v>725</v>
@@ -8467,7 +8464,7 @@
       <c r="D291" s="70"/>
       <c r="E291" s="70"/>
       <c r="H291" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8483,7 +8480,7 @@
       <c r="D292" s="70"/>
       <c r="E292" s="70"/>
       <c r="H292" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8491,13 +8488,13 @@
         <v>178</v>
       </c>
       <c r="B293" s="70" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C293" s="134" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H293" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8505,13 +8502,13 @@
         <v>493</v>
       </c>
       <c r="B294" s="70" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C294" s="134" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H294" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8519,10 +8516,10 @@
         <v>269</v>
       </c>
       <c r="B295" s="95" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H295" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8530,13 +8527,13 @@
         <v>330</v>
       </c>
       <c r="B296" s="95" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C296" s="95" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H296" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8544,13 +8541,13 @@
         <v>325</v>
       </c>
       <c r="B297" s="95" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C297" s="95" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H297" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8558,13 +8555,13 @@
         <v>354</v>
       </c>
       <c r="B298" s="95" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C298" s="95" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H298" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8572,16 +8569,16 @@
         <v>603</v>
       </c>
       <c r="B299" s="95" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C299" s="95" t="s">
         <v>769</v>
       </c>
       <c r="D299" s="95" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H299" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8589,13 +8586,13 @@
         <v>449</v>
       </c>
       <c r="B300" s="70" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C300" s="89" t="s">
         <v>807</v>
       </c>
       <c r="H300" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8609,13 +8606,13 @@
         <v>769</v>
       </c>
       <c r="D301" s="95" t="s">
+        <v>849</v>
+      </c>
+      <c r="E301" s="95" t="s">
         <v>850</v>
       </c>
-      <c r="E301" s="95" t="s">
-        <v>851</v>
-      </c>
       <c r="H301" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8623,16 +8620,16 @@
         <v>526</v>
       </c>
       <c r="B302" s="70" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C302" s="70" t="s">
         <v>754</v>
       </c>
       <c r="D302" s="135" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H302" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8648,7 +8645,7 @@
       <c r="D303" s="70"/>
       <c r="E303" s="70"/>
       <c r="H303" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8664,7 +8661,7 @@
       <c r="D304" s="70"/>
       <c r="E304" s="70"/>
       <c r="H304" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8675,7 +8672,7 @@
         <v>800</v>
       </c>
       <c r="H305" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8689,7 +8686,7 @@
         <v>735</v>
       </c>
       <c r="H306" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8697,7 +8694,7 @@
         <v>574</v>
       </c>
       <c r="B307" s="95" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C307" s="95" t="s">
         <v>786</v>
@@ -8706,7 +8703,7 @@
         <v>592</v>
       </c>
       <c r="H307" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8720,7 +8717,7 @@
         <v>781</v>
       </c>
       <c r="H308" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8731,10 +8728,10 @@
         <v>753</v>
       </c>
       <c r="H309" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="97" t="s">
         <v>577</v>
       </c>
@@ -8745,7 +8742,7 @@
         <v>813</v>
       </c>
       <c r="H310" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8760,7 +8757,7 @@
       </c>
       <c r="D311" s="97"/>
       <c r="H311" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8771,10 +8768,10 @@
         <v>836</v>
       </c>
       <c r="C312" s="114" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H312" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8785,7 +8782,7 @@
         <v>797</v>
       </c>
       <c r="H313" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8796,10 +8793,10 @@
         <v>732</v>
       </c>
       <c r="C314" s="95" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H314" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8807,13 +8804,13 @@
         <v>583</v>
       </c>
       <c r="B315" s="95" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C315" s="70" t="s">
         <v>725</v>
       </c>
       <c r="H315" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8821,13 +8818,13 @@
         <v>585</v>
       </c>
       <c r="B316" s="95" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C316" s="111" t="s">
         <v>743</v>
       </c>
       <c r="H316" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8835,13 +8832,13 @@
         <v>586</v>
       </c>
       <c r="B317" s="95" t="s">
+        <v>857</v>
+      </c>
+      <c r="C317" t="s">
         <v>858</v>
       </c>
-      <c r="C317" t="s">
-        <v>859</v>
-      </c>
       <c r="H317" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8849,13 +8846,13 @@
         <v>720</v>
       </c>
       <c r="B318" s="95" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C318" s="95" t="s">
         <v>743</v>
       </c>
       <c r="H318" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8863,13 +8860,13 @@
         <v>719</v>
       </c>
       <c r="B319" s="95" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C319" s="70" t="s">
         <v>725</v>
       </c>
       <c r="H319" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8883,7 +8880,7 @@
         <v>772</v>
       </c>
       <c r="H320" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8897,7 +8894,7 @@
         <v>466</v>
       </c>
       <c r="H321" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8908,7 +8905,7 @@
         <v>784</v>
       </c>
       <c r="H322" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8922,7 +8919,7 @@
         <v>791</v>
       </c>
       <c r="H323" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8933,10 +8930,10 @@
         <v>177</v>
       </c>
       <c r="H324" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="70" t="s">
         <v>595</v>
       </c>
@@ -8944,13 +8941,13 @@
         <v>787</v>
       </c>
       <c r="C325" s="70" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="D325" s="70" t="s">
         <v>483</v>
       </c>
       <c r="H325" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8964,7 +8961,7 @@
         <v>592</v>
       </c>
       <c r="H326" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8981,7 +8978,7 @@
         <v>726</v>
       </c>
       <c r="H327" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8995,7 +8992,7 @@
         <v>768</v>
       </c>
       <c r="H328" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9003,10 +9000,10 @@
         <v>599</v>
       </c>
       <c r="B329" s="114" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H329" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -9014,10 +9011,10 @@
         <v>600</v>
       </c>
       <c r="B330" s="95" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H330" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9031,7 +9028,7 @@
         <v>466</v>
       </c>
       <c r="H331" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9039,19 +9036,19 @@
         <v>602</v>
       </c>
       <c r="B332" s="95" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C332" s="95" t="s">
         <v>815</v>
       </c>
       <c r="D332" s="111" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H332" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="70" t="s">
         <v>604</v>
       </c>
@@ -9062,7 +9059,7 @@
         <v>813</v>
       </c>
       <c r="H333" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9074,7 +9071,7 @@
       </c>
       <c r="C334" s="98"/>
       <c r="H334" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9085,7 +9082,7 @@
         <v>177</v>
       </c>
       <c r="H335" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9096,10 +9093,10 @@
         <v>261</v>
       </c>
       <c r="H336" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="70" t="s">
         <v>608</v>
       </c>
@@ -9110,7 +9107,7 @@
         <v>813</v>
       </c>
       <c r="H337" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9118,10 +9115,10 @@
         <v>609</v>
       </c>
       <c r="B338" s="95" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H338" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -9135,7 +9132,7 @@
         <v>592</v>
       </c>
       <c r="H339" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9143,13 +9140,13 @@
         <v>611</v>
       </c>
       <c r="B340" s="95" t="s">
+        <v>864</v>
+      </c>
+      <c r="C340" s="95" t="s">
         <v>865</v>
       </c>
-      <c r="C340" s="95" t="s">
-        <v>866</v>
-      </c>
       <c r="H340" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9163,7 +9160,7 @@
         <v>661</v>
       </c>
       <c r="H341" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9171,13 +9168,13 @@
         <v>613</v>
       </c>
       <c r="B342" s="70" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C342" s="134" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H342" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9194,7 +9191,7 @@
         <v>725</v>
       </c>
       <c r="H343" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9208,10 +9205,10 @@
         <v>737</v>
       </c>
       <c r="D344" s="95" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H344" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9219,7 +9216,7 @@
         <v>615</v>
       </c>
       <c r="B345" s="97" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C345" s="97" t="s">
         <v>814</v>
@@ -9228,7 +9225,7 @@
         <v>815</v>
       </c>
       <c r="H345" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9242,10 +9239,10 @@
         <v>777</v>
       </c>
       <c r="D346" s="97" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H346" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9253,13 +9250,13 @@
         <v>617</v>
       </c>
       <c r="B347" s="95" t="s">
+        <v>867</v>
+      </c>
+      <c r="C347" s="95" t="s">
         <v>868</v>
       </c>
-      <c r="C347" s="95" t="s">
-        <v>869</v>
-      </c>
       <c r="H347" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9267,13 +9264,13 @@
         <v>618</v>
       </c>
       <c r="B348" s="95" t="s">
+        <v>869</v>
+      </c>
+      <c r="C348" s="95" t="s">
         <v>870</v>
       </c>
-      <c r="C348" s="95" t="s">
-        <v>871</v>
-      </c>
       <c r="H348" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9284,7 +9281,7 @@
         <v>620</v>
       </c>
       <c r="H349" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9292,10 +9289,10 @@
         <v>621</v>
       </c>
       <c r="B350" s="114" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H350" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9309,7 +9306,7 @@
         <v>725</v>
       </c>
       <c r="H351" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9320,10 +9317,10 @@
         <v>787</v>
       </c>
       <c r="C352" s="95" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H352" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9337,7 +9334,7 @@
         <v>743</v>
       </c>
       <c r="H353" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9345,13 +9342,13 @@
         <v>629</v>
       </c>
       <c r="B354" s="114" t="s">
+        <v>873</v>
+      </c>
+      <c r="C354" s="114" t="s">
         <v>874</v>
       </c>
-      <c r="C354" s="114" t="s">
-        <v>875</v>
-      </c>
       <c r="H354" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9362,7 +9359,7 @@
         <v>261</v>
       </c>
       <c r="H355" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9373,7 +9370,7 @@
         <v>620</v>
       </c>
       <c r="H356" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9390,7 +9387,7 @@
         <v>819</v>
       </c>
       <c r="H357" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9401,7 +9398,7 @@
         <v>177</v>
       </c>
       <c r="H358" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9412,10 +9409,10 @@
         <v>725</v>
       </c>
       <c r="H359" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="70" t="s">
         <v>638</v>
       </c>
@@ -9426,7 +9423,7 @@
         <v>813</v>
       </c>
       <c r="H360" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9440,7 +9437,7 @@
         <v>514</v>
       </c>
       <c r="H361" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9454,7 +9451,7 @@
         <v>824</v>
       </c>
       <c r="H362" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9462,16 +9459,16 @@
         <v>641</v>
       </c>
       <c r="B363" s="95" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C363" s="97" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D363" s="74" t="s">
         <v>791</v>
       </c>
       <c r="H363" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9485,7 +9482,7 @@
         <v>728</v>
       </c>
       <c r="H364" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9493,14 +9490,14 @@
         <v>721</v>
       </c>
       <c r="B365" s="116" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C365" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D365" s="113"/>
       <c r="H365" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9518,7 +9515,7 @@
       </c>
       <c r="E366" s="70"/>
       <c r="H366" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9526,13 +9523,13 @@
         <v>642</v>
       </c>
       <c r="B367" s="95" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C367" s="95" t="s">
         <v>821</v>
       </c>
       <c r="H367" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9547,7 +9544,7 @@
       </c>
       <c r="D368" s="89"/>
       <c r="H368" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9561,7 +9558,7 @@
         <v>466</v>
       </c>
       <c r="H369" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9575,7 +9572,7 @@
         <v>725</v>
       </c>
       <c r="H370" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9586,10 +9583,10 @@
         <v>769</v>
       </c>
       <c r="C371" s="111" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H371" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9606,7 +9603,7 @@
         <v>834</v>
       </c>
       <c r="H372" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9621,7 +9618,7 @@
       </c>
       <c r="D373" s="89"/>
       <c r="H373" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9632,13 +9629,13 @@
         <v>769</v>
       </c>
       <c r="C374" s="95" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D374" s="112" t="s">
         <v>834</v>
       </c>
       <c r="H374" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9649,7 +9646,7 @@
         <v>820</v>
       </c>
       <c r="H375" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9657,13 +9654,13 @@
         <v>652</v>
       </c>
       <c r="B376" s="97" t="s">
+        <v>879</v>
+      </c>
+      <c r="C376" s="97" t="s">
         <v>880</v>
       </c>
-      <c r="C376" s="97" t="s">
-        <v>881</v>
-      </c>
       <c r="H376" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9671,10 +9668,10 @@
         <v>5</v>
       </c>
       <c r="B377" s="95" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H377" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9689,7 +9686,7 @@
       <c r="E378" s="79"/>
       <c r="F378" s="79"/>
       <c r="H378" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9700,7 +9697,7 @@
         <v>259</v>
       </c>
       <c r="H379" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9711,7 +9708,7 @@
         <v>261</v>
       </c>
       <c r="H380" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9725,7 +9722,7 @@
         <v>466</v>
       </c>
       <c r="H381" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9733,7 +9730,7 @@
         <v>359</v>
       </c>
       <c r="B382" s="114" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C382" s="70" t="s">
         <v>726</v>
@@ -9742,7 +9739,7 @@
         <v>767</v>
       </c>
       <c r="H382" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9750,7 +9747,7 @@
         <v>658</v>
       </c>
       <c r="B383" s="70" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C383" s="112" t="s">
         <v>834</v>
@@ -9758,7 +9755,7 @@
       <c r="D383" s="112"/>
       <c r="E383" s="70"/>
       <c r="H383" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9772,11 +9769,11 @@
         <v>823</v>
       </c>
       <c r="D384" s="111" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E384" s="70"/>
       <c r="H384" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9787,13 +9784,13 @@
         <v>823</v>
       </c>
       <c r="C385" s="70" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D385" s="112" t="s">
         <v>834</v>
       </c>
       <c r="H385" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9801,13 +9798,13 @@
         <v>656</v>
       </c>
       <c r="B386" s="95" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C386" s="111" t="s">
         <v>800</v>
       </c>
       <c r="H386" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9821,7 +9818,7 @@
         <v>760</v>
       </c>
       <c r="H387" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9836,7 +9833,7 @@
       </c>
       <c r="D388" s="89"/>
       <c r="H388" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9850,7 +9847,7 @@
         <v>781</v>
       </c>
       <c r="H389" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9866,7 +9863,7 @@
       <c r="D390" s="102"/>
       <c r="E390" s="102"/>
       <c r="H390" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9877,7 +9874,7 @@
         <v>177</v>
       </c>
       <c r="H391" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9888,7 +9885,7 @@
         <v>725</v>
       </c>
       <c r="H392" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9902,7 +9899,7 @@
         <v>835</v>
       </c>
       <c r="H393" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9916,10 +9913,10 @@
         <v>743</v>
       </c>
       <c r="H394" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="70" t="s">
         <v>670</v>
       </c>
@@ -9930,7 +9927,7 @@
         <v>483</v>
       </c>
       <c r="H395" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9941,10 +9938,10 @@
         <v>787</v>
       </c>
       <c r="C396" s="95" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H396" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9961,7 +9958,7 @@
         <v>740</v>
       </c>
       <c r="H397" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9975,7 +9972,7 @@
         <v>740</v>
       </c>
       <c r="H398" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9983,13 +9980,13 @@
         <v>675</v>
       </c>
       <c r="B399" s="102" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H399" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="70" t="s">
         <v>676</v>
       </c>
@@ -10000,7 +9997,7 @@
         <v>813</v>
       </c>
       <c r="H400" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10011,7 +10008,7 @@
         <v>725</v>
       </c>
       <c r="H401" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10022,7 +10019,7 @@
         <v>256</v>
       </c>
       <c r="H402" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10033,7 +10030,7 @@
         <v>746</v>
       </c>
       <c r="H403" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10050,7 +10047,7 @@
         <v>733</v>
       </c>
       <c r="H404" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10061,10 +10058,10 @@
         <v>792</v>
       </c>
       <c r="C405" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H405" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10082,7 +10079,7 @@
       </c>
       <c r="F406" s="94"/>
       <c r="H406" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10093,7 +10090,7 @@
         <v>749</v>
       </c>
       <c r="H407" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10101,14 +10098,14 @@
         <v>201</v>
       </c>
       <c r="B408" s="74" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C408" s="111" t="s">
         <v>747</v>
       </c>
       <c r="D408" s="70"/>
       <c r="H408" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10116,13 +10113,13 @@
         <v>202</v>
       </c>
       <c r="B409" s="74" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C409" s="111" t="s">
         <v>747</v>
       </c>
       <c r="H409" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10130,13 +10127,13 @@
         <v>687</v>
       </c>
       <c r="B410" s="74" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C410" s="70" t="s">
         <v>725</v>
       </c>
       <c r="H410" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10144,13 +10141,13 @@
         <v>685</v>
       </c>
       <c r="B411" s="74" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C411" s="74" t="s">
         <v>686</v>
       </c>
       <c r="H411" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10161,7 +10158,7 @@
         <v>797</v>
       </c>
       <c r="H412" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10172,7 +10169,7 @@
         <v>259</v>
       </c>
       <c r="H413" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10183,7 +10180,7 @@
         <v>256</v>
       </c>
       <c r="H414" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10191,13 +10188,13 @@
         <v>692</v>
       </c>
       <c r="B415" s="95" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C415" s="70" t="s">
         <v>725</v>
       </c>
       <c r="H415" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10205,10 +10202,10 @@
         <v>695</v>
       </c>
       <c r="B416" s="95" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H416" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10216,13 +10213,13 @@
         <v>699</v>
       </c>
       <c r="B417" s="70" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C417" s="74" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H417" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10233,7 +10230,7 @@
         <v>797</v>
       </c>
       <c r="H418" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10247,7 +10244,7 @@
         <v>781</v>
       </c>
       <c r="H419" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10255,13 +10252,13 @@
         <v>702</v>
       </c>
       <c r="B420" s="74" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C420" s="74" t="s">
         <v>686</v>
       </c>
       <c r="H420" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10275,7 +10272,7 @@
         <v>769</v>
       </c>
       <c r="H421" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10283,13 +10280,13 @@
         <v>704</v>
       </c>
       <c r="B422" s="74" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C422" s="74" t="s">
         <v>792</v>
       </c>
       <c r="H422" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="423" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10303,7 +10300,7 @@
         <v>781</v>
       </c>
       <c r="H423" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10314,7 +10311,7 @@
         <v>177</v>
       </c>
       <c r="H424" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10322,13 +10319,13 @@
         <v>708</v>
       </c>
       <c r="B425" s="70" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C425" s="134" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H425" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10342,7 +10339,7 @@
         <v>725</v>
       </c>
       <c r="H426" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10359,7 +10356,7 @@
         <v>724</v>
       </c>
       <c r="H427" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10370,7 +10367,7 @@
         <v>725</v>
       </c>
       <c r="H428" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10378,7 +10375,7 @@
         <v>712</v>
       </c>
       <c r="B429" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C429" s="70" t="s">
         <v>734</v>
@@ -10387,7 +10384,7 @@
         <v>733</v>
       </c>
       <c r="H429" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10398,10 +10395,10 @@
         <v>725</v>
       </c>
       <c r="H430" s="119" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="70" t="s">
         <v>714</v>
       </c>
@@ -10412,7 +10409,7 @@
         <v>813</v>
       </c>
       <c r="H431" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="432" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10426,7 +10423,7 @@
         <v>725</v>
       </c>
       <c r="H432" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10440,14 +10437,15 @@
         <v>784</v>
       </c>
       <c r="H433" s="119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C433" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="General АМ Подключение (General_AM_Connection)"/>
+        <filter val="General Готовность карт (General_TAKE_CARD)"/>
+        <filter val="Готовность карт (CardReadiness)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5E1856-F579-4FEC-ADBC-A0D6CD3170A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE356E30-4C9A-49F0-A329-6D93CF5771DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$D$1:$D$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$C$1:$C$433</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <customWorkbookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="901">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2450,33 +2450,21 @@
     <t>Кредит наличными (Про платеж) (Local_DIS_Credit)</t>
   </si>
   <si>
-    <t>Курьерская доставка (General_Express_Delivery)</t>
-  </si>
-  <si>
     <t>Платежные Стикеры (General_Payment_Stickers)</t>
   </si>
   <si>
     <t>Кредитная картаКредитка (Local_Credit_Card)</t>
   </si>
   <si>
-    <t xml:space="preserve">General_Платеж по кредиту (General_DIS) </t>
-  </si>
-  <si>
     <t>Движение денежных средств (Local_Transactions)</t>
   </si>
   <si>
     <t>Квитанция (General_Cheque)</t>
   </si>
   <si>
-    <t>Справка (General_Reference)</t>
-  </si>
-  <si>
     <t>Замена паспорта (General_PassportChange)</t>
   </si>
   <si>
-    <t>Смена номера телефона (General_Change_phone)</t>
-  </si>
-  <si>
     <t>Привязать номер (Local_Bind_Number)</t>
   </si>
   <si>
@@ -2507,9 +2495,6 @@
     <t>Когда поступят деньги (Local_Get_Money)</t>
   </si>
   <si>
-    <t>Способы погашения_пополнения (General_Repay_credit)</t>
-  </si>
-  <si>
     <t>О способах пополнения (Local_Repay_Credit)</t>
   </si>
   <si>
@@ -2558,12 +2543,6 @@
     <t>General Оформление Ипотеки (General_Reg_Mortage)</t>
   </si>
   <si>
-    <t xml:space="preserve">General_Podeli (General_Подели) </t>
-  </si>
-  <si>
-    <t>General_Банк X5 (General_X5)</t>
-  </si>
-  <si>
     <t>General Накопительный счет (General_Saving)</t>
   </si>
   <si>
@@ -2693,9 +2672,6 @@
     <t>Отказаться  (Local_Refuse)</t>
   </si>
   <si>
-    <t>General_ИЗК (General_IZK)</t>
-  </si>
-  <si>
     <t>Альфа-Онлайн (Local_AO)</t>
   </si>
   <si>
@@ -2720,9 +2696,6 @@
     <t>Мошенничество (Local_Fraud)</t>
   </si>
   <si>
-    <t xml:space="preserve">Настроить секретный код (General_Setup_Secret_Code) </t>
-  </si>
-  <si>
     <t>Юрлица (Local_Business)</t>
   </si>
   <si>
@@ -2732,9 +2705,6 @@
     <t>Платеж по кредитному продукту (Local_DIS)</t>
   </si>
   <si>
-    <t>Что такое секретный код (General_About_Secret_Code)</t>
-  </si>
-  <si>
     <t>General Мошенничество (General_Fraud)</t>
   </si>
   <si>
@@ -2759,10 +2729,6 @@
     <t>General Условия вклада (Ge﻿neral_Condition_Vklad)</t>
   </si>
   <si>
-    <t>Мобильный оператор связи Альфа-Банка «Альфа Мобайл»
-(General_MVNO)</t>
-  </si>
-  <si>
     <t>General Смена номера телефона (General_Change_phone)</t>
   </si>
   <si>
@@ -2778,9 +2744,6 @@
     <t>Зарплатный (счет/ карта) (Local_Salary)</t>
   </si>
   <si>
-    <t>General_Альфа-Смарт (General_Alfa-Smart)</t>
-  </si>
-  <si>
     <t>Альфа смарт (Local_Smart)</t>
   </si>
   <si>
@@ -2841,9 +2804,6 @@
     <t>Как купить ЦФА (Local_DFA_BUY)</t>
   </si>
   <si>
-    <t>General_Отмена кредитной заявки (General_Cancel_Loan_Claim)</t>
-  </si>
-  <si>
     <t>Текущий счет (Local_Current_Account)</t>
   </si>
   <si>
@@ -2899,6 +2859,36 @@
   </si>
   <si>
     <t>General Активация (General_Activation)</t>
+  </si>
+  <si>
+    <t>General Мобильный оператор связи Альфа-Банка «Альфа Мобайл» (General_MVNO)</t>
+  </si>
+  <si>
+    <t>Genera Курьерская доставка (General_Express_Delivery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Подели (General_Podeli) </t>
+  </si>
+  <si>
+    <t>General Альфа-Смарт (General_Alfa-Smart)</t>
+  </si>
+  <si>
+    <t>General Банк X5 (General_X5)</t>
+  </si>
+  <si>
+    <t>General ИЗК (General_IZK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Настроить секретный код (General_Setup_Secret_Code) </t>
+  </si>
+  <si>
+    <t>General Что такое секретный код (General_About_Secret_Code)</t>
+  </si>
+  <si>
+    <t>General Отмена кредитной заявки (General_Cancel_Loan_Claim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Платеж по кредиту (General_DIS) </t>
   </si>
 </sst>
 </file>
@@ -3252,7 +3242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3630,6 +3620,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3667,8 +3659,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>433</xdr:row>
-      <xdr:rowOff>121207</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>491321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3715,8 +3707,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>437</xdr:row>
-      <xdr:rowOff>102567</xdr:rowOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>113453</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3763,7 +3755,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>123848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3811,7 +3803,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>123848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3859,7 +3851,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>317367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3907,7 +3899,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3955,7 +3947,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4003,7 +3995,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>126151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4412,7 +4404,7 @@
   <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4430,28 +4422,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="B1" s="120" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="D1" s="119" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="E1" s="119" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="G1" s="119" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="H1" s="119" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4465,7 +4457,7 @@
         <v>723</v>
       </c>
       <c r="H2" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4482,7 +4474,7 @@
         <v>442</v>
       </c>
       <c r="H3" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -4500,7 +4492,7 @@
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
       <c r="H4" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4511,7 +4503,7 @@
         <v>747</v>
       </c>
       <c r="H5" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4522,22 +4514,22 @@
         <v>747</v>
       </c>
       <c r="H6" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="133" t="s">
+        <v>728</v>
+      </c>
+      <c r="C7" s="95" t="s">
         <v>727</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>728</v>
       </c>
       <c r="G7" s="76"/>
       <c r="H7" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4548,7 +4540,7 @@
         <v>177</v>
       </c>
       <c r="H8" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4562,7 +4554,7 @@
         <v>256</v>
       </c>
       <c r="H9" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4576,7 +4568,7 @@
         <v>256</v>
       </c>
       <c r="H10" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4587,7 +4579,7 @@
         <v>730</v>
       </c>
       <c r="H11" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4598,7 +4590,7 @@
         <v>256</v>
       </c>
       <c r="H12" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4606,10 +4598,10 @@
         <v>333</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="H13" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4617,10 +4609,10 @@
         <v>421</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="H14" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4631,7 +4623,7 @@
         <v>723</v>
       </c>
       <c r="H15" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4648,18 +4640,18 @@
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="H16" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="113" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="B17" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H17" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4673,7 +4665,7 @@
         <v>254</v>
       </c>
       <c r="H18" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4687,7 +4679,7 @@
         <v>735</v>
       </c>
       <c r="H19" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4698,7 +4690,7 @@
         <v>177</v>
       </c>
       <c r="H20" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4709,7 +4701,7 @@
         <v>177</v>
       </c>
       <c r="H21" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4720,7 +4712,7 @@
         <v>736</v>
       </c>
       <c r="H22" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4734,7 +4726,7 @@
         <v>738</v>
       </c>
       <c r="H23" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4748,7 +4740,7 @@
         <v>256</v>
       </c>
       <c r="H24" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4759,7 +4751,7 @@
         <v>177</v>
       </c>
       <c r="H25" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4770,7 +4762,7 @@
         <v>177</v>
       </c>
       <c r="H26" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4781,7 +4773,7 @@
         <v>740</v>
       </c>
       <c r="H27" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4795,7 +4787,7 @@
         <v>741</v>
       </c>
       <c r="H28" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4806,7 +4798,7 @@
         <v>723</v>
       </c>
       <c r="H29" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4817,7 +4809,7 @@
         <v>177</v>
       </c>
       <c r="H30" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4831,7 +4823,7 @@
         <v>742</v>
       </c>
       <c r="H31" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4842,7 +4834,7 @@
         <v>684</v>
       </c>
       <c r="H32" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4857,7 +4849,7 @@
       </c>
       <c r="D33" s="70"/>
       <c r="H33" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4868,7 +4860,7 @@
         <v>744</v>
       </c>
       <c r="H34" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4882,18 +4874,18 @@
         <v>746</v>
       </c>
       <c r="H35" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="113" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="B36" s="95" t="s">
         <v>747</v>
       </c>
       <c r="H36" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4901,13 +4893,13 @@
         <v>180</v>
       </c>
       <c r="B37" s="133" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C37" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H37" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4921,7 +4913,7 @@
         <v>735</v>
       </c>
       <c r="H38" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4932,7 +4924,7 @@
         <v>177</v>
       </c>
       <c r="H39" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4940,13 +4932,13 @@
         <v>426</v>
       </c>
       <c r="B40" s="133" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C40" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H40" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4958,7 +4950,7 @@
       </c>
       <c r="C41" s="70"/>
       <c r="H41" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4969,7 +4961,7 @@
         <v>177</v>
       </c>
       <c r="H42" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4977,13 +4969,13 @@
         <v>195</v>
       </c>
       <c r="B43" s="133" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="C43" s="70" t="s">
         <v>748</v>
       </c>
       <c r="H43" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4994,7 +4986,7 @@
         <v>177</v>
       </c>
       <c r="H44" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5002,10 +4994,10 @@
         <v>197</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="H45" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5019,7 +5011,7 @@
         <v>750</v>
       </c>
       <c r="H46" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5033,7 +5025,7 @@
         <v>256</v>
       </c>
       <c r="H47" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5044,10 +5036,10 @@
         <v>752</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H48" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5055,10 +5047,10 @@
         <v>106</v>
       </c>
       <c r="B49" s="95" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="H49" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5075,7 +5067,7 @@
         <v>260</v>
       </c>
       <c r="H50" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5086,21 +5078,21 @@
         <v>177</v>
       </c>
       <c r="H51" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="B52" s="95" t="s">
-        <v>754</v>
+      <c r="B52" s="133" t="s">
+        <v>892</v>
       </c>
       <c r="C52" s="95" t="s">
         <v>482</v>
       </c>
       <c r="H52" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5111,7 +5103,7 @@
         <v>177</v>
       </c>
       <c r="H53" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5122,7 +5114,7 @@
         <v>177</v>
       </c>
       <c r="H54" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5130,10 +5122,10 @@
         <v>226</v>
       </c>
       <c r="B55" s="95" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H55" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5147,7 +5139,7 @@
         <v>742</v>
       </c>
       <c r="H56" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5158,7 +5150,7 @@
         <v>177</v>
       </c>
       <c r="H57" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5172,7 +5164,7 @@
         <v>590</v>
       </c>
       <c r="H58" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5183,7 +5175,7 @@
         <v>177</v>
       </c>
       <c r="H59" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5194,23 +5186,23 @@
         <v>723</v>
       </c>
       <c r="H60" s="118" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="95" t="s">
         <v>206</v>
       </c>
       <c r="B61" s="95" t="s">
-        <v>756</v>
-      </c>
-      <c r="C61" s="111" t="s">
-        <v>757</v>
+        <v>755</v>
+      </c>
+      <c r="C61" s="136" t="s">
+        <v>900</v>
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="80"/>
       <c r="H61" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5218,13 +5210,13 @@
         <v>117</v>
       </c>
       <c r="B62" s="115" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C62" s="113" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H62" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5235,7 +5227,7 @@
         <v>259</v>
       </c>
       <c r="H63" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5243,13 +5235,13 @@
         <v>207</v>
       </c>
       <c r="B64" s="115" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C64" s="113" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H64" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5257,24 +5249,24 @@
         <v>208</v>
       </c>
       <c r="B65" s="95" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H65" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="B66" s="95" t="s">
-        <v>760</v>
+      <c r="B66" s="133" t="s">
+        <v>728</v>
       </c>
       <c r="C66" s="95" t="s">
         <v>727</v>
       </c>
       <c r="H66" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5282,10 +5274,10 @@
         <v>210</v>
       </c>
       <c r="B67" s="95" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H67" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5293,13 +5285,13 @@
         <v>211</v>
       </c>
       <c r="B68" s="133" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="C68" s="70" t="s">
         <v>748</v>
       </c>
       <c r="H68" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5310,7 +5302,7 @@
         <v>177</v>
       </c>
       <c r="H69" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5318,13 +5310,13 @@
         <v>213</v>
       </c>
       <c r="B70" s="133" t="s">
-        <v>762</v>
+        <v>847</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H70" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5332,13 +5324,13 @@
         <v>214</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>762</v>
+        <v>847</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H71" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5349,10 +5341,10 @@
         <v>262</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H72" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5363,7 +5355,7 @@
         <v>263</v>
       </c>
       <c r="H73" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5377,7 +5369,7 @@
         <v>742</v>
       </c>
       <c r="H74" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5385,13 +5377,13 @@
         <v>224</v>
       </c>
       <c r="B75" s="133" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C75" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H75" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5402,7 +5394,7 @@
         <v>177</v>
       </c>
       <c r="H76" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5413,10 +5405,10 @@
         <v>743</v>
       </c>
       <c r="C77" s="110" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H77" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5430,7 +5422,7 @@
         <v>742</v>
       </c>
       <c r="H78" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5441,16 +5433,16 @@
         <v>260</v>
       </c>
       <c r="C79" s="95" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D79" s="95" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E79" s="95" t="s">
         <v>753</v>
       </c>
       <c r="H79" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5461,7 +5453,7 @@
         <v>177</v>
       </c>
       <c r="H80" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5472,32 +5464,32 @@
         <v>737</v>
       </c>
       <c r="C81" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="H81" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="113" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B82" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H82" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="113" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="B83" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H83" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5505,13 +5497,13 @@
         <v>217</v>
       </c>
       <c r="B84" s="70" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C84" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H84" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5525,30 +5517,30 @@
         <v>723</v>
       </c>
       <c r="H85" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="113" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="B86" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H86" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="113" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B87" s="95" t="s">
         <v>177</v>
       </c>
       <c r="G87" s="77"/>
       <c r="H87" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5559,7 +5551,7 @@
         <v>177</v>
       </c>
       <c r="H88" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5570,7 +5562,7 @@
         <v>177</v>
       </c>
       <c r="H89" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5585,7 +5577,7 @@
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
       <c r="H90" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5596,7 +5588,7 @@
         <v>177</v>
       </c>
       <c r="H91" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5604,13 +5596,13 @@
         <v>160</v>
       </c>
       <c r="B92" s="95" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C92" s="110" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="H92" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5624,7 +5616,7 @@
         <v>733</v>
       </c>
       <c r="H93" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5635,7 +5627,7 @@
         <v>744</v>
       </c>
       <c r="H94" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5649,7 +5641,7 @@
         <v>260</v>
       </c>
       <c r="H95" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5663,7 +5655,7 @@
         <v>733</v>
       </c>
       <c r="H96" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5674,7 +5666,7 @@
         <v>177</v>
       </c>
       <c r="H97" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5685,7 +5677,7 @@
         <v>177</v>
       </c>
       <c r="H98" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5696,7 +5688,7 @@
         <v>177</v>
       </c>
       <c r="H99" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5704,13 +5696,13 @@
         <v>242</v>
       </c>
       <c r="B100" s="133" t="s">
-        <v>762</v>
+        <v>847</v>
       </c>
       <c r="C100" s="70" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H100" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5721,7 +5713,7 @@
         <v>177</v>
       </c>
       <c r="H101" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5732,7 +5724,7 @@
         <v>177</v>
       </c>
       <c r="H102" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5743,7 +5735,7 @@
         <v>177</v>
       </c>
       <c r="H103" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5754,7 +5746,7 @@
         <v>177</v>
       </c>
       <c r="H104" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5765,10 +5757,10 @@
         <v>752</v>
       </c>
       <c r="C105" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H105" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5776,13 +5768,13 @@
         <v>248</v>
       </c>
       <c r="B106" s="133" t="s">
-        <v>762</v>
+        <v>847</v>
       </c>
       <c r="C106" s="70" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H106" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5790,13 +5782,13 @@
         <v>235</v>
       </c>
       <c r="B107" s="115" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C107" s="113" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H107" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5807,7 +5799,7 @@
         <v>261</v>
       </c>
       <c r="H108" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5815,13 +5807,13 @@
         <v>249</v>
       </c>
       <c r="B109" s="95" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C109" s="110" t="s">
         <v>260</v>
       </c>
       <c r="H109" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5832,7 +5824,7 @@
         <v>177</v>
       </c>
       <c r="H110" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5840,13 +5832,13 @@
         <v>251</v>
       </c>
       <c r="B111" s="70" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C111" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H111" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5857,21 +5849,21 @@
         <v>177</v>
       </c>
       <c r="H112" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="B113" s="113" t="s">
-        <v>773</v>
+      <c r="B113" s="133" t="s">
+        <v>770</v>
       </c>
       <c r="C113" s="70" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="H113" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5882,7 +5874,7 @@
         <v>261</v>
       </c>
       <c r="H114" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5896,7 +5888,7 @@
         <v>590</v>
       </c>
       <c r="H115" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5907,24 +5899,24 @@
         <v>752</v>
       </c>
       <c r="C116" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H116" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="B117" s="95" t="s">
-        <v>754</v>
+      <c r="B117" s="133" t="s">
+        <v>892</v>
       </c>
       <c r="C117" s="95" t="s">
         <v>482</v>
       </c>
       <c r="H117" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5938,7 +5930,7 @@
         <v>531</v>
       </c>
       <c r="H118" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5949,21 +5941,21 @@
         <v>177</v>
       </c>
       <c r="H119" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="B120" s="113" t="s">
-        <v>775</v>
+      <c r="B120" s="133" t="s">
+        <v>770</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="H120" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5974,10 +5966,10 @@
         <v>449</v>
       </c>
       <c r="C121" s="95" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="H121" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5985,13 +5977,13 @@
         <v>336</v>
       </c>
       <c r="B122" s="74" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C122" s="74" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H122" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5999,13 +5991,13 @@
         <v>273</v>
       </c>
       <c r="B123" s="95" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C123" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H123" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6013,10 +6005,10 @@
         <v>287</v>
       </c>
       <c r="B124" s="95" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="H124" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6027,7 +6019,7 @@
         <v>274</v>
       </c>
       <c r="H125" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6035,10 +6027,10 @@
         <v>285</v>
       </c>
       <c r="B126" s="95" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H126" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6046,22 +6038,22 @@
         <v>283</v>
       </c>
       <c r="B127" s="95" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C127" s="95" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D127" s="95" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E127" s="95" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="F127" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H127" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6072,7 +6064,7 @@
         <v>177</v>
       </c>
       <c r="H128" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -6083,10 +6075,10 @@
         <v>262</v>
       </c>
       <c r="C129" s="95" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H129" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6094,13 +6086,13 @@
         <v>279</v>
       </c>
       <c r="B130" s="74" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C130" s="74" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H130" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6111,7 +6103,7 @@
         <v>177</v>
       </c>
       <c r="H131" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6122,7 +6114,7 @@
         <v>177</v>
       </c>
       <c r="H132" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6133,7 +6125,7 @@
         <v>723</v>
       </c>
       <c r="H133" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6144,21 +6136,21 @@
         <v>177</v>
       </c>
       <c r="H134" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="B135" s="95" t="s">
-        <v>754</v>
+      <c r="B135" s="133" t="s">
+        <v>892</v>
       </c>
       <c r="C135" s="95" t="s">
         <v>482</v>
       </c>
       <c r="H135" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6166,13 +6158,13 @@
         <v>295</v>
       </c>
       <c r="B136" s="95" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C136" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H136" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6180,13 +6172,13 @@
         <v>296</v>
       </c>
       <c r="B137" s="70" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C137" s="110" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H137" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6200,7 +6192,7 @@
         <v>723</v>
       </c>
       <c r="H138" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6208,13 +6200,13 @@
         <v>298</v>
       </c>
       <c r="B139" s="95" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C139" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H139" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6222,13 +6214,13 @@
         <v>299</v>
       </c>
       <c r="B140" s="74" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C140" s="74" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H140" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6242,7 +6234,7 @@
         <v>742</v>
       </c>
       <c r="H141" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6253,7 +6245,7 @@
         <v>261</v>
       </c>
       <c r="H142" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6264,22 +6256,22 @@
         <v>177</v>
       </c>
       <c r="H143" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="B144" s="113" t="s">
-        <v>775</v>
+      <c r="B144" s="133" t="s">
+        <v>770</v>
       </c>
       <c r="C144" s="95" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E144" s="70"/>
       <c r="H144" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6293,7 +6285,7 @@
         <v>256</v>
       </c>
       <c r="H145" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6304,7 +6296,7 @@
         <v>723</v>
       </c>
       <c r="H146" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6315,7 +6307,7 @@
         <v>723</v>
       </c>
       <c r="H147" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6326,7 +6318,7 @@
         <v>177</v>
       </c>
       <c r="H148" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6334,13 +6326,13 @@
         <v>503</v>
       </c>
       <c r="B149" s="95" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C149" s="110" t="s">
         <v>255</v>
       </c>
       <c r="H149" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6351,7 +6343,7 @@
         <v>177</v>
       </c>
       <c r="H150" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6359,13 +6351,13 @@
         <v>311</v>
       </c>
       <c r="B151" s="95" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C151" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H151" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6373,13 +6365,13 @@
         <v>314</v>
       </c>
       <c r="B152" s="95" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C152" s="74" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H152" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6387,13 +6379,13 @@
         <v>315</v>
       </c>
       <c r="B153" s="133" t="s">
-        <v>762</v>
+        <v>847</v>
       </c>
       <c r="C153" s="70" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H153" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6401,13 +6393,13 @@
         <v>318</v>
       </c>
       <c r="B154" s="133" t="s">
-        <v>762</v>
+        <v>847</v>
       </c>
       <c r="C154" s="133" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H154" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6418,7 +6410,7 @@
         <v>261</v>
       </c>
       <c r="H155" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6426,13 +6418,13 @@
         <v>430</v>
       </c>
       <c r="B156" s="95" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C156" s="74" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H156" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6440,13 +6432,13 @@
         <v>312</v>
       </c>
       <c r="B157" s="115" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C157" s="113" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H157" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6457,7 +6449,7 @@
         <v>723</v>
       </c>
       <c r="H158" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6465,13 +6457,13 @@
         <v>317</v>
       </c>
       <c r="B159" s="70" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C159" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H159" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6482,7 +6474,7 @@
         <v>723</v>
       </c>
       <c r="H160" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6493,7 +6485,7 @@
         <v>177</v>
       </c>
       <c r="H161" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6507,7 +6499,7 @@
         <v>741</v>
       </c>
       <c r="H162" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6515,10 +6507,10 @@
         <v>323</v>
       </c>
       <c r="B163" s="113" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="H163" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6526,13 +6518,13 @@
         <v>510</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C164" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H164" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6546,18 +6538,18 @@
         <v>741</v>
       </c>
       <c r="H165" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B166" s="95" t="s">
-        <v>790</v>
+      <c r="B166" s="133" t="s">
+        <v>893</v>
       </c>
       <c r="H166" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6565,24 +6557,24 @@
         <v>327</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C167" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H167" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B168" s="95" t="s">
-        <v>791</v>
+      <c r="B168" s="133" t="s">
+        <v>895</v>
       </c>
       <c r="H168" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6593,7 +6585,7 @@
         <v>263</v>
       </c>
       <c r="H169" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6604,7 +6596,7 @@
         <v>747</v>
       </c>
       <c r="H170" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6618,7 +6610,7 @@
         <v>742</v>
       </c>
       <c r="H171" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6626,13 +6618,13 @@
         <v>431</v>
       </c>
       <c r="B172" s="115" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C172" s="95" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H172" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6643,7 +6635,7 @@
         <v>177</v>
       </c>
       <c r="H173" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6654,7 +6646,7 @@
         <v>723</v>
       </c>
       <c r="H174" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6662,10 +6654,10 @@
         <v>342</v>
       </c>
       <c r="B175" s="95" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="H175" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6676,7 +6668,7 @@
         <v>723</v>
       </c>
       <c r="H176" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6687,7 +6679,7 @@
         <v>177</v>
       </c>
       <c r="H177" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6698,10 +6690,10 @@
         <v>262</v>
       </c>
       <c r="C178" s="95" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H178" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6712,7 +6704,7 @@
         <v>177</v>
       </c>
       <c r="H179" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6720,10 +6712,10 @@
         <v>347</v>
       </c>
       <c r="B180" s="95" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H180" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6731,10 +6723,10 @@
         <v>348</v>
       </c>
       <c r="B181" s="95" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="H181" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6742,13 +6734,13 @@
         <v>349</v>
       </c>
       <c r="B182" s="74" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C182" s="74" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H182" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6759,7 +6751,7 @@
         <v>177</v>
       </c>
       <c r="H183" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6767,10 +6759,10 @@
         <v>351</v>
       </c>
       <c r="B184" s="95" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="H184" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6778,16 +6770,16 @@
         <v>352</v>
       </c>
       <c r="B185" s="70" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C185" s="95" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D185" s="110" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="H185" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6795,16 +6787,16 @@
         <v>354</v>
       </c>
       <c r="B186" s="95" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C186" s="95" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="D186" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H186" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6812,11 +6804,11 @@
         <v>355</v>
       </c>
       <c r="B187" s="96" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C187" s="70"/>
       <c r="H187" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6827,7 +6819,7 @@
         <v>177</v>
       </c>
       <c r="H188" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6841,21 +6833,21 @@
         <v>741</v>
       </c>
       <c r="H189" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="B190" s="113" t="s">
-        <v>775</v>
+      <c r="B190" s="133" t="s">
+        <v>770</v>
       </c>
       <c r="C190" s="70" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="H190" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6867,7 +6859,7 @@
       </c>
       <c r="C191" s="70"/>
       <c r="H191" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6875,10 +6867,10 @@
         <v>433</v>
       </c>
       <c r="B192" s="95" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="H192" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6889,10 +6881,10 @@
         <v>262</v>
       </c>
       <c r="C193" s="95" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H193" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6903,7 +6895,7 @@
         <v>723</v>
       </c>
       <c r="H194" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6911,7 +6903,7 @@
         <v>580</v>
       </c>
       <c r="B195" s="70" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C195" s="91"/>
       <c r="D195" s="91"/>
@@ -6919,7 +6911,7 @@
       <c r="F195" s="91"/>
       <c r="G195" s="91"/>
       <c r="H195" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6927,13 +6919,13 @@
         <v>434</v>
       </c>
       <c r="B196" s="95" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C196" s="110" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="H196" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6944,10 +6936,10 @@
         <v>735</v>
       </c>
       <c r="C197" s="110" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="H197" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6955,13 +6947,13 @@
         <v>436</v>
       </c>
       <c r="B198" s="95" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C198" s="110" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H198" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6969,16 +6961,16 @@
         <v>437</v>
       </c>
       <c r="B199" s="70" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C199" s="95" t="s">
         <v>737</v>
       </c>
       <c r="D199" s="110" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H199" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="91" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6994,7 +6986,7 @@
       <c r="F200" s="95"/>
       <c r="G200" s="95"/>
       <c r="H200" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7002,16 +6994,16 @@
         <v>493</v>
       </c>
       <c r="B201" s="95" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C201" s="95" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D201" s="95" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E201" s="95" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="F201" s="90" t="s">
         <v>440</v>
@@ -7020,7 +7012,7 @@
         <v>723</v>
       </c>
       <c r="H201" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7031,13 +7023,13 @@
         <v>442</v>
       </c>
       <c r="C202" s="95" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D202" s="70" t="s">
         <v>724</v>
       </c>
       <c r="H202" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7048,10 +7040,10 @@
         <v>752</v>
       </c>
       <c r="C203" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H203" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7059,14 +7051,14 @@
         <v>444</v>
       </c>
       <c r="B204" s="95" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C204" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="E204" s="70"/>
       <c r="H204" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7074,13 +7066,13 @@
         <v>445</v>
       </c>
       <c r="B205" s="113" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C205" s="113" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="H205" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7088,22 +7080,22 @@
         <v>569</v>
       </c>
       <c r="B206" s="95" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C206" s="95" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D206" s="95" t="s">
         <v>753</v>
       </c>
       <c r="E206" s="95" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F206" s="110" t="s">
         <v>260</v>
       </c>
       <c r="H206" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7114,16 +7106,16 @@
         <v>260</v>
       </c>
       <c r="C207" s="95" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D207" s="95" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E207" s="95" t="s">
         <v>753</v>
       </c>
       <c r="H207" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7137,7 +7129,7 @@
         <v>733</v>
       </c>
       <c r="H208" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7145,19 +7137,19 @@
         <v>566</v>
       </c>
       <c r="B209" s="95" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C209" s="95" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="D209" s="95" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="E209" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H209" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7168,15 +7160,15 @@
         <v>723</v>
       </c>
       <c r="H210" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="95" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="H211" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7184,16 +7176,16 @@
         <v>446</v>
       </c>
       <c r="B212" s="133" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C212" s="113" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D212" s="113" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="H212" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7204,11 +7196,11 @@
         <v>449</v>
       </c>
       <c r="C213" s="95" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D213" s="89"/>
       <c r="H213" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7219,10 +7211,10 @@
         <v>483</v>
       </c>
       <c r="C214" s="70" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="H214" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7230,16 +7222,16 @@
         <v>451</v>
       </c>
       <c r="B215" s="133" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C215" s="95" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D215" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H215" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7247,14 +7239,14 @@
         <v>565</v>
       </c>
       <c r="B216" s="95" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C216" s="110" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="E216" s="78"/>
       <c r="H216" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7265,10 +7257,10 @@
         <v>262</v>
       </c>
       <c r="C217" s="78" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H217" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7283,7 +7275,7 @@
       </c>
       <c r="G218" s="80"/>
       <c r="H218" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7298,7 +7290,7 @@
       </c>
       <c r="D219" s="80"/>
       <c r="H219" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7306,31 +7298,31 @@
         <v>562</v>
       </c>
       <c r="B220" s="95" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C220" s="95" t="s">
         <v>739</v>
       </c>
       <c r="D220" s="110" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F220" s="78"/>
       <c r="H220" s="118" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="95" t="s">
         <v>561</v>
       </c>
       <c r="B221" s="95" t="s">
         <v>753</v>
       </c>
-      <c r="C221" s="111" t="s">
-        <v>757</v>
+      <c r="C221" s="136" t="s">
+        <v>900</v>
       </c>
       <c r="H221" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7341,13 +7333,13 @@
         <v>739</v>
       </c>
       <c r="C222" s="95" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D222" s="110" t="s">
         <v>256</v>
       </c>
       <c r="H222" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7355,10 +7347,10 @@
         <v>455</v>
       </c>
       <c r="B223" s="95" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="H223" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7366,13 +7358,13 @@
         <v>456</v>
       </c>
       <c r="B224" s="95" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C224" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H224" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7386,7 +7378,7 @@
         <v>723</v>
       </c>
       <c r="H225" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7394,13 +7386,13 @@
         <v>458</v>
       </c>
       <c r="B226" s="95" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C226" s="110" t="s">
         <v>259</v>
       </c>
       <c r="H226" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7411,7 +7403,7 @@
         <v>723</v>
       </c>
       <c r="H227" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7419,13 +7411,13 @@
         <v>460</v>
       </c>
       <c r="B228" s="95" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C228" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H228" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7433,13 +7425,13 @@
         <v>461</v>
       </c>
       <c r="B229" s="95" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C229" s="95" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="H229" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7447,16 +7439,16 @@
         <v>462</v>
       </c>
       <c r="B230" s="95" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C230" s="95" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D230" s="110" t="s">
         <v>259</v>
       </c>
       <c r="H230" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7470,7 +7462,7 @@
         <v>464</v>
       </c>
       <c r="H231" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7481,10 +7473,10 @@
         <v>260</v>
       </c>
       <c r="C232" s="70" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D232" s="70" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E232" s="95" t="s">
         <v>753</v>
@@ -7492,7 +7484,7 @@
       <c r="F232" s="70"/>
       <c r="G232" s="70"/>
       <c r="H232" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7500,13 +7492,13 @@
         <v>560</v>
       </c>
       <c r="B233" s="95" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C233" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H233" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7517,10 +7509,10 @@
         <v>439</v>
       </c>
       <c r="C234" s="95" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="H234" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7528,13 +7520,13 @@
         <v>557</v>
       </c>
       <c r="B235" s="70" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C235" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H235" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7545,10 +7537,10 @@
         <v>743</v>
       </c>
       <c r="C236" s="110" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="H236" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7556,13 +7548,13 @@
         <v>655</v>
       </c>
       <c r="B237" s="98" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C237" s="110" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="H237" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7570,13 +7562,13 @@
         <v>487</v>
       </c>
       <c r="B238" s="98" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C238" s="110" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="H238" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7584,7 +7576,7 @@
         <v>489</v>
       </c>
       <c r="B239" s="95" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C239" s="95" t="s">
         <v>724</v>
@@ -7593,7 +7585,7 @@
         <v>442</v>
       </c>
       <c r="H239" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7601,13 +7593,13 @@
         <v>488</v>
       </c>
       <c r="B240" s="98" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C240" s="110" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="H240" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7618,10 +7610,10 @@
         <v>752</v>
       </c>
       <c r="C241" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H241" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7632,10 +7624,10 @@
         <v>752</v>
       </c>
       <c r="C242" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H242" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7643,16 +7635,16 @@
         <v>526</v>
       </c>
       <c r="B243" s="70" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="C243" s="70" t="s">
         <v>752</v>
       </c>
       <c r="D243" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H243" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7669,7 +7661,7 @@
         <v>442</v>
       </c>
       <c r="H244" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7680,11 +7672,11 @@
         <v>752</v>
       </c>
       <c r="C245" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D245" s="110"/>
       <c r="H245" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7698,7 +7690,7 @@
         <v>723</v>
       </c>
       <c r="H246" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7706,16 +7698,16 @@
         <v>523</v>
       </c>
       <c r="B247" s="133" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C247" s="70" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D247" s="110" t="s">
         <v>439</v>
       </c>
       <c r="H247" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7723,16 +7715,16 @@
         <v>522</v>
       </c>
       <c r="B248" s="97" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C248" s="99" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D248" s="110" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="H248" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7740,22 +7732,22 @@
         <v>521</v>
       </c>
       <c r="B249" s="70" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C249" s="70" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D249" s="70" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E249" s="70" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="F249" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H249" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7763,19 +7755,19 @@
         <v>494</v>
       </c>
       <c r="B250" s="70" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C250" s="70" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D250" s="70" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E250" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H250" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7789,7 +7781,7 @@
       <c r="D251" s="70"/>
       <c r="E251" s="70"/>
       <c r="H251" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7801,7 +7793,7 @@
       <c r="D252" s="70"/>
       <c r="E252" s="70"/>
       <c r="H252" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7809,15 +7801,15 @@
         <v>496</v>
       </c>
       <c r="B253" s="70" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="C253" s="70" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D253" s="70"/>
       <c r="E253" s="70"/>
       <c r="H253" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7833,7 +7825,7 @@
       <c r="D254" s="70"/>
       <c r="E254" s="70"/>
       <c r="H254" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7841,33 +7833,33 @@
         <v>497</v>
       </c>
       <c r="B255" s="70" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C255" s="70" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D255" s="110" t="s">
         <v>723</v>
       </c>
       <c r="E255" s="70"/>
       <c r="H255" s="118" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="70" t="s">
         <v>498</v>
       </c>
       <c r="B256" s="70" t="s">
         <v>753</v>
       </c>
-      <c r="C256" s="111" t="s">
-        <v>757</v>
+      <c r="C256" s="136" t="s">
+        <v>900</v>
       </c>
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
       <c r="H256" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7881,7 +7873,7 @@
       <c r="D257" s="70"/>
       <c r="E257" s="70"/>
       <c r="H257" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7889,17 +7881,17 @@
         <v>500</v>
       </c>
       <c r="B258" s="70" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C258" s="70" t="s">
         <v>737</v>
       </c>
       <c r="D258" s="110" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E258" s="70"/>
       <c r="H258" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7907,15 +7899,15 @@
         <v>501</v>
       </c>
       <c r="B259" s="115" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C259" s="70" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
       <c r="H259" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7923,13 +7915,13 @@
         <v>502</v>
       </c>
       <c r="B260" s="70" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C260" s="70"/>
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
       <c r="H260" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7937,15 +7929,15 @@
         <v>511</v>
       </c>
       <c r="B261" s="70" t="s">
-        <v>830</v>
-      </c>
-      <c r="C261" s="111" t="s">
-        <v>831</v>
+        <v>823</v>
+      </c>
+      <c r="C261" s="136" t="s">
+        <v>874</v>
       </c>
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
       <c r="H261" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7956,12 +7948,12 @@
         <v>512</v>
       </c>
       <c r="C262" s="70" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
       <c r="H262" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7972,16 +7964,16 @@
         <v>483</v>
       </c>
       <c r="C263" s="70" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D263" s="70" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E263" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H263" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7989,7 +7981,7 @@
         <v>514</v>
       </c>
       <c r="B264" s="70" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="C264" s="70" t="s">
         <v>723</v>
@@ -7997,7 +7989,7 @@
       <c r="D264" s="70"/>
       <c r="E264" s="70"/>
       <c r="H264" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8005,19 +7997,19 @@
         <v>516</v>
       </c>
       <c r="B265" s="70" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="C265" s="70" t="s">
         <v>732</v>
       </c>
       <c r="D265" s="70" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="E265" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H265" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8031,7 +8023,7 @@
       <c r="D266" s="70"/>
       <c r="E266" s="70"/>
       <c r="H266" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8039,17 +8031,17 @@
         <v>530</v>
       </c>
       <c r="B267" s="133" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C267" s="70" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D267" s="70" t="s">
         <v>481</v>
       </c>
       <c r="E267" s="70"/>
       <c r="H267" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8057,15 +8049,15 @@
         <v>215</v>
       </c>
       <c r="B268" s="70" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C268" s="74" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D268" s="70"/>
       <c r="E268" s="70"/>
       <c r="H268" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8081,7 +8073,7 @@
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
       <c r="H269" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8095,13 +8087,13 @@
         <v>735</v>
       </c>
       <c r="D270" s="133" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="E270" s="70" t="s">
-        <v>835</v>
+        <v>896</v>
       </c>
       <c r="H270" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8112,30 +8104,30 @@
         <v>452</v>
       </c>
       <c r="C271" s="70" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D271" s="70" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="E271" s="70"/>
       <c r="H271" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="70" t="s">
         <v>552</v>
       </c>
-      <c r="B272" s="70" t="s">
-        <v>762</v>
+      <c r="B272" s="133" t="s">
+        <v>847</v>
       </c>
       <c r="C272" s="70" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D272" s="70"/>
       <c r="E272" s="70"/>
       <c r="H272" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8143,17 +8135,17 @@
         <v>704</v>
       </c>
       <c r="B273" s="133" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C273" s="113" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D273" s="70" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="E273" s="70"/>
       <c r="H273" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8161,19 +8153,19 @@
         <v>551</v>
       </c>
       <c r="B274" s="133" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C274" s="113" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D274" s="70" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="E274" s="70" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="H274" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8181,15 +8173,15 @@
         <v>550</v>
       </c>
       <c r="B275" s="70" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C275" s="74" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D275" s="70"/>
       <c r="E275" s="70"/>
       <c r="H275" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8197,7 +8189,7 @@
         <v>537</v>
       </c>
       <c r="B276" s="70" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C276" s="70" t="s">
         <v>723</v>
@@ -8205,7 +8197,7 @@
       <c r="D276" s="70"/>
       <c r="E276" s="70"/>
       <c r="H276" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8219,7 +8211,7 @@
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
       <c r="H277" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8233,7 +8225,7 @@
       <c r="D278" s="70"/>
       <c r="E278" s="70"/>
       <c r="H278" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8241,17 +8233,17 @@
         <v>589</v>
       </c>
       <c r="B279" s="70" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C279" s="70" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="D279" s="110" t="s">
         <v>684</v>
       </c>
       <c r="E279" s="70"/>
       <c r="H279" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8259,15 +8251,15 @@
         <v>536</v>
       </c>
       <c r="B280" s="70" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C280" s="110" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
       <c r="H280" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8278,12 +8270,12 @@
         <v>439</v>
       </c>
       <c r="C281" s="70" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
       <c r="H281" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8291,17 +8283,17 @@
         <v>548</v>
       </c>
       <c r="B282" s="70" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C282" s="70" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D282" s="70" t="s">
         <v>439</v>
       </c>
       <c r="E282" s="70"/>
       <c r="H282" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8309,15 +8301,15 @@
         <v>553</v>
       </c>
       <c r="B283" s="70" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="C283" s="110" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="D283" s="70"/>
       <c r="E283" s="70"/>
       <c r="H283" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8325,17 +8317,17 @@
         <v>546</v>
       </c>
       <c r="B284" s="70" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C284" s="70" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D284" s="70" t="s">
         <v>439</v>
       </c>
       <c r="E284" s="70"/>
       <c r="H284" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8343,7 +8335,7 @@
         <v>547</v>
       </c>
       <c r="B285" s="133" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C285" s="70" t="s">
         <v>439</v>
@@ -8351,7 +8343,7 @@
       <c r="D285" s="70"/>
       <c r="E285" s="70"/>
       <c r="H285" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8362,12 +8354,12 @@
         <v>452</v>
       </c>
       <c r="C286" s="70" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D286" s="70"/>
       <c r="E286" s="70"/>
       <c r="H286" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8383,7 +8375,7 @@
       <c r="F287" s="76"/>
       <c r="G287" s="76"/>
       <c r="H287" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8399,7 +8391,7 @@
       <c r="D288" s="70"/>
       <c r="E288" s="70"/>
       <c r="H288" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8415,27 +8407,27 @@
       <c r="D289" s="70"/>
       <c r="E289" s="70"/>
       <c r="H289" s="118" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="70" t="s">
         <v>541</v>
       </c>
       <c r="B290" s="70" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C290" s="70" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D290" s="70" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E290" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H290" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8443,7 +8435,7 @@
         <v>582</v>
       </c>
       <c r="B291" s="70" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="C291" s="70" t="s">
         <v>723</v>
@@ -8451,7 +8443,7 @@
       <c r="D291" s="70"/>
       <c r="E291" s="70"/>
       <c r="H291" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8459,7 +8451,7 @@
         <v>540</v>
       </c>
       <c r="B292" s="70" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C292" s="70" t="s">
         <v>723</v>
@@ -8467,7 +8459,7 @@
       <c r="D292" s="70"/>
       <c r="E292" s="70"/>
       <c r="H292" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8475,13 +8467,13 @@
         <v>178</v>
       </c>
       <c r="B293" s="70" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C293" s="133" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="H293" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8489,24 +8481,24 @@
         <v>491</v>
       </c>
       <c r="B294" s="70" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C294" s="133" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="H294" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="B295" s="95" t="s">
-        <v>844</v>
+      <c r="B295" s="133" t="s">
+        <v>897</v>
       </c>
       <c r="H295" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8514,13 +8506,13 @@
         <v>329</v>
       </c>
       <c r="B296" s="95" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="C296" s="95" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="H296" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8528,13 +8520,13 @@
         <v>324</v>
       </c>
       <c r="B297" s="95" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="C297" s="95" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="H297" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8542,13 +8534,13 @@
         <v>353</v>
       </c>
       <c r="B298" s="95" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="C298" s="95" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="H298" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8556,16 +8548,16 @@
         <v>601</v>
       </c>
       <c r="B299" s="95" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C299" s="95" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D299" s="95" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="H299" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8573,13 +8565,13 @@
         <v>447</v>
       </c>
       <c r="B300" s="70" t="s">
-        <v>848</v>
+        <v>898</v>
       </c>
       <c r="C300" s="89" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="H300" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8590,16 +8582,16 @@
         <v>743</v>
       </c>
       <c r="C301" s="70" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D301" s="95" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="E301" s="95" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="H301" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8607,16 +8599,16 @@
         <v>524</v>
       </c>
       <c r="B302" s="70" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C302" s="70" t="s">
         <v>751</v>
       </c>
       <c r="D302" s="134" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="H302" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8632,7 +8624,7 @@
       <c r="D303" s="70"/>
       <c r="E303" s="70"/>
       <c r="H303" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8643,12 +8635,12 @@
         <v>259</v>
       </c>
       <c r="C304" s="70" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D304" s="70"/>
       <c r="E304" s="70"/>
       <c r="H304" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8656,10 +8648,10 @@
         <v>570</v>
       </c>
       <c r="B305" s="95" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="H305" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8673,7 +8665,7 @@
         <v>733</v>
       </c>
       <c r="H306" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8681,16 +8673,16 @@
         <v>572</v>
       </c>
       <c r="B307" s="133" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C307" s="95" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D307" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H307" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8698,13 +8690,13 @@
         <v>573</v>
       </c>
       <c r="B308" s="74" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C308" s="74" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H308" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8715,7 +8707,7 @@
         <v>750</v>
       </c>
       <c r="H309" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8723,13 +8715,13 @@
         <v>575</v>
       </c>
       <c r="B310" s="95" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C310" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H310" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8737,28 +8729,28 @@
         <v>576</v>
       </c>
       <c r="B311" s="117" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C311" s="117" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D311" s="97"/>
       <c r="H311" s="118" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="70" t="s">
         <v>577</v>
       </c>
       <c r="B312" s="117" t="s">
-        <v>833</v>
-      </c>
-      <c r="C312" s="113" t="s">
-        <v>846</v>
+        <v>826</v>
+      </c>
+      <c r="C312" s="136" t="s">
+        <v>900</v>
       </c>
       <c r="H312" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8766,10 +8758,10 @@
         <v>578</v>
       </c>
       <c r="B313" s="97" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="H313" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8780,10 +8772,10 @@
         <v>730</v>
       </c>
       <c r="C314" s="95" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="H314" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8791,13 +8783,13 @@
         <v>581</v>
       </c>
       <c r="B315" s="95" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="C315" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H315" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8805,13 +8797,13 @@
         <v>583</v>
       </c>
       <c r="B316" s="95" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="C316" s="110" t="s">
         <v>741</v>
       </c>
       <c r="H316" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8819,13 +8811,13 @@
         <v>584</v>
       </c>
       <c r="B317" s="95" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="C317" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="H317" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8833,13 +8825,13 @@
         <v>718</v>
       </c>
       <c r="B318" s="95" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="C318" s="95" t="s">
         <v>741</v>
       </c>
       <c r="H318" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8847,13 +8839,13 @@
         <v>717</v>
       </c>
       <c r="B319" s="95" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="C319" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H319" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8864,10 +8856,10 @@
         <v>590</v>
       </c>
       <c r="C320" s="70" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="H320" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8881,7 +8873,7 @@
         <v>464</v>
       </c>
       <c r="H321" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8889,10 +8881,10 @@
         <v>642</v>
       </c>
       <c r="B322" s="95" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H322" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8900,13 +8892,13 @@
         <v>591</v>
       </c>
       <c r="B323" s="95" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C323" s="74" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H323" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8917,7 +8909,7 @@
         <v>177</v>
       </c>
       <c r="H324" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8925,16 +8917,16 @@
         <v>593</v>
       </c>
       <c r="B325" s="133" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C325" s="70" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D325" s="70" t="s">
         <v>481</v>
       </c>
       <c r="H325" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8942,13 +8934,13 @@
         <v>594</v>
       </c>
       <c r="B326" s="95" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C326" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H326" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8959,13 +8951,13 @@
         <v>442</v>
       </c>
       <c r="C327" s="95" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D327" s="95" t="s">
         <v>724</v>
       </c>
       <c r="H327" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8976,10 +8968,10 @@
         <v>743</v>
       </c>
       <c r="C328" s="110" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H328" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8987,21 +8979,21 @@
         <v>597</v>
       </c>
       <c r="B329" s="113" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="H329" s="118" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="70" t="s">
         <v>598</v>
       </c>
-      <c r="B330" s="95" t="s">
-        <v>857</v>
+      <c r="B330" s="135" t="s">
+        <v>891</v>
       </c>
       <c r="H330" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9015,7 +9007,7 @@
         <v>464</v>
       </c>
       <c r="H331" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9023,16 +9015,16 @@
         <v>600</v>
       </c>
       <c r="B332" s="95" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="C332" s="95" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D332" s="110" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="H332" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9043,10 +9035,10 @@
         <v>752</v>
       </c>
       <c r="C333" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H333" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9058,7 +9050,7 @@
       </c>
       <c r="C334" s="98"/>
       <c r="H334" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9069,7 +9061,7 @@
         <v>177</v>
       </c>
       <c r="H335" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9080,7 +9072,7 @@
         <v>261</v>
       </c>
       <c r="H336" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9088,13 +9080,13 @@
         <v>606</v>
       </c>
       <c r="B337" s="95" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C337" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H337" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9102,10 +9094,10 @@
         <v>607</v>
       </c>
       <c r="B338" s="95" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="H338" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -9113,13 +9105,13 @@
         <v>608</v>
       </c>
       <c r="B339" s="95" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C339" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H339" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9127,13 +9119,13 @@
         <v>609</v>
       </c>
       <c r="B340" s="95" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C340" s="95" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="H340" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9147,7 +9139,7 @@
         <v>659</v>
       </c>
       <c r="H341" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9155,13 +9147,13 @@
         <v>611</v>
       </c>
       <c r="B342" s="70" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C342" s="133" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="H342" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9169,16 +9161,16 @@
         <v>612</v>
       </c>
       <c r="B343" s="97" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="C343" s="97" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D343" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H343" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9192,27 +9184,27 @@
         <v>735</v>
       </c>
       <c r="D344" s="95" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="H344" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="97" t="s">
         <v>613</v>
       </c>
-      <c r="B345" s="97" t="s">
-        <v>854</v>
+      <c r="B345" s="135" t="s">
+        <v>891</v>
       </c>
       <c r="C345" s="97" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D345" s="97" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="H345" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9220,30 +9212,30 @@
         <v>614</v>
       </c>
       <c r="B346" s="95" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C346" s="95" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D346" s="97" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="H346" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="70" t="s">
         <v>615</v>
       </c>
-      <c r="B347" s="95" t="s">
-        <v>863</v>
-      </c>
-      <c r="C347" s="95" t="s">
-        <v>864</v>
+      <c r="B347" s="133" t="s">
+        <v>894</v>
+      </c>
+      <c r="C347" s="133" t="s">
+        <v>852</v>
       </c>
       <c r="H347" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9251,13 +9243,13 @@
         <v>616</v>
       </c>
       <c r="B348" s="95" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="C348" s="95" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="H348" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9268,7 +9260,7 @@
         <v>618</v>
       </c>
       <c r="H349" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9276,10 +9268,10 @@
         <v>619</v>
       </c>
       <c r="B350" s="113" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="H350" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9287,13 +9279,13 @@
         <v>622</v>
       </c>
       <c r="B351" s="133" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C351" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H351" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9301,13 +9293,13 @@
         <v>623</v>
       </c>
       <c r="B352" s="133" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C352" s="95" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="H352" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9321,7 +9313,7 @@
         <v>741</v>
       </c>
       <c r="H353" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9329,13 +9321,13 @@
         <v>627</v>
       </c>
       <c r="B354" s="113" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="C354" s="113" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="H354" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9346,7 +9338,7 @@
         <v>261</v>
       </c>
       <c r="H355" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9357,7 +9349,7 @@
         <v>618</v>
       </c>
       <c r="H356" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9368,13 +9360,13 @@
         <v>452</v>
       </c>
       <c r="C357" s="70" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D357" s="70" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="H357" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9385,7 +9377,7 @@
         <v>177</v>
       </c>
       <c r="H358" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9396,7 +9388,7 @@
         <v>723</v>
       </c>
       <c r="H359" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9404,13 +9396,13 @@
         <v>636</v>
       </c>
       <c r="B360" s="95" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C360" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H360" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9424,7 +9416,7 @@
         <v>512</v>
       </c>
       <c r="H361" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9432,13 +9424,13 @@
         <v>638</v>
       </c>
       <c r="B362" s="95" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C362" s="110" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="H362" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9446,16 +9438,16 @@
         <v>639</v>
       </c>
       <c r="B363" s="95" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="C363" s="97" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="D363" s="74" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H363" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9469,7 +9461,7 @@
         <v>726</v>
       </c>
       <c r="H364" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9477,14 +9469,14 @@
         <v>719</v>
       </c>
       <c r="B365" s="115" t="s">
-        <v>887</v>
-      </c>
-      <c r="C365" t="s">
-        <v>872</v>
+        <v>874</v>
+      </c>
+      <c r="C365" s="95" t="s">
+        <v>860</v>
       </c>
       <c r="D365" s="112"/>
       <c r="H365" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9492,17 +9484,17 @@
         <v>657</v>
       </c>
       <c r="B366" s="95" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C366" s="70" t="s">
         <v>753</v>
       </c>
       <c r="D366" s="111" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="E366" s="70"/>
       <c r="H366" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9510,13 +9502,13 @@
         <v>640</v>
       </c>
       <c r="B367" s="95" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="C367" s="95" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="H367" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9531,7 +9523,7 @@
       </c>
       <c r="D368" s="89"/>
       <c r="H368" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9545,7 +9537,7 @@
         <v>464</v>
       </c>
       <c r="H369" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9559,7 +9551,7 @@
         <v>723</v>
       </c>
       <c r="H370" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9567,13 +9559,13 @@
         <v>644</v>
       </c>
       <c r="B371" s="89" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C371" s="110" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="H371" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9581,16 +9573,16 @@
         <v>465</v>
       </c>
       <c r="B372" s="95" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C372" s="95" t="s">
         <v>753</v>
       </c>
       <c r="D372" s="111" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="H372" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9605,7 +9597,7 @@
       </c>
       <c r="D373" s="89"/>
       <c r="H373" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9613,16 +9605,16 @@
         <v>648</v>
       </c>
       <c r="B374" s="95" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C374" s="95" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="D374" s="111" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="H374" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9630,10 +9622,10 @@
         <v>649</v>
       </c>
       <c r="B375" s="95" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="H375" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9641,13 +9633,13 @@
         <v>650</v>
       </c>
       <c r="B376" s="97" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="C376" s="97" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="H376" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9655,10 +9647,10 @@
         <v>5</v>
       </c>
       <c r="B377" s="95" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="H377" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9673,7 +9665,7 @@
       <c r="E378" s="79"/>
       <c r="F378" s="79"/>
       <c r="H378" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9684,7 +9676,7 @@
         <v>259</v>
       </c>
       <c r="H379" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9695,7 +9687,7 @@
         <v>261</v>
       </c>
       <c r="H380" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9709,7 +9701,7 @@
         <v>464</v>
       </c>
       <c r="H381" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9717,16 +9709,16 @@
         <v>358</v>
       </c>
       <c r="B382" s="113" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="C382" s="70" t="s">
         <v>724</v>
       </c>
       <c r="D382" s="113" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H382" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9734,15 +9726,15 @@
         <v>656</v>
       </c>
       <c r="B383" s="70" t="s">
-        <v>879</v>
-      </c>
-      <c r="C383" s="111" t="s">
-        <v>831</v>
+        <v>867</v>
+      </c>
+      <c r="C383" s="136" t="s">
+        <v>874</v>
       </c>
       <c r="D383" s="111"/>
       <c r="E383" s="70"/>
       <c r="H383" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9750,17 +9742,17 @@
         <v>519</v>
       </c>
       <c r="B384" s="95" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="C384" s="70" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D384" s="110" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="E384" s="70"/>
       <c r="H384" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9768,16 +9760,16 @@
         <v>518</v>
       </c>
       <c r="B385" s="95" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C385" s="70" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="D385" s="111" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="H385" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9785,42 +9777,42 @@
         <v>654</v>
       </c>
       <c r="B386" s="95" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="C386" s="110" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="H386" s="118" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" s="70" t="s">
         <v>629</v>
       </c>
       <c r="B387" s="95" t="s">
-        <v>756</v>
-      </c>
-      <c r="C387" s="111" t="s">
-        <v>757</v>
+        <v>755</v>
+      </c>
+      <c r="C387" s="136" t="s">
+        <v>900</v>
       </c>
       <c r="H387" s="118" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="70" t="s">
         <v>660</v>
       </c>
       <c r="B388" s="95" t="s">
         <v>753</v>
       </c>
-      <c r="C388" s="111" t="s">
-        <v>757</v>
+      <c r="C388" s="136" t="s">
+        <v>900</v>
       </c>
       <c r="D388" s="89"/>
       <c r="H388" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9828,13 +9820,13 @@
         <v>647</v>
       </c>
       <c r="B389" s="74" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C389" s="74" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H389" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9842,15 +9834,15 @@
         <v>661</v>
       </c>
       <c r="B390" s="115" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C390" s="70" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D390" s="101"/>
       <c r="E390" s="101"/>
       <c r="H390" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9861,7 +9853,7 @@
         <v>177</v>
       </c>
       <c r="H391" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9872,7 +9864,7 @@
         <v>723</v>
       </c>
       <c r="H392" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9883,10 +9875,10 @@
         <v>512</v>
       </c>
       <c r="C393" s="70" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="H393" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9900,7 +9892,7 @@
         <v>741</v>
       </c>
       <c r="H394" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9908,13 +9900,13 @@
         <v>668</v>
       </c>
       <c r="B395" s="133" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C395" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H395" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9922,13 +9914,13 @@
         <v>670</v>
       </c>
       <c r="B396" s="133" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C396" s="95" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="H396" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9945,7 +9937,7 @@
         <v>738</v>
       </c>
       <c r="H397" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9959,7 +9951,7 @@
         <v>738</v>
       </c>
       <c r="H398" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9967,10 +9959,10 @@
         <v>673</v>
       </c>
       <c r="B399" s="101" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="H399" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9978,13 +9970,13 @@
         <v>674</v>
       </c>
       <c r="B400" s="95" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C400" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H400" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9995,7 +9987,7 @@
         <v>723</v>
       </c>
       <c r="H401" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10006,7 +9998,7 @@
         <v>256</v>
       </c>
       <c r="H402" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10017,7 +10009,7 @@
         <v>744</v>
       </c>
       <c r="H403" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10025,16 +10017,16 @@
         <v>678</v>
       </c>
       <c r="B404" s="95" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C404" s="95" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D404" s="95" t="s">
         <v>731</v>
       </c>
       <c r="H404" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10042,13 +10034,13 @@
         <v>679</v>
       </c>
       <c r="B405" s="113" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C405" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="H405" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10059,14 +10051,14 @@
         <v>681</v>
       </c>
       <c r="C406" s="103" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D406" s="110" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F406" s="94"/>
       <c r="H406" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10077,7 +10069,7 @@
         <v>747</v>
       </c>
       <c r="H407" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10085,14 +10077,14 @@
         <v>201</v>
       </c>
       <c r="B408" s="74" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="C408" s="110" t="s">
         <v>745</v>
       </c>
       <c r="D408" s="70"/>
       <c r="H408" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10100,13 +10092,13 @@
         <v>202</v>
       </c>
       <c r="B409" s="74" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="C409" s="110" t="s">
         <v>745</v>
       </c>
       <c r="H409" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10114,13 +10106,13 @@
         <v>685</v>
       </c>
       <c r="B410" s="74" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="C410" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H410" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10128,13 +10120,13 @@
         <v>683</v>
       </c>
       <c r="B411" s="74" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="C411" s="74" t="s">
         <v>684</v>
       </c>
       <c r="H411" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10142,10 +10134,10 @@
         <v>686</v>
       </c>
       <c r="B412" s="74" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="H412" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10156,7 +10148,7 @@
         <v>259</v>
       </c>
       <c r="H413" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10167,7 +10159,7 @@
         <v>256</v>
       </c>
       <c r="H414" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10175,24 +10167,24 @@
         <v>690</v>
       </c>
       <c r="B415" s="95" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="C415" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H415" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="70" t="s">
         <v>693</v>
       </c>
-      <c r="B416" s="95" t="s">
-        <v>884</v>
+      <c r="B416" s="133" t="s">
+        <v>899</v>
       </c>
       <c r="H416" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10200,13 +10192,13 @@
         <v>697</v>
       </c>
       <c r="B417" s="70" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C417" s="74" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="H417" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10214,10 +10206,10 @@
         <v>698</v>
       </c>
       <c r="B418" s="74" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="H418" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10225,13 +10217,13 @@
         <v>699</v>
       </c>
       <c r="B419" s="74" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C419" s="74" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H419" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10239,13 +10231,13 @@
         <v>700</v>
       </c>
       <c r="B420" s="74" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="C420" s="74" t="s">
         <v>684</v>
       </c>
       <c r="H420" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10256,10 +10248,10 @@
         <v>684</v>
       </c>
       <c r="C421" s="95" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="H421" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10267,13 +10259,13 @@
         <v>702</v>
       </c>
       <c r="B422" s="74" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="C422" s="74" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="H422" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="423" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10281,13 +10273,13 @@
         <v>703</v>
       </c>
       <c r="B423" s="133" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C423" s="74" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H423" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10298,7 +10290,7 @@
         <v>177</v>
       </c>
       <c r="H424" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10306,13 +10298,13 @@
         <v>706</v>
       </c>
       <c r="B425" s="70" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C425" s="133" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="H425" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10326,7 +10318,7 @@
         <v>723</v>
       </c>
       <c r="H426" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10337,13 +10329,13 @@
         <v>262</v>
       </c>
       <c r="C427" s="107" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D427" s="95" t="s">
         <v>722</v>
       </c>
       <c r="H427" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10354,7 +10346,7 @@
         <v>723</v>
       </c>
       <c r="H428" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10362,7 +10354,7 @@
         <v>710</v>
       </c>
       <c r="B429" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="C429" s="70" t="s">
         <v>732</v>
@@ -10371,7 +10363,7 @@
         <v>731</v>
       </c>
       <c r="H429" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10382,7 +10374,7 @@
         <v>723</v>
       </c>
       <c r="H430" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="431" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10390,13 +10382,13 @@
         <v>712</v>
       </c>
       <c r="B431" s="74" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C431" s="110" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H431" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="432" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10410,7 +10402,7 @@
         <v>723</v>
       </c>
       <c r="H432" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10421,17 +10413,18 @@
         <v>713</v>
       </c>
       <c r="C433" s="110" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H433" s="118" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D433" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="C1:C433" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Статус (Local_Status)"/>
+        <filter val="General Платеж по кредиту (General_DIS)"/>
+        <filter val="General_Платеж по кредиту (General_DIS)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE356E30-4C9A-49F0-A329-6D93CF5771DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0151BB-40DF-4FAD-901C-2B539A180442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$C$1:$C$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$B$1:$B$433</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <customWorkbookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="899">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2381,18 +2381,12 @@
     <t>General Статус претензии (General_ClaimStat)</t>
   </si>
   <si>
-    <t>Без вопроса (General_Whithout_Question)</t>
-  </si>
-  <si>
     <t>Отменить перевод (Local_Cancel_Transfer_Payment)</t>
   </si>
   <si>
     <t>Лимиты (Local_Limits)</t>
   </si>
   <si>
-    <t>Лимит карты (General_CARD_LIMIT_UKD)</t>
-  </si>
-  <si>
     <t>Дебетовая карта (Local_Debit_Card)</t>
   </si>
   <si>
@@ -2402,15 +2396,9 @@
     <t>Кэшбэк (Local_Cashback)</t>
   </si>
   <si>
-    <t>General_Условия категорийного КБ (General_Categorical_CashBack)</t>
-  </si>
-  <si>
     <t>Комиссия (Local_Commission)</t>
   </si>
   <si>
-    <t>Бесконтактная оплата (General_Pay)</t>
-  </si>
-  <si>
     <t>General Оператор (General_Operator)</t>
   </si>
   <si>
@@ -2420,9 +2408,6 @@
     <t>Условия (Local_Conditions)</t>
   </si>
   <si>
-    <t>Запрос кодового слова (General_Codeword_request)</t>
-  </si>
-  <si>
     <t>General Закрытие счета (General_Account_Off)</t>
   </si>
   <si>
@@ -2435,9 +2420,6 @@
     <t>Активация (Local_Activate)</t>
   </si>
   <si>
-    <t>Заказ денег УКД (General_ZAKAZ_DENGI_UKD)</t>
-  </si>
-  <si>
     <t>Заказ денег УКД (Local_Zakaz_Dengi_UKD)</t>
   </si>
   <si>
@@ -2450,21 +2432,12 @@
     <t>Кредит наличными (Про платеж) (Local_DIS_Credit)</t>
   </si>
   <si>
-    <t>Платежные Стикеры (General_Payment_Stickers)</t>
-  </si>
-  <si>
     <t>Кредитная картаКредитка (Local_Credit_Card)</t>
   </si>
   <si>
     <t>Движение денежных средств (Local_Transactions)</t>
   </si>
   <si>
-    <t>Квитанция (General_Cheque)</t>
-  </si>
-  <si>
-    <t>Замена паспорта (General_PassportChange)</t>
-  </si>
-  <si>
     <t>Привязать номер (Local_Bind_Number)</t>
   </si>
   <si>
@@ -2720,9 +2693,6 @@
     <t>Перенести номер (Local_Number_Transfer)</t>
   </si>
   <si>
-    <t>General_Мобильный оператор связи Альфа-Банка «Альфа Мобайл» (General_MVNO)</t>
-  </si>
-  <si>
     <t>Экстренный вызов (Local_Emergency_Call)</t>
   </si>
   <si>
@@ -2783,9 +2753,6 @@
     <t>Рассрочка (Local_Installment)</t>
   </si>
   <si>
-    <t>Отмена доставки карты в отделение (General_Cancel_Card_Branch)</t>
-  </si>
-  <si>
     <t>General Банкоматы УКД (General_ATM_UKD)</t>
   </si>
   <si>
@@ -2864,9 +2831,6 @@
     <t>General Мобильный оператор связи Альфа-Банка «Альфа Мобайл» (General_MVNO)</t>
   </si>
   <si>
-    <t>Genera Курьерская доставка (General_Express_Delivery)</t>
-  </si>
-  <si>
     <t xml:space="preserve">General Подели (General_Podeli) </t>
   </si>
   <si>
@@ -2889,6 +2853,36 @@
   </si>
   <si>
     <t xml:space="preserve">General Платеж по кредиту (General_DIS) </t>
+  </si>
+  <si>
+    <t>General Квитанция (General_Cheque)</t>
+  </si>
+  <si>
+    <t>General Платежные Стикеры (General_Payment_Stickers)</t>
+  </si>
+  <si>
+    <t>General Отмена доставки карты в отделение (General_Cancel_Card_Branch)</t>
+  </si>
+  <si>
+    <t>Genera Лимит карты (General_CARD_LIMIT_UKD)</t>
+  </si>
+  <si>
+    <t>General Запрос кодового слова (General_Codeword_request)</t>
+  </si>
+  <si>
+    <t>General Замена паспорта (General_PassportChange)</t>
+  </si>
+  <si>
+    <t>General Заказ денег УКД (General_ZAKAZ_DENGI_UKD)</t>
+  </si>
+  <si>
+    <t>General Бесконтактная оплата (General_Pay)</t>
+  </si>
+  <si>
+    <t>General Условия категорийного КБ (General_Categorical_CashBack)</t>
+  </si>
+  <si>
+    <t>General Курьерская доставка (General_Express_Delivery)</t>
   </si>
 </sst>
 </file>
@@ -3659,8 +3653,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>491321</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>121207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3707,8 +3701,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>113453</xdr:rowOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>102567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3755,7 +3749,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>435</xdr:row>
       <xdr:rowOff>123848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3803,7 +3797,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>435</xdr:row>
       <xdr:rowOff>123848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3851,8 +3845,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>317367</xdr:rowOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>132310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3899,8 +3893,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3947,8 +3941,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3995,7 +3989,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>435</xdr:row>
       <xdr:rowOff>126151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4404,7 +4398,7 @@
   <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="B438" sqref="B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4422,28 +4416,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="B1" s="120" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="D1" s="119" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="E1" s="119" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="G1" s="119" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="H1" s="119" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4457,7 +4451,7 @@
         <v>723</v>
       </c>
       <c r="H2" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4474,7 +4468,7 @@
         <v>442</v>
       </c>
       <c r="H3" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -4492,7 +4486,7 @@
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
       <c r="H4" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4500,10 +4494,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H5" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4511,10 +4505,10 @@
         <v>234</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H6" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4529,7 +4523,7 @@
       </c>
       <c r="G7" s="76"/>
       <c r="H7" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4540,7 +4534,7 @@
         <v>177</v>
       </c>
       <c r="H8" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4554,7 +4548,7 @@
         <v>256</v>
       </c>
       <c r="H9" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4568,7 +4562,7 @@
         <v>256</v>
       </c>
       <c r="H10" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4579,7 +4573,7 @@
         <v>730</v>
       </c>
       <c r="H11" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4590,7 +4584,7 @@
         <v>256</v>
       </c>
       <c r="H12" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4598,10 +4592,10 @@
         <v>333</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="H13" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4609,10 +4603,10 @@
         <v>421</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="H14" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4623,7 +4617,7 @@
         <v>723</v>
       </c>
       <c r="H15" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4631,7 +4625,7 @@
         <v>184</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C16" s="110" t="s">
         <v>590</v>
@@ -4640,18 +4634,18 @@
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="H16" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="113" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="B17" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H17" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4659,27 +4653,27 @@
         <v>185</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C18" s="97" t="s">
         <v>254</v>
       </c>
       <c r="H18" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="95" t="s">
-        <v>734</v>
+      <c r="B19" s="133" t="s">
+        <v>892</v>
       </c>
       <c r="C19" s="95" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H19" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4690,7 +4684,7 @@
         <v>177</v>
       </c>
       <c r="H20" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4701,7 +4695,7 @@
         <v>177</v>
       </c>
       <c r="H21" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4709,10 +4703,10 @@
         <v>189</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H22" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4720,13 +4714,13 @@
         <v>190</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>738</v>
+        <v>897</v>
       </c>
       <c r="H23" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4734,13 +4728,13 @@
         <v>191</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C24" s="110" t="s">
         <v>256</v>
       </c>
       <c r="H24" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4751,7 +4745,7 @@
         <v>177</v>
       </c>
       <c r="H25" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4762,18 +4756,18 @@
         <v>177</v>
       </c>
       <c r="H26" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="B27" s="95" t="s">
-        <v>740</v>
+      <c r="B27" s="133" t="s">
+        <v>896</v>
       </c>
       <c r="H27" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4784,10 +4778,10 @@
         <v>464</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H28" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4798,7 +4792,7 @@
         <v>723</v>
       </c>
       <c r="H29" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4809,7 +4803,7 @@
         <v>177</v>
       </c>
       <c r="H30" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4820,10 +4814,10 @@
         <v>255</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H31" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4834,7 +4828,7 @@
         <v>684</v>
       </c>
       <c r="H32" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4842,25 +4836,25 @@
         <v>291</v>
       </c>
       <c r="B33" s="95" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C33" s="110" t="s">
         <v>260</v>
       </c>
       <c r="D33" s="70"/>
       <c r="H33" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="95" t="s">
-        <v>744</v>
+      <c r="B34" s="133" t="s">
+        <v>893</v>
       </c>
       <c r="H34" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4868,24 +4862,24 @@
         <v>183</v>
       </c>
       <c r="B35" s="88" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C35" s="133" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="H35" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="113" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="B36" s="95" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H36" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4893,13 +4887,13 @@
         <v>180</v>
       </c>
       <c r="B37" s="133" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C37" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H37" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4910,10 +4904,10 @@
         <v>258</v>
       </c>
       <c r="C38" s="133" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H38" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4924,7 +4918,7 @@
         <v>177</v>
       </c>
       <c r="H39" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4932,25 +4926,25 @@
         <v>426</v>
       </c>
       <c r="B40" s="133" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C40" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H40" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="B41" s="95" t="s">
-        <v>740</v>
+      <c r="B41" s="133" t="s">
+        <v>896</v>
       </c>
       <c r="C41" s="70"/>
       <c r="H41" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4961,7 +4955,7 @@
         <v>177</v>
       </c>
       <c r="H42" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4969,13 +4963,13 @@
         <v>195</v>
       </c>
       <c r="B43" s="133" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="H43" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4986,7 +4980,7 @@
         <v>177</v>
       </c>
       <c r="H44" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4994,24 +4988,24 @@
         <v>197</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="H45" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="95" t="s">
-        <v>749</v>
+      <c r="B46" s="133" t="s">
+        <v>895</v>
       </c>
       <c r="C46" s="70" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="H46" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5019,13 +5013,13 @@
         <v>103</v>
       </c>
       <c r="B47" s="95" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C47" s="110" t="s">
         <v>256</v>
       </c>
       <c r="H47" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5033,13 +5027,13 @@
         <v>105</v>
       </c>
       <c r="B48" s="70" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H48" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5047,10 +5041,10 @@
         <v>106</v>
       </c>
       <c r="B49" s="95" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="H49" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5058,16 +5052,16 @@
         <v>179</v>
       </c>
       <c r="B50" s="95" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C50" s="95" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D50" s="110" t="s">
         <v>260</v>
       </c>
       <c r="H50" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5078,21 +5072,21 @@
         <v>177</v>
       </c>
       <c r="H51" s="118" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="95" t="s">
         <v>199</v>
       </c>
       <c r="B52" s="133" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C52" s="95" t="s">
         <v>482</v>
       </c>
       <c r="H52" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5103,7 +5097,7 @@
         <v>177</v>
       </c>
       <c r="H53" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5114,18 +5108,18 @@
         <v>177</v>
       </c>
       <c r="H54" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="95" t="s">
-        <v>754</v>
+      <c r="B55" s="133" t="s">
+        <v>890</v>
       </c>
       <c r="H55" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5136,10 +5130,10 @@
         <v>255</v>
       </c>
       <c r="C56" s="70" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H56" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5150,7 +5144,7 @@
         <v>177</v>
       </c>
       <c r="H57" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5158,13 +5152,13 @@
         <v>115</v>
       </c>
       <c r="B58" s="70" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C58" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H58" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5175,7 +5169,7 @@
         <v>177</v>
       </c>
       <c r="H59" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5186,23 +5180,23 @@
         <v>723</v>
       </c>
       <c r="H60" s="118" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="95" t="s">
         <v>206</v>
       </c>
       <c r="B61" s="95" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C61" s="136" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="80"/>
       <c r="H61" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5210,13 +5204,13 @@
         <v>117</v>
       </c>
       <c r="B62" s="115" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C62" s="113" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="H62" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5227,7 +5221,7 @@
         <v>259</v>
       </c>
       <c r="H63" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5235,24 +5229,24 @@
         <v>207</v>
       </c>
       <c r="B64" s="115" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C64" s="113" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="H64" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="95" t="s">
-        <v>757</v>
+      <c r="B65" s="133" t="s">
+        <v>889</v>
       </c>
       <c r="H65" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5266,18 +5260,18 @@
         <v>727</v>
       </c>
       <c r="H66" s="118" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="B67" s="95" t="s">
-        <v>758</v>
+      <c r="B67" s="133" t="s">
+        <v>894</v>
       </c>
       <c r="H67" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5285,13 +5279,13 @@
         <v>211</v>
       </c>
       <c r="B68" s="133" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="C68" s="70" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="H68" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5302,7 +5296,7 @@
         <v>177</v>
       </c>
       <c r="H69" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5310,13 +5304,13 @@
         <v>213</v>
       </c>
       <c r="B70" s="133" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="H70" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5324,13 +5318,13 @@
         <v>214</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="H71" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5341,10 +5335,10 @@
         <v>262</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H72" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5355,7 +5349,7 @@
         <v>263</v>
       </c>
       <c r="H73" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5366,10 +5360,10 @@
         <v>255</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H74" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5377,13 +5371,13 @@
         <v>224</v>
       </c>
       <c r="B75" s="133" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C75" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H75" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5394,7 +5388,7 @@
         <v>177</v>
       </c>
       <c r="H76" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5402,13 +5396,13 @@
         <v>220</v>
       </c>
       <c r="B77" s="95" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C77" s="110" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="H77" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5419,10 +5413,10 @@
         <v>255</v>
       </c>
       <c r="C78" s="70" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H78" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5433,16 +5427,16 @@
         <v>260</v>
       </c>
       <c r="C79" s="95" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="D79" s="95" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="E79" s="95" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="H79" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5453,7 +5447,7 @@
         <v>177</v>
       </c>
       <c r="H80" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5461,35 +5455,35 @@
         <v>218</v>
       </c>
       <c r="B81" s="70" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C81" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="H81" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="113" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="B82" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H82" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="113" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="B83" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H83" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5497,13 +5491,13 @@
         <v>217</v>
       </c>
       <c r="B84" s="70" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C84" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H84" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5511,36 +5505,36 @@
         <v>122</v>
       </c>
       <c r="B85" s="70" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C85" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H85" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="113" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="B86" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H86" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="113" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="B87" s="95" t="s">
         <v>177</v>
       </c>
       <c r="G87" s="77"/>
       <c r="H87" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5551,7 +5545,7 @@
         <v>177</v>
       </c>
       <c r="H88" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5562,7 +5556,7 @@
         <v>177</v>
       </c>
       <c r="H89" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5577,7 +5571,7 @@
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
       <c r="H90" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5588,7 +5582,7 @@
         <v>177</v>
       </c>
       <c r="H91" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5596,13 +5590,13 @@
         <v>160</v>
       </c>
       <c r="B92" s="95" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C92" s="110" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="H92" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5613,21 +5607,21 @@
         <v>254</v>
       </c>
       <c r="C93" s="95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H93" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="B94" s="95" t="s">
-        <v>744</v>
+      <c r="B94" s="133" t="s">
+        <v>893</v>
       </c>
       <c r="H94" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5635,13 +5629,13 @@
         <v>227</v>
       </c>
       <c r="B95" s="95" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C95" s="110" t="s">
         <v>260</v>
       </c>
       <c r="H95" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5652,10 +5646,10 @@
         <v>254</v>
       </c>
       <c r="C96" s="95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H96" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5666,7 +5660,7 @@
         <v>177</v>
       </c>
       <c r="H97" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5677,7 +5671,7 @@
         <v>177</v>
       </c>
       <c r="H98" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5688,7 +5682,7 @@
         <v>177</v>
       </c>
       <c r="H99" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5696,13 +5690,13 @@
         <v>242</v>
       </c>
       <c r="B100" s="133" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C100" s="70" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="H100" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5713,7 +5707,7 @@
         <v>177</v>
       </c>
       <c r="H101" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5724,7 +5718,7 @@
         <v>177</v>
       </c>
       <c r="H102" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5735,7 +5729,7 @@
         <v>177</v>
       </c>
       <c r="H103" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5746,7 +5740,7 @@
         <v>177</v>
       </c>
       <c r="H104" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5754,13 +5748,13 @@
         <v>247</v>
       </c>
       <c r="B105" s="70" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C105" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H105" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5768,13 +5762,13 @@
         <v>248</v>
       </c>
       <c r="B106" s="133" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C106" s="70" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="H106" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5782,13 +5776,13 @@
         <v>235</v>
       </c>
       <c r="B107" s="115" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C107" s="113" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="H107" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5799,7 +5793,7 @@
         <v>261</v>
       </c>
       <c r="H108" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5807,13 +5801,13 @@
         <v>249</v>
       </c>
       <c r="B109" s="95" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="C109" s="110" t="s">
         <v>260</v>
       </c>
       <c r="H109" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5824,7 +5818,7 @@
         <v>177</v>
       </c>
       <c r="H110" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5832,13 +5826,13 @@
         <v>251</v>
       </c>
       <c r="B111" s="70" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C111" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H111" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5849,7 +5843,7 @@
         <v>177</v>
       </c>
       <c r="H112" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5857,13 +5851,13 @@
         <v>237</v>
       </c>
       <c r="B113" s="133" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C113" s="70" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="H113" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5874,7 +5868,7 @@
         <v>261</v>
       </c>
       <c r="H114" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5882,13 +5876,13 @@
         <v>485</v>
       </c>
       <c r="B115" s="70" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C115" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H115" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5896,27 +5890,27 @@
         <v>267</v>
       </c>
       <c r="B116" s="70" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C116" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H116" s="118" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="70" t="s">
         <v>268</v>
       </c>
       <c r="B117" s="133" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C117" s="95" t="s">
         <v>482</v>
       </c>
       <c r="H117" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5930,7 +5924,7 @@
         <v>531</v>
       </c>
       <c r="H118" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5941,7 +5935,7 @@
         <v>177</v>
       </c>
       <c r="H119" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5949,13 +5943,13 @@
         <v>271</v>
       </c>
       <c r="B120" s="133" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="H120" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5966,10 +5960,10 @@
         <v>449</v>
       </c>
       <c r="C121" s="95" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="H121" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5977,13 +5971,13 @@
         <v>336</v>
       </c>
       <c r="B122" s="74" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C122" s="74" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="H122" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5991,13 +5985,13 @@
         <v>273</v>
       </c>
       <c r="B123" s="95" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="C123" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H123" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6005,10 +5999,10 @@
         <v>287</v>
       </c>
       <c r="B124" s="95" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="H124" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6019,7 +6013,7 @@
         <v>274</v>
       </c>
       <c r="H125" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6027,10 +6021,10 @@
         <v>285</v>
       </c>
       <c r="B126" s="95" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="H126" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6038,22 +6032,22 @@
         <v>283</v>
       </c>
       <c r="B127" s="95" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C127" s="95" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D127" s="95" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E127" s="95" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F127" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H127" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6064,7 +6058,7 @@
         <v>177</v>
       </c>
       <c r="H128" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -6075,10 +6069,10 @@
         <v>262</v>
       </c>
       <c r="C129" s="95" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H129" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6086,13 +6080,13 @@
         <v>279</v>
       </c>
       <c r="B130" s="74" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C130" s="74" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="H130" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6103,7 +6097,7 @@
         <v>177</v>
       </c>
       <c r="H131" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6114,7 +6108,7 @@
         <v>177</v>
       </c>
       <c r="H132" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6125,7 +6119,7 @@
         <v>723</v>
       </c>
       <c r="H133" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6136,21 +6130,21 @@
         <v>177</v>
       </c>
       <c r="H134" s="118" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="70" t="s">
         <v>294</v>
       </c>
       <c r="B135" s="133" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C135" s="95" t="s">
         <v>482</v>
       </c>
       <c r="H135" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6158,13 +6152,13 @@
         <v>295</v>
       </c>
       <c r="B136" s="95" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C136" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H136" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6172,13 +6166,13 @@
         <v>296</v>
       </c>
       <c r="B137" s="70" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="C137" s="110" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="H137" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6186,13 +6180,13 @@
         <v>297</v>
       </c>
       <c r="B138" s="95" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C138" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H138" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6200,13 +6194,13 @@
         <v>298</v>
       </c>
       <c r="B139" s="95" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C139" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H139" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6214,13 +6208,13 @@
         <v>299</v>
       </c>
       <c r="B140" s="74" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C140" s="74" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="H140" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6231,10 +6225,10 @@
         <v>301</v>
       </c>
       <c r="C141" s="70" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H141" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6245,7 +6239,7 @@
         <v>261</v>
       </c>
       <c r="H142" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6256,7 +6250,7 @@
         <v>177</v>
       </c>
       <c r="H143" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6264,14 +6258,14 @@
         <v>304</v>
       </c>
       <c r="B144" s="133" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C144" s="95" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E144" s="70"/>
       <c r="H144" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6279,13 +6273,13 @@
         <v>305</v>
       </c>
       <c r="B145" s="95" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C145" s="110" t="s">
         <v>256</v>
       </c>
       <c r="H145" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6296,7 +6290,7 @@
         <v>723</v>
       </c>
       <c r="H146" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6307,7 +6301,7 @@
         <v>723</v>
       </c>
       <c r="H147" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6318,7 +6312,7 @@
         <v>177</v>
       </c>
       <c r="H148" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6326,13 +6320,13 @@
         <v>503</v>
       </c>
       <c r="B149" s="95" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C149" s="110" t="s">
         <v>255</v>
       </c>
       <c r="H149" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6343,7 +6337,7 @@
         <v>177</v>
       </c>
       <c r="H150" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6351,13 +6345,13 @@
         <v>311</v>
       </c>
       <c r="B151" s="95" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C151" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H151" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6365,13 +6359,13 @@
         <v>314</v>
       </c>
       <c r="B152" s="95" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C152" s="74" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="H152" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6379,13 +6373,13 @@
         <v>315</v>
       </c>
       <c r="B153" s="133" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C153" s="70" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="H153" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6393,13 +6387,13 @@
         <v>318</v>
       </c>
       <c r="B154" s="133" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C154" s="133" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="H154" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6410,7 +6404,7 @@
         <v>261</v>
       </c>
       <c r="H155" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6418,13 +6412,13 @@
         <v>430</v>
       </c>
       <c r="B156" s="95" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C156" s="74" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="H156" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6432,13 +6426,13 @@
         <v>312</v>
       </c>
       <c r="B157" s="115" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C157" s="113" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="H157" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6449,7 +6443,7 @@
         <v>723</v>
       </c>
       <c r="H158" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6457,13 +6451,13 @@
         <v>317</v>
       </c>
       <c r="B159" s="70" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C159" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H159" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6474,7 +6468,7 @@
         <v>723</v>
       </c>
       <c r="H160" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6485,7 +6479,7 @@
         <v>177</v>
       </c>
       <c r="H161" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6496,10 +6490,10 @@
         <v>464</v>
       </c>
       <c r="C162" s="95" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H162" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6507,10 +6501,10 @@
         <v>323</v>
       </c>
       <c r="B163" s="113" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="H163" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6518,13 +6512,13 @@
         <v>510</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C164" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H164" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6535,10 +6529,10 @@
         <v>464</v>
       </c>
       <c r="C165" s="95" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H165" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6546,10 +6540,10 @@
         <v>326</v>
       </c>
       <c r="B166" s="133" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="H166" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6557,13 +6551,13 @@
         <v>327</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C167" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H167" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6571,10 +6565,10 @@
         <v>328</v>
       </c>
       <c r="B168" s="133" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="H168" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6585,7 +6579,7 @@
         <v>263</v>
       </c>
       <c r="H169" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6593,10 +6587,10 @@
         <v>288</v>
       </c>
       <c r="B170" s="95" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H170" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6607,10 +6601,10 @@
         <v>255</v>
       </c>
       <c r="C171" s="70" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H171" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6618,13 +6612,13 @@
         <v>431</v>
       </c>
       <c r="B172" s="115" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C172" s="95" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="H172" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6635,7 +6629,7 @@
         <v>177</v>
       </c>
       <c r="H173" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6646,7 +6640,7 @@
         <v>723</v>
       </c>
       <c r="H174" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6654,10 +6648,10 @@
         <v>342</v>
       </c>
       <c r="B175" s="95" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="H175" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6668,7 +6662,7 @@
         <v>723</v>
       </c>
       <c r="H176" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6679,7 +6673,7 @@
         <v>177</v>
       </c>
       <c r="H177" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6690,10 +6684,10 @@
         <v>262</v>
       </c>
       <c r="C178" s="95" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H178" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6704,7 +6698,7 @@
         <v>177</v>
       </c>
       <c r="H179" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6712,10 +6706,10 @@
         <v>347</v>
       </c>
       <c r="B180" s="95" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="H180" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6723,10 +6717,10 @@
         <v>348</v>
       </c>
       <c r="B181" s="95" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="H181" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6734,13 +6728,13 @@
         <v>349</v>
       </c>
       <c r="B182" s="74" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C182" s="74" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="H182" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6751,7 +6745,7 @@
         <v>177</v>
       </c>
       <c r="H183" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6759,10 +6753,10 @@
         <v>351</v>
       </c>
       <c r="B184" s="95" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="H184" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6770,16 +6764,16 @@
         <v>352</v>
       </c>
       <c r="B185" s="70" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C185" s="95" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D185" s="110" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="H185" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6787,16 +6781,16 @@
         <v>354</v>
       </c>
       <c r="B186" s="95" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C186" s="95" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D186" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H186" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6804,11 +6798,11 @@
         <v>355</v>
       </c>
       <c r="B187" s="96" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C187" s="70"/>
       <c r="H187" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6819,7 +6813,7 @@
         <v>177</v>
       </c>
       <c r="H188" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6830,10 +6824,10 @@
         <v>464</v>
       </c>
       <c r="C189" s="95" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H189" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6841,13 +6835,13 @@
         <v>357</v>
       </c>
       <c r="B190" s="133" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C190" s="70" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="H190" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6855,11 +6849,11 @@
         <v>432</v>
       </c>
       <c r="B191" s="95" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C191" s="70"/>
       <c r="H191" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6867,10 +6861,10 @@
         <v>433</v>
       </c>
       <c r="B192" s="95" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="H192" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6881,10 +6875,10 @@
         <v>262</v>
       </c>
       <c r="C193" s="95" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H193" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6895,7 +6889,7 @@
         <v>723</v>
       </c>
       <c r="H194" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6903,7 +6897,7 @@
         <v>580</v>
       </c>
       <c r="B195" s="70" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C195" s="91"/>
       <c r="D195" s="91"/>
@@ -6911,7 +6905,7 @@
       <c r="F195" s="91"/>
       <c r="G195" s="91"/>
       <c r="H195" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6919,13 +6913,13 @@
         <v>434</v>
       </c>
       <c r="B196" s="95" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C196" s="110" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="H196" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6933,13 +6927,13 @@
         <v>435</v>
       </c>
       <c r="B197" s="98" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C197" s="110" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="H197" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6947,13 +6941,13 @@
         <v>436</v>
       </c>
       <c r="B198" s="95" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="C198" s="110" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="H198" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6961,16 +6955,16 @@
         <v>437</v>
       </c>
       <c r="B199" s="70" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="C199" s="95" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D199" s="110" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="H199" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="91" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6986,7 +6980,7 @@
       <c r="F200" s="95"/>
       <c r="G200" s="95"/>
       <c r="H200" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6994,16 +6988,16 @@
         <v>493</v>
       </c>
       <c r="B201" s="95" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C201" s="95" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D201" s="95" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E201" s="95" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F201" s="90" t="s">
         <v>440</v>
@@ -7012,7 +7006,7 @@
         <v>723</v>
       </c>
       <c r="H201" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7023,13 +7017,13 @@
         <v>442</v>
       </c>
       <c r="C202" s="95" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D202" s="70" t="s">
         <v>724</v>
       </c>
       <c r="H202" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7037,13 +7031,13 @@
         <v>443</v>
       </c>
       <c r="B203" s="113" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C203" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H203" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7051,14 +7045,14 @@
         <v>444</v>
       </c>
       <c r="B204" s="95" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="C204" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="E204" s="70"/>
       <c r="H204" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7066,13 +7060,13 @@
         <v>445</v>
       </c>
       <c r="B205" s="113" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="C205" s="113" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="H205" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7080,22 +7074,22 @@
         <v>569</v>
       </c>
       <c r="B206" s="95" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="C206" s="95" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D206" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="E206" s="95" t="s">
         <v>753</v>
-      </c>
-      <c r="E206" s="95" t="s">
-        <v>762</v>
       </c>
       <c r="F206" s="110" t="s">
         <v>260</v>
       </c>
       <c r="H206" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7106,16 +7100,16 @@
         <v>260</v>
       </c>
       <c r="C207" s="95" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="D207" s="95" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="E207" s="95" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="H207" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7126,10 +7120,10 @@
         <v>254</v>
       </c>
       <c r="C208" s="95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H208" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7137,19 +7131,19 @@
         <v>566</v>
       </c>
       <c r="B209" s="95" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="C209" s="95" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D209" s="95" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="E209" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H209" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7160,15 +7154,15 @@
         <v>723</v>
       </c>
       <c r="H210" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="95" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="H211" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7176,16 +7170,16 @@
         <v>446</v>
       </c>
       <c r="B212" s="133" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C212" s="113" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D212" s="113" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="H212" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7196,11 +7190,11 @@
         <v>449</v>
       </c>
       <c r="C213" s="95" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="D213" s="89"/>
       <c r="H213" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7211,10 +7205,10 @@
         <v>483</v>
       </c>
       <c r="C214" s="70" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="H214" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7222,16 +7216,16 @@
         <v>451</v>
       </c>
       <c r="B215" s="133" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C215" s="95" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D215" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H215" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7239,14 +7233,14 @@
         <v>565</v>
       </c>
       <c r="B216" s="95" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C216" s="110" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="E216" s="78"/>
       <c r="H216" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7257,10 +7251,10 @@
         <v>262</v>
       </c>
       <c r="C217" s="78" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H217" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7275,7 +7269,7 @@
       </c>
       <c r="G218" s="80"/>
       <c r="H218" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7283,14 +7277,14 @@
         <v>453</v>
       </c>
       <c r="B219" s="95" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C219" s="70" t="s">
         <v>723</v>
       </c>
       <c r="D219" s="80"/>
       <c r="H219" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7298,31 +7292,31 @@
         <v>562</v>
       </c>
       <c r="B220" s="95" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C220" s="95" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D220" s="110" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="F220" s="78"/>
       <c r="H220" s="118" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="95" t="s">
         <v>561</v>
       </c>
       <c r="B221" s="95" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C221" s="136" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="H221" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7330,16 +7324,16 @@
         <v>653</v>
       </c>
       <c r="B222" s="95" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C222" s="95" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D222" s="110" t="s">
         <v>256</v>
       </c>
       <c r="H222" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7347,10 +7341,10 @@
         <v>455</v>
       </c>
       <c r="B223" s="95" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="H223" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7358,13 +7352,13 @@
         <v>456</v>
       </c>
       <c r="B224" s="95" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C224" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H224" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7372,13 +7366,13 @@
         <v>457</v>
       </c>
       <c r="B225" s="95" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C225" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H225" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7386,13 +7380,13 @@
         <v>458</v>
       </c>
       <c r="B226" s="95" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="C226" s="110" t="s">
         <v>259</v>
       </c>
       <c r="H226" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7403,7 +7397,7 @@
         <v>723</v>
       </c>
       <c r="H227" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7411,13 +7405,13 @@
         <v>460</v>
       </c>
       <c r="B228" s="95" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C228" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H228" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7425,13 +7419,13 @@
         <v>461</v>
       </c>
       <c r="B229" s="95" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="C229" s="95" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="H229" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7439,16 +7433,16 @@
         <v>462</v>
       </c>
       <c r="B230" s="95" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C230" s="95" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D230" s="110" t="s">
         <v>259</v>
       </c>
       <c r="H230" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7456,13 +7450,13 @@
         <v>463</v>
       </c>
       <c r="B231" s="95" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C231" s="95" t="s">
         <v>464</v>
       </c>
       <c r="H231" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7473,18 +7467,18 @@
         <v>260</v>
       </c>
       <c r="C232" s="70" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D232" s="70" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E232" s="95" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F232" s="70"/>
       <c r="G232" s="70"/>
       <c r="H232" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7492,13 +7486,13 @@
         <v>560</v>
       </c>
       <c r="B233" s="95" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C233" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H233" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7509,10 +7503,10 @@
         <v>439</v>
       </c>
       <c r="C234" s="95" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="H234" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7520,13 +7514,13 @@
         <v>557</v>
       </c>
       <c r="B235" s="70" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="C235" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H235" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7534,13 +7528,13 @@
         <v>558</v>
       </c>
       <c r="B236" s="95" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C236" s="110" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="H236" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7548,13 +7542,13 @@
         <v>655</v>
       </c>
       <c r="B237" s="98" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="C237" s="110" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="H237" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7562,13 +7556,13 @@
         <v>487</v>
       </c>
       <c r="B238" s="98" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="C238" s="110" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="H238" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7576,7 +7570,7 @@
         <v>489</v>
       </c>
       <c r="B239" s="95" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C239" s="95" t="s">
         <v>724</v>
@@ -7585,7 +7579,7 @@
         <v>442</v>
       </c>
       <c r="H239" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7593,13 +7587,13 @@
         <v>488</v>
       </c>
       <c r="B240" s="98" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C240" s="110" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="H240" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7607,13 +7601,13 @@
         <v>528</v>
       </c>
       <c r="B241" s="70" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C241" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H241" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7621,13 +7615,13 @@
         <v>527</v>
       </c>
       <c r="B242" s="70" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C242" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H242" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7635,16 +7629,16 @@
         <v>526</v>
       </c>
       <c r="B243" s="70" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="C243" s="70" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D243" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H243" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7661,7 +7655,7 @@
         <v>442</v>
       </c>
       <c r="H244" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7669,14 +7663,14 @@
         <v>714</v>
       </c>
       <c r="B245" s="70" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C245" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D245" s="110"/>
       <c r="H245" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7684,13 +7678,13 @@
         <v>715</v>
       </c>
       <c r="B246" s="70" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C246" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H246" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7698,16 +7692,16 @@
         <v>523</v>
       </c>
       <c r="B247" s="133" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C247" s="70" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D247" s="110" t="s">
         <v>439</v>
       </c>
       <c r="H247" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7715,16 +7709,16 @@
         <v>522</v>
       </c>
       <c r="B248" s="97" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C248" s="99" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D248" s="110" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="H248" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7732,22 +7726,22 @@
         <v>521</v>
       </c>
       <c r="B249" s="70" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C249" s="70" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D249" s="70" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E249" s="70" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F249" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H249" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7755,19 +7749,19 @@
         <v>494</v>
       </c>
       <c r="B250" s="70" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="C250" s="70" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D250" s="70" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E250" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H250" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7781,7 +7775,7 @@
       <c r="D251" s="70"/>
       <c r="E251" s="70"/>
       <c r="H251" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7793,7 +7787,7 @@
       <c r="D252" s="70"/>
       <c r="E252" s="70"/>
       <c r="H252" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7801,15 +7795,15 @@
         <v>496</v>
       </c>
       <c r="B253" s="70" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="C253" s="70" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="D253" s="70"/>
       <c r="E253" s="70"/>
       <c r="H253" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7820,12 +7814,12 @@
         <v>490</v>
       </c>
       <c r="C254" s="110" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D254" s="70"/>
       <c r="E254" s="70"/>
       <c r="H254" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7833,33 +7827,33 @@
         <v>497</v>
       </c>
       <c r="B255" s="70" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C255" s="70" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D255" s="110" t="s">
         <v>723</v>
       </c>
       <c r="E255" s="70"/>
       <c r="H255" s="118" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="70" t="s">
         <v>498</v>
       </c>
       <c r="B256" s="70" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C256" s="136" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
       <c r="H256" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7873,7 +7867,7 @@
       <c r="D257" s="70"/>
       <c r="E257" s="70"/>
       <c r="H257" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7881,17 +7875,17 @@
         <v>500</v>
       </c>
       <c r="B258" s="70" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="C258" s="70" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D258" s="110" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E258" s="70"/>
       <c r="H258" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7899,15 +7893,15 @@
         <v>501</v>
       </c>
       <c r="B259" s="115" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C259" s="70" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
       <c r="H259" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7915,13 +7909,13 @@
         <v>502</v>
       </c>
       <c r="B260" s="70" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="C260" s="70"/>
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
       <c r="H260" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7929,15 +7923,15 @@
         <v>511</v>
       </c>
       <c r="B261" s="70" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="C261" s="136" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
       <c r="H261" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7948,12 +7942,12 @@
         <v>512</v>
       </c>
       <c r="C262" s="70" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
       <c r="H262" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7964,16 +7958,16 @@
         <v>483</v>
       </c>
       <c r="C263" s="70" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D263" s="70" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="E263" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H263" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7981,7 +7975,7 @@
         <v>514</v>
       </c>
       <c r="B264" s="70" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C264" s="70" t="s">
         <v>723</v>
@@ -7989,7 +7983,7 @@
       <c r="D264" s="70"/>
       <c r="E264" s="70"/>
       <c r="H264" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7997,19 +7991,19 @@
         <v>516</v>
       </c>
       <c r="B265" s="70" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C265" s="70" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D265" s="70" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="E265" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H265" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8023,7 +8017,7 @@
       <c r="D266" s="70"/>
       <c r="E266" s="70"/>
       <c r="H266" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8031,17 +8025,17 @@
         <v>530</v>
       </c>
       <c r="B267" s="133" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C267" s="70" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D267" s="70" t="s">
         <v>481</v>
       </c>
       <c r="E267" s="70"/>
       <c r="H267" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8049,15 +8043,15 @@
         <v>215</v>
       </c>
       <c r="B268" s="70" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C268" s="74" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D268" s="70"/>
       <c r="E268" s="70"/>
       <c r="H268" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8068,12 +8062,12 @@
         <v>255</v>
       </c>
       <c r="C269" s="70" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
       <c r="H269" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8084,16 +8078,16 @@
         <v>258</v>
       </c>
       <c r="C270" s="70" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D270" s="133" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="E270" s="70" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="H270" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8104,14 +8098,14 @@
         <v>452</v>
       </c>
       <c r="C271" s="70" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D271" s="70" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="E271" s="70"/>
       <c r="H271" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8119,15 +8113,15 @@
         <v>552</v>
       </c>
       <c r="B272" s="133" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C272" s="70" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="D272" s="70"/>
       <c r="E272" s="70"/>
       <c r="H272" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8135,17 +8129,17 @@
         <v>704</v>
       </c>
       <c r="B273" s="133" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C273" s="113" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D273" s="70" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="E273" s="70"/>
       <c r="H273" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8153,19 +8147,19 @@
         <v>551</v>
       </c>
       <c r="B274" s="133" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C274" s="113" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D274" s="70" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="E274" s="70" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="H274" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8173,15 +8167,15 @@
         <v>550</v>
       </c>
       <c r="B275" s="70" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C275" s="74" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D275" s="70"/>
       <c r="E275" s="70"/>
       <c r="H275" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8189,7 +8183,7 @@
         <v>537</v>
       </c>
       <c r="B276" s="70" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C276" s="70" t="s">
         <v>723</v>
@@ -8197,7 +8191,7 @@
       <c r="D276" s="70"/>
       <c r="E276" s="70"/>
       <c r="H276" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8211,7 +8205,7 @@
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
       <c r="H277" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8225,7 +8219,7 @@
       <c r="D278" s="70"/>
       <c r="E278" s="70"/>
       <c r="H278" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8233,17 +8227,17 @@
         <v>589</v>
       </c>
       <c r="B279" s="70" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C279" s="70" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="D279" s="110" t="s">
         <v>684</v>
       </c>
       <c r="E279" s="70"/>
       <c r="H279" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8251,15 +8245,15 @@
         <v>536</v>
       </c>
       <c r="B280" s="70" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C280" s="110" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
       <c r="H280" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8270,12 +8264,12 @@
         <v>439</v>
       </c>
       <c r="C281" s="70" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
       <c r="H281" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8283,17 +8277,17 @@
         <v>548</v>
       </c>
       <c r="B282" s="70" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="C282" s="70" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="D282" s="70" t="s">
         <v>439</v>
       </c>
       <c r="E282" s="70"/>
       <c r="H282" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8301,15 +8295,15 @@
         <v>553</v>
       </c>
       <c r="B283" s="70" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="C283" s="110" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="D283" s="70"/>
       <c r="E283" s="70"/>
       <c r="H283" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8317,17 +8311,17 @@
         <v>546</v>
       </c>
       <c r="B284" s="70" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="C284" s="70" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="D284" s="70" t="s">
         <v>439</v>
       </c>
       <c r="E284" s="70"/>
       <c r="H284" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8335,7 +8329,7 @@
         <v>547</v>
       </c>
       <c r="B285" s="133" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C285" s="70" t="s">
         <v>439</v>
@@ -8343,7 +8337,7 @@
       <c r="D285" s="70"/>
       <c r="E285" s="70"/>
       <c r="H285" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8354,12 +8348,12 @@
         <v>452</v>
       </c>
       <c r="C286" s="70" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D286" s="70"/>
       <c r="E286" s="70"/>
       <c r="H286" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8375,7 +8369,7 @@
       <c r="F287" s="76"/>
       <c r="G287" s="76"/>
       <c r="H287" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8383,7 +8377,7 @@
         <v>543</v>
       </c>
       <c r="B288" s="70" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C288" s="70" t="s">
         <v>723</v>
@@ -8391,7 +8385,7 @@
       <c r="D288" s="70"/>
       <c r="E288" s="70"/>
       <c r="H288" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8407,7 +8401,7 @@
       <c r="D289" s="70"/>
       <c r="E289" s="70"/>
       <c r="H289" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8415,19 +8409,19 @@
         <v>541</v>
       </c>
       <c r="B290" s="70" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C290" s="70" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D290" s="70" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="E290" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H290" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8435,7 +8429,7 @@
         <v>582</v>
       </c>
       <c r="B291" s="70" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C291" s="70" t="s">
         <v>723</v>
@@ -8443,7 +8437,7 @@
       <c r="D291" s="70"/>
       <c r="E291" s="70"/>
       <c r="H291" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8451,7 +8445,7 @@
         <v>540</v>
       </c>
       <c r="B292" s="70" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C292" s="70" t="s">
         <v>723</v>
@@ -8459,7 +8453,7 @@
       <c r="D292" s="70"/>
       <c r="E292" s="70"/>
       <c r="H292" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8467,13 +8461,13 @@
         <v>178</v>
       </c>
       <c r="B293" s="70" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C293" s="133" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="H293" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8481,13 +8475,13 @@
         <v>491</v>
       </c>
       <c r="B294" s="70" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C294" s="133" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="H294" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8495,10 +8489,10 @@
         <v>269</v>
       </c>
       <c r="B295" s="133" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="H295" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8506,13 +8500,13 @@
         <v>329</v>
       </c>
       <c r="B296" s="95" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="C296" s="95" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="H296" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8520,13 +8514,13 @@
         <v>324</v>
       </c>
       <c r="B297" s="95" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="C297" s="95" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="H297" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8534,13 +8528,13 @@
         <v>353</v>
       </c>
       <c r="B298" s="95" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="C298" s="95" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="H298" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8548,16 +8542,16 @@
         <v>601</v>
       </c>
       <c r="B299" s="95" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="C299" s="95" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="D299" s="95" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="H299" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8565,13 +8559,13 @@
         <v>447</v>
       </c>
       <c r="B300" s="70" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="C300" s="89" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="H300" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8579,19 +8573,19 @@
         <v>621</v>
       </c>
       <c r="B301" s="70" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C301" s="70" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="D301" s="95" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="E301" s="95" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="H301" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8599,16 +8593,16 @@
         <v>524</v>
       </c>
       <c r="B302" s="70" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C302" s="70" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D302" s="134" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="H302" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8619,12 +8613,12 @@
         <v>259</v>
       </c>
       <c r="C303" s="70" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D303" s="70"/>
       <c r="E303" s="70"/>
       <c r="H303" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8635,12 +8629,12 @@
         <v>259</v>
       </c>
       <c r="C304" s="70" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D304" s="70"/>
       <c r="E304" s="70"/>
       <c r="H304" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8648,10 +8642,10 @@
         <v>570</v>
       </c>
       <c r="B305" s="95" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="H305" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8662,10 +8656,10 @@
         <v>254</v>
       </c>
       <c r="C306" s="95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H306" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8673,16 +8667,16 @@
         <v>572</v>
       </c>
       <c r="B307" s="133" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C307" s="95" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D307" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H307" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8690,13 +8684,13 @@
         <v>573</v>
       </c>
       <c r="B308" s="74" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C308" s="74" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="H308" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8704,10 +8698,10 @@
         <v>574</v>
       </c>
       <c r="B309" s="70" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="H309" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8715,13 +8709,13 @@
         <v>575</v>
       </c>
       <c r="B310" s="95" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="C310" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H310" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8729,28 +8723,28 @@
         <v>576</v>
       </c>
       <c r="B311" s="117" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="C311" s="117" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="D311" s="97"/>
       <c r="H311" s="118" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="70" t="s">
         <v>577</v>
       </c>
       <c r="B312" s="117" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="C312" s="136" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="H312" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8758,10 +8752,10 @@
         <v>578</v>
       </c>
       <c r="B313" s="97" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="H313" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8772,10 +8766,10 @@
         <v>730</v>
       </c>
       <c r="C314" s="95" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="H314" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8783,13 +8777,13 @@
         <v>581</v>
       </c>
       <c r="B315" s="95" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C315" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H315" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8797,13 +8791,13 @@
         <v>583</v>
       </c>
       <c r="B316" s="95" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="C316" s="110" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H316" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8811,13 +8805,13 @@
         <v>584</v>
       </c>
       <c r="B317" s="95" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C317" t="s">
-        <v>844</v>
+        <v>880</v>
       </c>
       <c r="H317" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8825,13 +8819,13 @@
         <v>718</v>
       </c>
       <c r="B318" s="95" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="C318" s="95" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H318" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8839,13 +8833,13 @@
         <v>717</v>
       </c>
       <c r="B319" s="95" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="C319" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H319" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8856,10 +8850,10 @@
         <v>590</v>
       </c>
       <c r="C320" s="70" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="H320" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8867,13 +8861,13 @@
         <v>620</v>
       </c>
       <c r="B321" s="95" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C321" s="95" t="s">
         <v>464</v>
       </c>
       <c r="H321" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8881,10 +8875,10 @@
         <v>642</v>
       </c>
       <c r="B322" s="95" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="H322" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8892,13 +8886,13 @@
         <v>591</v>
       </c>
       <c r="B323" s="95" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C323" s="74" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="H323" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8909,7 +8903,7 @@
         <v>177</v>
       </c>
       <c r="H324" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8917,16 +8911,16 @@
         <v>593</v>
       </c>
       <c r="B325" s="133" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C325" s="70" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D325" s="70" t="s">
         <v>481</v>
       </c>
       <c r="H325" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8934,13 +8928,13 @@
         <v>594</v>
       </c>
       <c r="B326" s="95" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C326" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H326" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8951,13 +8945,13 @@
         <v>442</v>
       </c>
       <c r="C327" s="95" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D327" s="95" t="s">
         <v>724</v>
       </c>
       <c r="H327" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8965,13 +8959,13 @@
         <v>596</v>
       </c>
       <c r="B328" s="95" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C328" s="110" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="H328" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8979,10 +8973,10 @@
         <v>597</v>
       </c>
       <c r="B329" s="113" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="H329" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8990,10 +8984,10 @@
         <v>598</v>
       </c>
       <c r="B330" s="135" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="H330" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9001,13 +8995,13 @@
         <v>599</v>
       </c>
       <c r="B331" s="95" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C331" s="95" t="s">
         <v>464</v>
       </c>
       <c r="H331" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9015,16 +9009,16 @@
         <v>600</v>
       </c>
       <c r="B332" s="95" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="C332" s="95" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D332" s="110" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="H332" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9032,13 +9026,13 @@
         <v>602</v>
       </c>
       <c r="B333" s="95" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C333" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H333" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9050,7 +9044,7 @@
       </c>
       <c r="C334" s="98"/>
       <c r="H334" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9061,7 +9055,7 @@
         <v>177</v>
       </c>
       <c r="H335" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9072,7 +9066,7 @@
         <v>261</v>
       </c>
       <c r="H336" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9080,13 +9074,13 @@
         <v>606</v>
       </c>
       <c r="B337" s="95" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C337" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H337" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9094,10 +9088,10 @@
         <v>607</v>
       </c>
       <c r="B338" s="95" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="H338" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -9105,13 +9099,13 @@
         <v>608</v>
       </c>
       <c r="B339" s="95" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C339" s="110" t="s">
         <v>590</v>
       </c>
       <c r="H339" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9119,13 +9113,13 @@
         <v>609</v>
       </c>
       <c r="B340" s="95" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C340" s="95" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="H340" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9139,7 +9133,7 @@
         <v>659</v>
       </c>
       <c r="H341" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9147,13 +9141,13 @@
         <v>611</v>
       </c>
       <c r="B342" s="70" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C342" s="133" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="H342" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9161,16 +9155,16 @@
         <v>612</v>
       </c>
       <c r="B343" s="97" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="C343" s="97" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D343" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H343" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9181,13 +9175,13 @@
         <v>258</v>
       </c>
       <c r="C344" s="133" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D344" s="95" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="H344" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9195,16 +9189,16 @@
         <v>613</v>
       </c>
       <c r="B345" s="135" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="C345" s="97" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D345" s="97" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="H345" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9212,16 +9206,16 @@
         <v>614</v>
       </c>
       <c r="B346" s="95" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="C346" s="95" t="s">
-        <v>769</v>
-      </c>
-      <c r="D346" s="97" t="s">
-        <v>844</v>
+        <v>760</v>
+      </c>
+      <c r="D346" s="135" t="s">
+        <v>880</v>
       </c>
       <c r="H346" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9229,13 +9223,13 @@
         <v>615</v>
       </c>
       <c r="B347" s="133" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="C347" s="133" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="H347" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9243,13 +9237,13 @@
         <v>616</v>
       </c>
       <c r="B348" s="95" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="C348" s="95" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="H348" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9260,7 +9254,7 @@
         <v>618</v>
       </c>
       <c r="H349" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9268,10 +9262,10 @@
         <v>619</v>
       </c>
       <c r="B350" s="113" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="H350" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9279,13 +9273,13 @@
         <v>622</v>
       </c>
       <c r="B351" s="133" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C351" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H351" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9293,13 +9287,13 @@
         <v>623</v>
       </c>
       <c r="B352" s="133" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C352" s="95" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="H352" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9310,10 +9304,10 @@
         <v>464</v>
       </c>
       <c r="C353" s="88" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H353" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9321,13 +9315,13 @@
         <v>627</v>
       </c>
       <c r="B354" s="113" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C354" s="113" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="H354" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9338,7 +9332,7 @@
         <v>261</v>
       </c>
       <c r="H355" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9349,7 +9343,7 @@
         <v>618</v>
       </c>
       <c r="H356" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9360,13 +9354,13 @@
         <v>452</v>
       </c>
       <c r="C357" s="70" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D357" s="70" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="H357" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9377,7 +9371,7 @@
         <v>177</v>
       </c>
       <c r="H358" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9388,7 +9382,7 @@
         <v>723</v>
       </c>
       <c r="H359" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9396,13 +9390,13 @@
         <v>636</v>
       </c>
       <c r="B360" s="95" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C360" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H360" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9410,13 +9404,13 @@
         <v>637</v>
       </c>
       <c r="B361" s="89" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C361" s="110" t="s">
         <v>512</v>
       </c>
       <c r="H361" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9424,13 +9418,13 @@
         <v>638</v>
       </c>
       <c r="B362" s="95" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="C362" s="110" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="H362" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9438,16 +9432,16 @@
         <v>639</v>
       </c>
       <c r="B363" s="95" t="s">
-        <v>859</v>
-      </c>
-      <c r="C363" s="97" t="s">
-        <v>844</v>
+        <v>849</v>
+      </c>
+      <c r="C363" s="135" t="s">
+        <v>880</v>
       </c>
       <c r="D363" s="74" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="H363" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9461,7 +9455,7 @@
         <v>726</v>
       </c>
       <c r="H364" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9469,14 +9463,14 @@
         <v>719</v>
       </c>
       <c r="B365" s="115" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="C365" s="95" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="D365" s="112"/>
       <c r="H365" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9484,17 +9478,17 @@
         <v>657</v>
       </c>
       <c r="B366" s="95" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="C366" s="70" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D366" s="111" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E366" s="70"/>
       <c r="H366" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9502,13 +9496,13 @@
         <v>640</v>
       </c>
       <c r="B367" s="95" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="C367" s="95" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="H367" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9519,11 +9513,11 @@
         <v>464</v>
       </c>
       <c r="C368" s="89" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D368" s="89"/>
       <c r="H368" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9531,13 +9525,13 @@
         <v>646</v>
       </c>
       <c r="B369" s="97" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C369" s="97" t="s">
         <v>464</v>
       </c>
       <c r="H369" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9545,13 +9539,13 @@
         <v>538</v>
       </c>
       <c r="B370" s="70" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C370" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H370" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9559,13 +9553,13 @@
         <v>644</v>
       </c>
       <c r="B371" s="89" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="C371" s="110" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="H371" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9573,16 +9567,16 @@
         <v>465</v>
       </c>
       <c r="B372" s="95" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="C372" s="95" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D372" s="111" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="H372" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9593,11 +9587,11 @@
         <v>464</v>
       </c>
       <c r="C373" s="89" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D373" s="89"/>
       <c r="H373" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9605,16 +9599,16 @@
         <v>648</v>
       </c>
       <c r="B374" s="95" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="C374" s="95" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D374" s="111" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="H374" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9622,10 +9616,10 @@
         <v>649</v>
       </c>
       <c r="B375" s="95" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="H375" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9633,24 +9627,24 @@
         <v>650</v>
       </c>
       <c r="B376" s="97" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C376" s="97" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="H376" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B377" s="95" t="s">
-        <v>865</v>
+      <c r="B377" s="133" t="s">
+        <v>891</v>
       </c>
       <c r="H377" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9665,7 +9659,7 @@
       <c r="E378" s="79"/>
       <c r="F378" s="79"/>
       <c r="H378" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9676,7 +9670,7 @@
         <v>259</v>
       </c>
       <c r="H379" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9687,7 +9681,7 @@
         <v>261</v>
       </c>
       <c r="H380" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9695,13 +9689,13 @@
         <v>302</v>
       </c>
       <c r="B381" s="97" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C381" s="97" t="s">
         <v>464</v>
       </c>
       <c r="H381" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9709,16 +9703,16 @@
         <v>358</v>
       </c>
       <c r="B382" s="113" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="C382" s="70" t="s">
         <v>724</v>
       </c>
       <c r="D382" s="113" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H382" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9726,15 +9720,15 @@
         <v>656</v>
       </c>
       <c r="B383" s="70" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="C383" s="136" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="D383" s="111"/>
       <c r="E383" s="70"/>
       <c r="H383" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9742,17 +9736,17 @@
         <v>519</v>
       </c>
       <c r="B384" s="95" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="C384" s="70" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="D384" s="110" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="E384" s="70"/>
       <c r="H384" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9760,16 +9754,16 @@
         <v>518</v>
       </c>
       <c r="B385" s="95" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C385" s="70" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="D385" s="111" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="H385" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9777,42 +9771,42 @@
         <v>654</v>
       </c>
       <c r="B386" s="95" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="C386" s="110" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="H386" s="118" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="70" t="s">
         <v>629</v>
       </c>
       <c r="B387" s="95" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C387" s="136" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="H387" s="118" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="70" t="s">
         <v>660</v>
       </c>
       <c r="B388" s="95" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C388" s="136" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="D388" s="89"/>
       <c r="H388" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9820,13 +9814,13 @@
         <v>647</v>
       </c>
       <c r="B389" s="74" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C389" s="74" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="H389" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9834,15 +9828,15 @@
         <v>661</v>
       </c>
       <c r="B390" s="115" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C390" s="70" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D390" s="101"/>
       <c r="E390" s="101"/>
       <c r="H390" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9853,7 +9847,7 @@
         <v>177</v>
       </c>
       <c r="H391" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9864,7 +9858,7 @@
         <v>723</v>
       </c>
       <c r="H392" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9875,10 +9869,10 @@
         <v>512</v>
       </c>
       <c r="C393" s="70" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="H393" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9889,10 +9883,10 @@
         <v>464</v>
       </c>
       <c r="C394" s="89" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H394" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9900,13 +9894,13 @@
         <v>668</v>
       </c>
       <c r="B395" s="133" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C395" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H395" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9914,13 +9908,13 @@
         <v>670</v>
       </c>
       <c r="B396" s="133" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C396" s="95" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="H396" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9928,16 +9922,16 @@
         <v>671</v>
       </c>
       <c r="B397" s="70" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C397" s="95" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D397" s="109" t="s">
-        <v>738</v>
+        <v>897</v>
       </c>
       <c r="H397" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9945,13 +9939,13 @@
         <v>672</v>
       </c>
       <c r="B398" s="70" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C398" s="109" t="s">
-        <v>738</v>
+        <v>897</v>
       </c>
       <c r="H398" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9959,10 +9953,10 @@
         <v>673</v>
       </c>
       <c r="B399" s="101" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="H399" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9970,13 +9964,13 @@
         <v>674</v>
       </c>
       <c r="B400" s="95" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C400" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H400" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9987,7 +9981,7 @@
         <v>723</v>
       </c>
       <c r="H401" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9998,18 +9992,18 @@
         <v>256</v>
       </c>
       <c r="H402" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="B403" s="95" t="s">
-        <v>744</v>
+      <c r="B403" s="133" t="s">
+        <v>893</v>
       </c>
       <c r="H403" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10017,16 +10011,16 @@
         <v>678</v>
       </c>
       <c r="B404" s="95" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="C404" s="95" t="s">
-        <v>826</v>
-      </c>
-      <c r="D404" s="95" t="s">
-        <v>731</v>
+        <v>817</v>
+      </c>
+      <c r="D404" s="110" t="s">
+        <v>723</v>
       </c>
       <c r="H404" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10034,13 +10028,13 @@
         <v>679</v>
       </c>
       <c r="B405" s="113" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="C405" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="H405" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10051,14 +10045,14 @@
         <v>681</v>
       </c>
       <c r="C406" s="103" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D406" s="110" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F406" s="94"/>
       <c r="H406" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10066,10 +10060,10 @@
         <v>682</v>
       </c>
       <c r="B407" s="95" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H407" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10077,14 +10071,14 @@
         <v>201</v>
       </c>
       <c r="B408" s="74" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="C408" s="110" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D408" s="70"/>
       <c r="H408" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10092,13 +10086,13 @@
         <v>202</v>
       </c>
       <c r="B409" s="74" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="C409" s="110" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H409" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10106,13 +10100,13 @@
         <v>685</v>
       </c>
       <c r="B410" s="74" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="C410" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H410" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10120,13 +10114,13 @@
         <v>683</v>
       </c>
       <c r="B411" s="74" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="C411" s="74" t="s">
         <v>684</v>
       </c>
       <c r="H411" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10134,10 +10128,10 @@
         <v>686</v>
       </c>
       <c r="B412" s="74" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="H412" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10148,7 +10142,7 @@
         <v>259</v>
       </c>
       <c r="H413" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10159,7 +10153,7 @@
         <v>256</v>
       </c>
       <c r="H414" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10167,13 +10161,13 @@
         <v>690</v>
       </c>
       <c r="B415" s="95" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="C415" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H415" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10181,10 +10175,10 @@
         <v>693</v>
       </c>
       <c r="B416" s="133" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="H416" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10192,13 +10186,13 @@
         <v>697</v>
       </c>
       <c r="B417" s="70" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C417" s="74" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="H417" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10206,10 +10200,10 @@
         <v>698</v>
       </c>
       <c r="B418" s="74" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="H418" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10217,13 +10211,13 @@
         <v>699</v>
       </c>
       <c r="B419" s="74" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C419" s="74" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="H419" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10231,13 +10225,13 @@
         <v>700</v>
       </c>
       <c r="B420" s="74" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="C420" s="74" t="s">
         <v>684</v>
       </c>
       <c r="H420" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10248,10 +10242,10 @@
         <v>684</v>
       </c>
       <c r="C421" s="95" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="H421" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10259,13 +10253,13 @@
         <v>702</v>
       </c>
       <c r="B422" s="74" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="C422" s="74" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="H422" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="423" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10273,13 +10267,13 @@
         <v>703</v>
       </c>
       <c r="B423" s="133" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C423" s="74" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="H423" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10290,7 +10284,7 @@
         <v>177</v>
       </c>
       <c r="H424" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10298,13 +10292,13 @@
         <v>706</v>
       </c>
       <c r="B425" s="70" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C425" s="133" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="H425" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10318,7 +10312,7 @@
         <v>723</v>
       </c>
       <c r="H426" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10329,13 +10323,13 @@
         <v>262</v>
       </c>
       <c r="C427" s="107" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="D427" s="95" t="s">
         <v>722</v>
       </c>
       <c r="H427" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10346,7 +10340,7 @@
         <v>723</v>
       </c>
       <c r="H428" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10354,16 +10348,16 @@
         <v>710</v>
       </c>
       <c r="B429" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="C429" s="70" t="s">
-        <v>732</v>
-      </c>
-      <c r="D429" s="95" t="s">
         <v>731</v>
       </c>
+      <c r="D429" s="110" t="s">
+        <v>723</v>
+      </c>
       <c r="H429" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10374,7 +10368,7 @@
         <v>723</v>
       </c>
       <c r="H430" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="431" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10382,13 +10376,13 @@
         <v>712</v>
       </c>
       <c r="B431" s="74" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C431" s="110" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H431" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="432" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10402,7 +10396,7 @@
         <v>723</v>
       </c>
       <c r="H432" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10413,18 +10407,17 @@
         <v>713</v>
       </c>
       <c r="C433" s="110" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="H433" s="118" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C433" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="B1:B433" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="General Платеж по кредиту (General_DIS)"/>
-        <filter val="General_Платеж по кредиту (General_DIS)"/>
+        <filter val="Genera Курьерская доставка (General_Express_Delivery)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0151BB-40DF-4FAD-901C-2B539A180442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAF902E-007B-410F-94D7-309EE1B1C87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="898">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2507,9 +2507,6 @@
     <t>по обеим, обе (Local_Both)</t>
   </si>
   <si>
-    <t>General_Подтверждение сим-карты (General_Sim_Confirmation)</t>
-  </si>
-  <si>
     <t>подтверждение симкарты (Local_Sim_Confirmation)</t>
   </si>
   <si>
@@ -2633,9 +2630,6 @@
     <t xml:space="preserve">Частично (Local_Partly) </t>
   </si>
   <si>
-    <t>General_Досрочка (General_PDP)</t>
-  </si>
-  <si>
     <t>Страхование (Local_Insurance)</t>
   </si>
   <si>
@@ -2864,9 +2858,6 @@
     <t>General Отмена доставки карты в отделение (General_Cancel_Card_Branch)</t>
   </si>
   <si>
-    <t>Genera Лимит карты (General_CARD_LIMIT_UKD)</t>
-  </si>
-  <si>
     <t>General Запрос кодового слова (General_Codeword_request)</t>
   </si>
   <si>
@@ -2883,6 +2874,12 @@
   </si>
   <si>
     <t>General Курьерская доставка (General_Express_Delivery)</t>
+  </si>
+  <si>
+    <t>General Лимит карты (General_CARD_LIMIT_UKD)</t>
+  </si>
+  <si>
+    <t>General Подтверждение сим-карты (General_Sim_Confirmation)</t>
   </si>
 </sst>
 </file>
@@ -3653,7 +3650,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>121207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3701,7 +3698,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>102567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3749,7 +3746,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>123848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3797,7 +3794,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>123848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3845,8 +3842,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>434</xdr:row>
-      <xdr:rowOff>132310</xdr:rowOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>317367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3893,8 +3890,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>434</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3941,8 +3938,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>434</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3989,7 +3986,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>126151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4095,6 +4092,307 @@
         <a:xfrm>
           <a:off x="12625917" y="67151250"/>
           <a:ext cx="304800" cy="312419"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="185057"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376A0BA1-6A3A-4DF3-8D4C-19408E4619FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9514114" y="185057"/>
+          <a:ext cx="304800" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="185057"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC07C0C-495E-4373-AAC8-342604478EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9514114" y="185057"/>
+          <a:ext cx="304800" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="185057"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBAD8B7-DFBD-4B37-AFEA-7082CB80539C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9514114" y="185057"/>
+          <a:ext cx="304800" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="185057"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F2E57A-B6E4-44FD-B980-F476A5765723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9514114" y="185057"/>
+          <a:ext cx="304800" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="185057"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F31E6B7-53A4-49D0-A809-83D5BAFC07D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9514114" y="185057"/>
+          <a:ext cx="304800" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="185057"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4A3231-4D60-4E82-AD16-22B74A28B41A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9514114" y="185057"/>
+          <a:ext cx="304800" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="185057"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F046A9F-533F-4999-849B-CCE7DAAD69E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9514114" y="185057"/>
+          <a:ext cx="304800" cy="185057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4398,7 +4696,7 @@
   <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B438" sqref="B438"/>
+      <selection activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4416,28 +4714,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>870</v>
+      </c>
+      <c r="C1" s="119" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="D1" s="119" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="E1" s="119" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="F1" s="119" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="G1" s="119" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="H1" s="119" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="119" t="s">
-        <v>877</v>
-      </c>
-      <c r="H1" s="119" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4451,7 +4749,7 @@
         <v>723</v>
       </c>
       <c r="H2" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4468,7 +4766,7 @@
         <v>442</v>
       </c>
       <c r="H3" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -4486,7 +4784,7 @@
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
       <c r="H4" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4497,7 +4795,7 @@
         <v>742</v>
       </c>
       <c r="H5" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4508,7 +4806,7 @@
         <v>742</v>
       </c>
       <c r="H6" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4523,7 +4821,7 @@
       </c>
       <c r="G7" s="76"/>
       <c r="H7" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4534,7 +4832,7 @@
         <v>177</v>
       </c>
       <c r="H8" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4548,7 +4846,7 @@
         <v>256</v>
       </c>
       <c r="H9" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4562,7 +4860,7 @@
         <v>256</v>
       </c>
       <c r="H10" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4573,7 +4871,7 @@
         <v>730</v>
       </c>
       <c r="H11" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4584,7 +4882,7 @@
         <v>256</v>
       </c>
       <c r="H12" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4592,10 +4890,10 @@
         <v>333</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H13" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4603,10 +4901,10 @@
         <v>421</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H14" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4617,7 +4915,7 @@
         <v>723</v>
       </c>
       <c r="H15" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4634,18 +4932,18 @@
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="H16" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="113" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B17" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H17" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4659,7 +4957,7 @@
         <v>254</v>
       </c>
       <c r="H18" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4667,13 +4965,13 @@
         <v>186</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C19" s="95" t="s">
         <v>733</v>
       </c>
       <c r="H19" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4684,7 +4982,7 @@
         <v>177</v>
       </c>
       <c r="H20" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4695,7 +4993,7 @@
         <v>177</v>
       </c>
       <c r="H21" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4706,7 +5004,7 @@
         <v>734</v>
       </c>
       <c r="H22" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4717,10 +5015,10 @@
         <v>735</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H23" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4734,7 +5032,7 @@
         <v>256</v>
       </c>
       <c r="H24" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4745,7 +5043,7 @@
         <v>177</v>
       </c>
       <c r="H25" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4756,7 +5054,7 @@
         <v>177</v>
       </c>
       <c r="H26" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4764,10 +5062,10 @@
         <v>193</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H27" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4781,7 +5079,7 @@
         <v>737</v>
       </c>
       <c r="H28" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4792,7 +5090,7 @@
         <v>723</v>
       </c>
       <c r="H29" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4803,7 +5101,7 @@
         <v>177</v>
       </c>
       <c r="H30" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4817,7 +5115,7 @@
         <v>738</v>
       </c>
       <c r="H31" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4828,7 +5126,7 @@
         <v>684</v>
       </c>
       <c r="H32" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4843,7 +5141,7 @@
       </c>
       <c r="D33" s="70"/>
       <c r="H33" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4851,10 +5149,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="133" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="H34" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4868,18 +5166,18 @@
         <v>741</v>
       </c>
       <c r="H35" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="113" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B36" s="95" t="s">
         <v>742</v>
       </c>
       <c r="H36" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4887,13 +5185,13 @@
         <v>180</v>
       </c>
       <c r="B37" s="133" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C37" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H37" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4907,7 +5205,7 @@
         <v>733</v>
       </c>
       <c r="H38" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4918,7 +5216,7 @@
         <v>177</v>
       </c>
       <c r="H39" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4926,13 +5224,13 @@
         <v>426</v>
       </c>
       <c r="B40" s="133" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C40" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H40" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4940,11 +5238,11 @@
         <v>665</v>
       </c>
       <c r="B41" s="133" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C41" s="70"/>
       <c r="H41" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4955,7 +5253,7 @@
         <v>177</v>
       </c>
       <c r="H42" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4963,13 +5261,13 @@
         <v>195</v>
       </c>
       <c r="B43" s="133" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C43" s="70" t="s">
         <v>743</v>
       </c>
       <c r="H43" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -4980,7 +5278,7 @@
         <v>177</v>
       </c>
       <c r="H44" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4988,10 +5286,10 @@
         <v>197</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H45" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4999,13 +5297,13 @@
         <v>198</v>
       </c>
       <c r="B46" s="133" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C46" s="70" t="s">
         <v>744</v>
       </c>
       <c r="H46" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5019,7 +5317,7 @@
         <v>256</v>
       </c>
       <c r="H47" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5030,10 +5328,10 @@
         <v>746</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H48" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5041,10 +5339,10 @@
         <v>106</v>
       </c>
       <c r="B49" s="95" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H49" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5061,7 +5359,7 @@
         <v>260</v>
       </c>
       <c r="H50" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5072,21 +5370,21 @@
         <v>177</v>
       </c>
       <c r="H51" s="118" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="95" t="s">
         <v>199</v>
       </c>
       <c r="B52" s="133" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C52" s="95" t="s">
         <v>482</v>
       </c>
       <c r="H52" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5097,7 +5395,7 @@
         <v>177</v>
       </c>
       <c r="H53" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5108,7 +5406,7 @@
         <v>177</v>
       </c>
       <c r="H54" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5116,10 +5414,10 @@
         <v>226</v>
       </c>
       <c r="B55" s="133" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H55" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5133,7 +5431,7 @@
         <v>738</v>
       </c>
       <c r="H56" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5144,7 +5442,7 @@
         <v>177</v>
       </c>
       <c r="H57" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5158,7 +5456,7 @@
         <v>590</v>
       </c>
       <c r="H58" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5169,7 +5467,7 @@
         <v>177</v>
       </c>
       <c r="H59" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5180,7 +5478,7 @@
         <v>723</v>
       </c>
       <c r="H60" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -5191,12 +5489,12 @@
         <v>748</v>
       </c>
       <c r="C61" s="136" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="80"/>
       <c r="H61" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5204,13 +5502,13 @@
         <v>117</v>
       </c>
       <c r="B62" s="115" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C62" s="113" t="s">
         <v>749</v>
       </c>
       <c r="H62" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5221,7 +5519,7 @@
         <v>259</v>
       </c>
       <c r="H63" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5229,13 +5527,13 @@
         <v>207</v>
       </c>
       <c r="B64" s="115" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C64" s="113" t="s">
         <v>749</v>
       </c>
       <c r="H64" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5243,10 +5541,10 @@
         <v>208</v>
       </c>
       <c r="B65" s="133" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H65" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5260,7 +5558,7 @@
         <v>727</v>
       </c>
       <c r="H66" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5268,10 +5566,10 @@
         <v>210</v>
       </c>
       <c r="B67" s="133" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="H67" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5279,13 +5577,13 @@
         <v>211</v>
       </c>
       <c r="B68" s="133" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C68" s="70" t="s">
         <v>743</v>
       </c>
       <c r="H68" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5296,7 +5594,7 @@
         <v>177</v>
       </c>
       <c r="H69" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5304,13 +5602,13 @@
         <v>213</v>
       </c>
       <c r="B70" s="133" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C70" s="70" t="s">
         <v>750</v>
       </c>
       <c r="H70" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5318,13 +5616,13 @@
         <v>214</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C71" s="70" t="s">
         <v>750</v>
       </c>
       <c r="H71" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5338,7 +5636,7 @@
         <v>751</v>
       </c>
       <c r="H72" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5349,7 +5647,7 @@
         <v>263</v>
       </c>
       <c r="H73" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5363,7 +5661,7 @@
         <v>738</v>
       </c>
       <c r="H74" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5371,13 +5669,13 @@
         <v>224</v>
       </c>
       <c r="B75" s="133" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C75" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H75" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5388,7 +5686,7 @@
         <v>177</v>
       </c>
       <c r="H76" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5402,7 +5700,7 @@
         <v>752</v>
       </c>
       <c r="H77" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5416,7 +5714,7 @@
         <v>738</v>
       </c>
       <c r="H78" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5436,7 +5734,7 @@
         <v>747</v>
       </c>
       <c r="H79" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5447,7 +5745,7 @@
         <v>177</v>
       </c>
       <c r="H80" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5461,29 +5759,29 @@
         <v>755</v>
       </c>
       <c r="H81" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="113" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B82" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H82" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="113" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B83" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H83" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5497,7 +5795,7 @@
         <v>590</v>
       </c>
       <c r="H84" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5511,30 +5809,30 @@
         <v>723</v>
       </c>
       <c r="H85" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="113" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B86" s="95" t="s">
         <v>177</v>
       </c>
       <c r="H86" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="113" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B87" s="95" t="s">
         <v>177</v>
       </c>
       <c r="G87" s="77"/>
       <c r="H87" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5545,7 +5843,7 @@
         <v>177</v>
       </c>
       <c r="H88" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5556,7 +5854,7 @@
         <v>177</v>
       </c>
       <c r="H89" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5571,7 +5869,7 @@
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
       <c r="H90" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5582,7 +5880,7 @@
         <v>177</v>
       </c>
       <c r="H91" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5596,7 +5894,7 @@
         <v>758</v>
       </c>
       <c r="H92" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5610,7 +5908,7 @@
         <v>732</v>
       </c>
       <c r="H93" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5618,10 +5916,10 @@
         <v>159</v>
       </c>
       <c r="B94" s="133" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="H94" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5635,7 +5933,7 @@
         <v>260</v>
       </c>
       <c r="H95" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5649,7 +5947,7 @@
         <v>732</v>
       </c>
       <c r="H96" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5660,7 +5958,7 @@
         <v>177</v>
       </c>
       <c r="H97" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5671,7 +5969,7 @@
         <v>177</v>
       </c>
       <c r="H98" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5682,7 +5980,7 @@
         <v>177</v>
       </c>
       <c r="H99" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5690,13 +5988,13 @@
         <v>242</v>
       </c>
       <c r="B100" s="133" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C100" s="70" t="s">
         <v>750</v>
       </c>
       <c r="H100" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5707,7 +6005,7 @@
         <v>177</v>
       </c>
       <c r="H101" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5718,7 +6016,7 @@
         <v>177</v>
       </c>
       <c r="H102" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5729,7 +6027,7 @@
         <v>177</v>
       </c>
       <c r="H103" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5740,7 +6038,7 @@
         <v>177</v>
       </c>
       <c r="H104" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5751,10 +6049,10 @@
         <v>746</v>
       </c>
       <c r="C105" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H105" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5762,13 +6060,13 @@
         <v>248</v>
       </c>
       <c r="B106" s="133" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C106" s="70" t="s">
         <v>750</v>
       </c>
       <c r="H106" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5776,13 +6074,13 @@
         <v>235</v>
       </c>
       <c r="B107" s="115" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C107" s="113" t="s">
         <v>749</v>
       </c>
       <c r="H107" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5793,7 +6091,7 @@
         <v>261</v>
       </c>
       <c r="H108" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5807,7 +6105,7 @@
         <v>260</v>
       </c>
       <c r="H109" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5818,7 +6116,7 @@
         <v>177</v>
       </c>
       <c r="H110" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5832,7 +6130,7 @@
         <v>590</v>
       </c>
       <c r="H111" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5843,7 +6141,7 @@
         <v>177</v>
       </c>
       <c r="H112" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5857,7 +6155,7 @@
         <v>760</v>
       </c>
       <c r="H113" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5868,7 +6166,7 @@
         <v>261</v>
       </c>
       <c r="H114" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5882,7 +6180,7 @@
         <v>590</v>
       </c>
       <c r="H115" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5893,24 +6191,24 @@
         <v>746</v>
       </c>
       <c r="C116" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H116" s="118" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="70" t="s">
         <v>268</v>
       </c>
       <c r="B117" s="133" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C117" s="95" t="s">
         <v>482</v>
       </c>
       <c r="H117" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5924,7 +6222,7 @@
         <v>531</v>
       </c>
       <c r="H118" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5935,7 +6233,7 @@
         <v>177</v>
       </c>
       <c r="H119" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5949,7 +6247,7 @@
         <v>760</v>
       </c>
       <c r="H120" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5963,7 +6261,7 @@
         <v>762</v>
       </c>
       <c r="H121" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5977,7 +6275,7 @@
         <v>764</v>
       </c>
       <c r="H122" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -5988,10 +6286,10 @@
         <v>765</v>
       </c>
       <c r="C123" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H123" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6002,7 +6300,7 @@
         <v>766</v>
       </c>
       <c r="H124" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6013,7 +6311,7 @@
         <v>274</v>
       </c>
       <c r="H125" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6024,7 +6322,7 @@
         <v>767</v>
       </c>
       <c r="H126" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6047,7 +6345,7 @@
         <v>723</v>
       </c>
       <c r="H127" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6058,7 +6356,7 @@
         <v>177</v>
       </c>
       <c r="H128" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -6072,7 +6370,7 @@
         <v>751</v>
       </c>
       <c r="H129" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6086,7 +6384,7 @@
         <v>764</v>
       </c>
       <c r="H130" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6097,7 +6395,7 @@
         <v>177</v>
       </c>
       <c r="H131" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6108,7 +6406,7 @@
         <v>177</v>
       </c>
       <c r="H132" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6119,7 +6417,7 @@
         <v>723</v>
       </c>
       <c r="H133" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6130,21 +6428,21 @@
         <v>177</v>
       </c>
       <c r="H134" s="118" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="70" t="s">
         <v>294</v>
       </c>
       <c r="B135" s="133" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C135" s="95" t="s">
         <v>482</v>
       </c>
       <c r="H135" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6155,10 +6453,10 @@
         <v>764</v>
       </c>
       <c r="C136" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H136" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6172,7 +6470,7 @@
         <v>752</v>
       </c>
       <c r="H137" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6186,7 +6484,7 @@
         <v>723</v>
       </c>
       <c r="H138" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6197,10 +6495,10 @@
         <v>764</v>
       </c>
       <c r="C139" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H139" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6214,7 +6512,7 @@
         <v>764</v>
       </c>
       <c r="H140" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6228,7 +6526,7 @@
         <v>738</v>
       </c>
       <c r="H141" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6239,7 +6537,7 @@
         <v>261</v>
       </c>
       <c r="H142" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6250,7 +6548,7 @@
         <v>177</v>
       </c>
       <c r="H143" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6265,7 +6563,7 @@
       </c>
       <c r="E144" s="70"/>
       <c r="H144" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6279,7 +6577,7 @@
         <v>256</v>
       </c>
       <c r="H145" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6290,7 +6588,7 @@
         <v>723</v>
       </c>
       <c r="H146" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6301,7 +6599,7 @@
         <v>723</v>
       </c>
       <c r="H147" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6312,7 +6610,7 @@
         <v>177</v>
       </c>
       <c r="H148" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6326,7 +6624,7 @@
         <v>255</v>
       </c>
       <c r="H149" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6337,7 +6635,7 @@
         <v>177</v>
       </c>
       <c r="H150" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6348,24 +6646,24 @@
         <v>764</v>
       </c>
       <c r="C151" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H151" s="118" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B152" s="95" t="s">
+      <c r="B152" s="133" t="s">
+        <v>897</v>
+      </c>
+      <c r="C152" s="74" t="s">
         <v>773</v>
       </c>
-      <c r="C152" s="74" t="s">
-        <v>774</v>
-      </c>
       <c r="H152" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6373,13 +6671,13 @@
         <v>315</v>
       </c>
       <c r="B153" s="133" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C153" s="70" t="s">
         <v>750</v>
       </c>
       <c r="H153" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6387,13 +6685,13 @@
         <v>318</v>
       </c>
       <c r="B154" s="133" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C154" s="133" t="s">
         <v>750</v>
       </c>
       <c r="H154" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6404,21 +6702,21 @@
         <v>261</v>
       </c>
       <c r="H155" s="118" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
         <v>430</v>
       </c>
-      <c r="B156" s="95" t="s">
+      <c r="B156" s="133" t="s">
+        <v>897</v>
+      </c>
+      <c r="C156" s="74" t="s">
         <v>773</v>
       </c>
-      <c r="C156" s="74" t="s">
-        <v>774</v>
-      </c>
       <c r="H156" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6426,13 +6724,13 @@
         <v>312</v>
       </c>
       <c r="B157" s="115" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C157" s="113" t="s">
         <v>749</v>
       </c>
       <c r="H157" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6443,7 +6741,7 @@
         <v>723</v>
       </c>
       <c r="H158" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6457,7 +6755,7 @@
         <v>590</v>
       </c>
       <c r="H159" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6468,7 +6766,7 @@
         <v>723</v>
       </c>
       <c r="H160" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6479,7 +6777,7 @@
         <v>177</v>
       </c>
       <c r="H161" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6493,7 +6791,7 @@
         <v>737</v>
       </c>
       <c r="H162" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6501,10 +6799,10 @@
         <v>323</v>
       </c>
       <c r="B163" s="113" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H163" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6518,7 +6816,7 @@
         <v>590</v>
       </c>
       <c r="H164" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6532,7 +6830,7 @@
         <v>737</v>
       </c>
       <c r="H165" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6540,10 +6838,10 @@
         <v>326</v>
       </c>
       <c r="B166" s="133" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H166" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6557,7 +6855,7 @@
         <v>590</v>
       </c>
       <c r="H167" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6565,10 +6863,10 @@
         <v>328</v>
       </c>
       <c r="B168" s="133" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H168" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6579,7 +6877,7 @@
         <v>263</v>
       </c>
       <c r="H169" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6590,7 +6888,7 @@
         <v>742</v>
       </c>
       <c r="H170" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6604,7 +6902,7 @@
         <v>738</v>
       </c>
       <c r="H171" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6612,13 +6910,13 @@
         <v>431</v>
       </c>
       <c r="B172" s="115" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C172" s="95" t="s">
         <v>749</v>
       </c>
       <c r="H172" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6629,7 +6927,7 @@
         <v>177</v>
       </c>
       <c r="H173" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6640,7 +6938,7 @@
         <v>723</v>
       </c>
       <c r="H174" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6648,10 +6946,10 @@
         <v>342</v>
       </c>
       <c r="B175" s="95" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H175" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6662,7 +6960,7 @@
         <v>723</v>
       </c>
       <c r="H176" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6673,7 +6971,7 @@
         <v>177</v>
       </c>
       <c r="H177" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6687,7 +6985,7 @@
         <v>751</v>
       </c>
       <c r="H178" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6698,7 +6996,7 @@
         <v>177</v>
       </c>
       <c r="H179" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6709,7 +7007,7 @@
         <v>767</v>
       </c>
       <c r="H180" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6717,10 +7015,10 @@
         <v>348</v>
       </c>
       <c r="B181" s="95" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H181" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6734,7 +7032,7 @@
         <v>764</v>
       </c>
       <c r="H182" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6745,7 +7043,7 @@
         <v>177</v>
       </c>
       <c r="H183" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6753,10 +7051,10 @@
         <v>351</v>
       </c>
       <c r="B184" s="95" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H184" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6764,16 +7062,16 @@
         <v>352</v>
       </c>
       <c r="B185" s="70" t="s">
+        <v>778</v>
+      </c>
+      <c r="C185" s="95" t="s">
         <v>779</v>
       </c>
-      <c r="C185" s="95" t="s">
+      <c r="D185" s="110" t="s">
         <v>780</v>
       </c>
-      <c r="D185" s="110" t="s">
-        <v>781</v>
-      </c>
       <c r="H185" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6781,16 +7079,16 @@
         <v>354</v>
       </c>
       <c r="B186" s="95" t="s">
+        <v>781</v>
+      </c>
+      <c r="C186" s="95" t="s">
         <v>782</v>
-      </c>
-      <c r="C186" s="95" t="s">
-        <v>783</v>
       </c>
       <c r="D186" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H186" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6798,11 +7096,11 @@
         <v>355</v>
       </c>
       <c r="B187" s="96" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C187" s="70"/>
       <c r="H187" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6813,7 +7111,7 @@
         <v>177</v>
       </c>
       <c r="H188" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6827,7 +7125,7 @@
         <v>737</v>
       </c>
       <c r="H189" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6841,7 +7139,7 @@
         <v>760</v>
       </c>
       <c r="H190" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6853,7 +7151,7 @@
       </c>
       <c r="C191" s="70"/>
       <c r="H191" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6861,10 +7159,10 @@
         <v>433</v>
       </c>
       <c r="B192" s="95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H192" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6878,7 +7176,7 @@
         <v>751</v>
       </c>
       <c r="H193" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6889,7 +7187,7 @@
         <v>723</v>
       </c>
       <c r="H194" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6905,7 +7203,7 @@
       <c r="F195" s="91"/>
       <c r="G195" s="91"/>
       <c r="H195" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6919,7 +7217,7 @@
         <v>758</v>
       </c>
       <c r="H196" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6930,10 +7228,10 @@
         <v>733</v>
       </c>
       <c r="C197" s="110" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H197" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6947,7 +7245,7 @@
         <v>752</v>
       </c>
       <c r="H198" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6955,7 +7253,7 @@
         <v>437</v>
       </c>
       <c r="B199" s="70" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C199" s="95" t="s">
         <v>735</v>
@@ -6964,7 +7262,7 @@
         <v>752</v>
       </c>
       <c r="H199" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="91" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6980,7 +7278,7 @@
       <c r="F200" s="95"/>
       <c r="G200" s="95"/>
       <c r="H200" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7006,7 +7304,7 @@
         <v>723</v>
       </c>
       <c r="H201" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7017,13 +7315,13 @@
         <v>442</v>
       </c>
       <c r="C202" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D202" s="70" t="s">
         <v>724</v>
       </c>
       <c r="H202" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7034,10 +7332,10 @@
         <v>746</v>
       </c>
       <c r="C203" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H203" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7045,14 +7343,14 @@
         <v>444</v>
       </c>
       <c r="B204" s="95" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C204" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E204" s="70"/>
       <c r="H204" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7060,13 +7358,13 @@
         <v>445</v>
       </c>
       <c r="B205" s="113" t="s">
+        <v>788</v>
+      </c>
+      <c r="C205" s="113" t="s">
         <v>789</v>
       </c>
-      <c r="C205" s="113" t="s">
-        <v>790</v>
-      </c>
       <c r="H205" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7074,7 +7372,7 @@
         <v>569</v>
       </c>
       <c r="B206" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C206" s="95" t="s">
         <v>754</v>
@@ -7089,7 +7387,7 @@
         <v>260</v>
       </c>
       <c r="H206" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7109,7 +7407,7 @@
         <v>747</v>
       </c>
       <c r="H207" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7123,7 +7421,7 @@
         <v>732</v>
       </c>
       <c r="H208" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7134,16 +7432,16 @@
         <v>762</v>
       </c>
       <c r="C209" s="95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D209" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E209" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H209" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7154,15 +7452,15 @@
         <v>723</v>
       </c>
       <c r="H210" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="95" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H211" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7170,16 +7468,16 @@
         <v>446</v>
       </c>
       <c r="B212" s="133" t="s">
+        <v>793</v>
+      </c>
+      <c r="C212" s="113" t="s">
         <v>794</v>
       </c>
-      <c r="C212" s="113" t="s">
+      <c r="D212" s="113" t="s">
         <v>795</v>
       </c>
-      <c r="D212" s="113" t="s">
-        <v>796</v>
-      </c>
       <c r="H212" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7194,7 +7492,7 @@
       </c>
       <c r="D213" s="89"/>
       <c r="H213" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7205,10 +7503,10 @@
         <v>483</v>
       </c>
       <c r="C214" s="70" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H214" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7225,7 +7523,7 @@
         <v>590</v>
       </c>
       <c r="H215" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7236,11 +7534,11 @@
         <v>772</v>
       </c>
       <c r="C216" s="110" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E216" s="78"/>
       <c r="H216" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7254,7 +7552,7 @@
         <v>751</v>
       </c>
       <c r="H217" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7269,7 +7567,7 @@
       </c>
       <c r="G218" s="80"/>
       <c r="H218" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7284,7 +7582,7 @@
       </c>
       <c r="D219" s="80"/>
       <c r="H219" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7292,17 +7590,17 @@
         <v>562</v>
       </c>
       <c r="B220" s="95" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C220" s="95" t="s">
         <v>736</v>
       </c>
       <c r="D220" s="110" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F220" s="78"/>
       <c r="H220" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7313,10 +7611,10 @@
         <v>747</v>
       </c>
       <c r="C221" s="136" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H221" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7327,13 +7625,13 @@
         <v>736</v>
       </c>
       <c r="C222" s="95" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D222" s="110" t="s">
         <v>256</v>
       </c>
       <c r="H222" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7341,10 +7639,10 @@
         <v>455</v>
       </c>
       <c r="B223" s="95" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H223" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7358,7 +7656,7 @@
         <v>590</v>
       </c>
       <c r="H224" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7372,7 +7670,7 @@
         <v>723</v>
       </c>
       <c r="H225" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7380,13 +7678,13 @@
         <v>458</v>
       </c>
       <c r="B226" s="95" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C226" s="110" t="s">
         <v>259</v>
       </c>
       <c r="H226" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7397,7 +7695,7 @@
         <v>723</v>
       </c>
       <c r="H227" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7408,10 +7706,10 @@
         <v>764</v>
       </c>
       <c r="C228" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H228" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7419,13 +7717,13 @@
         <v>461</v>
       </c>
       <c r="B229" s="95" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C229" s="95" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H229" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7433,16 +7731,16 @@
         <v>462</v>
       </c>
       <c r="B230" s="95" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C230" s="95" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D230" s="110" t="s">
         <v>259</v>
       </c>
       <c r="H230" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7456,7 +7754,7 @@
         <v>464</v>
       </c>
       <c r="H231" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7478,7 +7776,7 @@
       <c r="F232" s="70"/>
       <c r="G232" s="70"/>
       <c r="H232" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7492,7 +7790,7 @@
         <v>590</v>
       </c>
       <c r="H233" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7503,10 +7801,10 @@
         <v>439</v>
       </c>
       <c r="C234" s="95" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H234" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7514,13 +7812,13 @@
         <v>557</v>
       </c>
       <c r="B235" s="70" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C235" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H235" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7531,10 +7829,10 @@
         <v>739</v>
       </c>
       <c r="C236" s="110" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H236" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7545,10 +7843,10 @@
         <v>759</v>
       </c>
       <c r="C237" s="110" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H237" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7556,13 +7854,13 @@
         <v>487</v>
       </c>
       <c r="B238" s="98" t="s">
+        <v>779</v>
+      </c>
+      <c r="C238" s="110" t="s">
         <v>780</v>
       </c>
-      <c r="C238" s="110" t="s">
-        <v>781</v>
-      </c>
       <c r="H238" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7579,7 +7877,7 @@
         <v>442</v>
       </c>
       <c r="H239" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7587,13 +7885,13 @@
         <v>488</v>
       </c>
       <c r="B240" s="98" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C240" s="110" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H240" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7604,10 +7902,10 @@
         <v>746</v>
       </c>
       <c r="C241" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H241" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7618,10 +7916,10 @@
         <v>746</v>
       </c>
       <c r="C242" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H242" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7629,16 +7927,16 @@
         <v>526</v>
       </c>
       <c r="B243" s="70" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C243" s="70" t="s">
         <v>746</v>
       </c>
       <c r="D243" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H243" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7655,7 +7953,7 @@
         <v>442</v>
       </c>
       <c r="H244" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7666,11 +7964,11 @@
         <v>746</v>
       </c>
       <c r="C245" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D245" s="110"/>
       <c r="H245" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7684,7 +7982,7 @@
         <v>723</v>
       </c>
       <c r="H246" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7695,13 +7993,13 @@
         <v>770</v>
       </c>
       <c r="C247" s="70" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D247" s="110" t="s">
         <v>439</v>
       </c>
       <c r="H247" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7709,16 +8007,16 @@
         <v>522</v>
       </c>
       <c r="B248" s="97" t="s">
+        <v>778</v>
+      </c>
+      <c r="C248" s="99" t="s">
         <v>779</v>
       </c>
-      <c r="C248" s="99" t="s">
+      <c r="D248" s="110" t="s">
         <v>780</v>
       </c>
-      <c r="D248" s="110" t="s">
-        <v>781</v>
-      </c>
       <c r="H248" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7735,13 +8033,13 @@
         <v>759</v>
       </c>
       <c r="E249" s="70" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F249" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H249" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7749,10 +8047,10 @@
         <v>494</v>
       </c>
       <c r="B250" s="70" t="s">
+        <v>785</v>
+      </c>
+      <c r="C250" s="70" t="s">
         <v>786</v>
-      </c>
-      <c r="C250" s="70" t="s">
-        <v>787</v>
       </c>
       <c r="D250" s="70" t="s">
         <v>756</v>
@@ -7761,7 +8059,7 @@
         <v>723</v>
       </c>
       <c r="H250" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7775,7 +8073,7 @@
       <c r="D251" s="70"/>
       <c r="E251" s="70"/>
       <c r="H251" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7787,7 +8085,7 @@
       <c r="D252" s="70"/>
       <c r="E252" s="70"/>
       <c r="H252" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7795,15 +8093,15 @@
         <v>496</v>
       </c>
       <c r="B253" s="70" t="s">
+        <v>807</v>
+      </c>
+      <c r="C253" s="70" t="s">
         <v>808</v>
-      </c>
-      <c r="C253" s="70" t="s">
-        <v>809</v>
       </c>
       <c r="D253" s="70"/>
       <c r="E253" s="70"/>
       <c r="H253" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7819,7 +8117,7 @@
       <c r="D254" s="70"/>
       <c r="E254" s="70"/>
       <c r="H254" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7827,17 +8125,17 @@
         <v>497</v>
       </c>
       <c r="B255" s="70" t="s">
+        <v>809</v>
+      </c>
+      <c r="C255" s="70" t="s">
         <v>810</v>
-      </c>
-      <c r="C255" s="70" t="s">
-        <v>811</v>
       </c>
       <c r="D255" s="110" t="s">
         <v>723</v>
       </c>
       <c r="E255" s="70"/>
       <c r="H255" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7848,12 +8146,12 @@
         <v>747</v>
       </c>
       <c r="C256" s="136" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
       <c r="H256" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7867,7 +8165,7 @@
       <c r="D257" s="70"/>
       <c r="E257" s="70"/>
       <c r="H257" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7875,7 +8173,7 @@
         <v>500</v>
       </c>
       <c r="B258" s="70" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C258" s="70" t="s">
         <v>735</v>
@@ -7885,7 +8183,7 @@
       </c>
       <c r="E258" s="70"/>
       <c r="H258" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7893,7 +8191,7 @@
         <v>501</v>
       </c>
       <c r="B259" s="115" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C259" s="70" t="s">
         <v>749</v>
@@ -7901,7 +8199,7 @@
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
       <c r="H259" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7909,13 +8207,13 @@
         <v>502</v>
       </c>
       <c r="B260" s="70" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C260" s="70"/>
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
       <c r="H260" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7923,15 +8221,15 @@
         <v>511</v>
       </c>
       <c r="B261" s="70" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C261" s="136" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
       <c r="H261" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7942,12 +8240,12 @@
         <v>512</v>
       </c>
       <c r="C262" s="70" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
       <c r="H262" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7958,16 +8256,16 @@
         <v>483</v>
       </c>
       <c r="C263" s="70" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D263" s="70" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E263" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H263" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7975,7 +8273,7 @@
         <v>514</v>
       </c>
       <c r="B264" s="70" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C264" s="70" t="s">
         <v>723</v>
@@ -7983,7 +8281,7 @@
       <c r="D264" s="70"/>
       <c r="E264" s="70"/>
       <c r="H264" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7991,19 +8289,19 @@
         <v>516</v>
       </c>
       <c r="B265" s="70" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C265" s="70" t="s">
         <v>731</v>
       </c>
       <c r="D265" s="70" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E265" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H265" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8017,7 +8315,7 @@
       <c r="D266" s="70"/>
       <c r="E266" s="70"/>
       <c r="H266" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8028,30 +8326,30 @@
         <v>770</v>
       </c>
       <c r="C267" s="70" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D267" s="70" t="s">
         <v>481</v>
       </c>
       <c r="E267" s="70"/>
       <c r="H267" s="118" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="B268" s="70" t="s">
+      <c r="B268" s="133" t="s">
+        <v>897</v>
+      </c>
+      <c r="C268" s="74" t="s">
         <v>773</v>
-      </c>
-      <c r="C268" s="74" t="s">
-        <v>774</v>
       </c>
       <c r="D268" s="70"/>
       <c r="E268" s="70"/>
       <c r="H268" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8067,7 +8365,7 @@
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
       <c r="H269" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8081,13 +8379,13 @@
         <v>733</v>
       </c>
       <c r="D270" s="133" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E270" s="70" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H270" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8101,11 +8399,11 @@
         <v>748</v>
       </c>
       <c r="D271" s="70" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E271" s="70"/>
       <c r="H271" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8113,7 +8411,7 @@
         <v>552</v>
       </c>
       <c r="B272" s="133" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C272" s="70" t="s">
         <v>750</v>
@@ -8121,7 +8419,7 @@
       <c r="D272" s="70"/>
       <c r="E272" s="70"/>
       <c r="H272" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8129,17 +8427,17 @@
         <v>704</v>
       </c>
       <c r="B273" s="133" t="s">
+        <v>793</v>
+      </c>
+      <c r="C273" s="113" t="s">
         <v>794</v>
       </c>
-      <c r="C273" s="113" t="s">
-        <v>795</v>
-      </c>
       <c r="D273" s="70" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E273" s="70"/>
       <c r="H273" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8147,35 +8445,35 @@
         <v>551</v>
       </c>
       <c r="B274" s="133" t="s">
+        <v>793</v>
+      </c>
+      <c r="C274" s="113" t="s">
         <v>794</v>
       </c>
-      <c r="C274" s="113" t="s">
+      <c r="D274" s="70" t="s">
         <v>795</v>
       </c>
-      <c r="D274" s="70" t="s">
-        <v>796</v>
-      </c>
       <c r="E274" s="70" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H274" s="118" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="70" t="s">
         <v>550</v>
       </c>
-      <c r="B275" s="70" t="s">
+      <c r="B275" s="133" t="s">
+        <v>897</v>
+      </c>
+      <c r="C275" s="74" t="s">
         <v>773</v>
-      </c>
-      <c r="C275" s="74" t="s">
-        <v>774</v>
       </c>
       <c r="D275" s="70"/>
       <c r="E275" s="70"/>
       <c r="H275" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8191,7 +8489,7 @@
       <c r="D276" s="70"/>
       <c r="E276" s="70"/>
       <c r="H276" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8205,7 +8503,7 @@
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
       <c r="H277" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8219,7 +8517,7 @@
       <c r="D278" s="70"/>
       <c r="E278" s="70"/>
       <c r="H278" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8230,14 +8528,14 @@
         <v>748</v>
       </c>
       <c r="C279" s="70" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D279" s="110" t="s">
         <v>684</v>
       </c>
       <c r="E279" s="70"/>
       <c r="H279" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8245,15 +8543,15 @@
         <v>536</v>
       </c>
       <c r="B280" s="70" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C280" s="110" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
       <c r="H280" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8264,12 +8562,12 @@
         <v>439</v>
       </c>
       <c r="C281" s="70" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
       <c r="H281" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8277,7 +8575,7 @@
         <v>548</v>
       </c>
       <c r="B282" s="70" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C282" s="70" t="s">
         <v>770</v>
@@ -8287,7 +8585,7 @@
       </c>
       <c r="E282" s="70"/>
       <c r="H282" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8295,15 +8593,15 @@
         <v>553</v>
       </c>
       <c r="B283" s="70" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C283" s="110" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D283" s="70"/>
       <c r="E283" s="70"/>
       <c r="H283" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8311,7 +8609,7 @@
         <v>546</v>
       </c>
       <c r="B284" s="70" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C284" s="70" t="s">
         <v>770</v>
@@ -8321,7 +8619,7 @@
       </c>
       <c r="E284" s="70"/>
       <c r="H284" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8337,7 +8635,7 @@
       <c r="D285" s="70"/>
       <c r="E285" s="70"/>
       <c r="H285" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8353,7 +8651,7 @@
       <c r="D286" s="70"/>
       <c r="E286" s="70"/>
       <c r="H286" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8369,7 +8667,7 @@
       <c r="F287" s="76"/>
       <c r="G287" s="76"/>
       <c r="H287" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8385,7 +8683,7 @@
       <c r="D288" s="70"/>
       <c r="E288" s="70"/>
       <c r="H288" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8401,7 +8699,7 @@
       <c r="D289" s="70"/>
       <c r="E289" s="70"/>
       <c r="H289" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8421,7 +8719,7 @@
         <v>723</v>
       </c>
       <c r="H290" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8429,7 +8727,7 @@
         <v>582</v>
       </c>
       <c r="B291" s="70" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C291" s="70" t="s">
         <v>723</v>
@@ -8437,7 +8735,7 @@
       <c r="D291" s="70"/>
       <c r="E291" s="70"/>
       <c r="H291" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8453,7 +8751,7 @@
       <c r="D292" s="70"/>
       <c r="E292" s="70"/>
       <c r="H292" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8461,13 +8759,13 @@
         <v>178</v>
       </c>
       <c r="B293" s="70" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C293" s="133" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H293" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8475,13 +8773,13 @@
         <v>491</v>
       </c>
       <c r="B294" s="70" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C294" s="133" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H294" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8489,10 +8787,10 @@
         <v>269</v>
       </c>
       <c r="B295" s="133" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H295" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8500,13 +8798,13 @@
         <v>329</v>
       </c>
       <c r="B296" s="95" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C296" s="95" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H296" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8514,13 +8812,13 @@
         <v>324</v>
       </c>
       <c r="B297" s="95" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C297" s="95" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H297" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8528,13 +8826,13 @@
         <v>353</v>
       </c>
       <c r="B298" s="95" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C298" s="95" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H298" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8542,16 +8840,16 @@
         <v>601</v>
       </c>
       <c r="B299" s="95" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C299" s="95" t="s">
         <v>753</v>
       </c>
       <c r="D299" s="95" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H299" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8559,13 +8857,13 @@
         <v>447</v>
       </c>
       <c r="B300" s="70" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C300" s="89" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H300" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8579,13 +8877,13 @@
         <v>753</v>
       </c>
       <c r="D301" s="95" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E301" s="95" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H301" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8593,16 +8891,16 @@
         <v>524</v>
       </c>
       <c r="B302" s="70" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C302" s="70" t="s">
         <v>745</v>
       </c>
       <c r="D302" s="134" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H302" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8618,7 +8916,7 @@
       <c r="D303" s="70"/>
       <c r="E303" s="70"/>
       <c r="H303" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8629,12 +8927,12 @@
         <v>259</v>
       </c>
       <c r="C304" s="70" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D304" s="70"/>
       <c r="E304" s="70"/>
       <c r="H304" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8642,10 +8940,10 @@
         <v>570</v>
       </c>
       <c r="B305" s="95" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H305" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8659,7 +8957,7 @@
         <v>732</v>
       </c>
       <c r="H306" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8676,7 +8974,7 @@
         <v>590</v>
       </c>
       <c r="H307" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8690,7 +8988,7 @@
         <v>764</v>
       </c>
       <c r="H308" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8701,7 +8999,7 @@
         <v>744</v>
       </c>
       <c r="H309" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8712,10 +9010,10 @@
         <v>765</v>
       </c>
       <c r="C310" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H310" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8723,14 +9021,14 @@
         <v>576</v>
       </c>
       <c r="B311" s="117" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C311" s="117" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D311" s="97"/>
       <c r="H311" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8738,13 +9036,13 @@
         <v>577</v>
       </c>
       <c r="B312" s="117" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C312" s="136" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H312" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8752,10 +9050,10 @@
         <v>578</v>
       </c>
       <c r="B313" s="97" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H313" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8766,10 +9064,10 @@
         <v>730</v>
       </c>
       <c r="C314" s="95" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H314" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8777,13 +9075,13 @@
         <v>581</v>
       </c>
       <c r="B315" s="95" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C315" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H315" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8791,13 +9089,13 @@
         <v>583</v>
       </c>
       <c r="B316" s="95" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C316" s="110" t="s">
         <v>737</v>
       </c>
       <c r="H316" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8805,13 +9103,13 @@
         <v>584</v>
       </c>
       <c r="B317" s="95" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C317" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H317" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8819,13 +9117,13 @@
         <v>718</v>
       </c>
       <c r="B318" s="95" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C318" s="95" t="s">
         <v>737</v>
       </c>
       <c r="H318" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8833,13 +9131,13 @@
         <v>717</v>
       </c>
       <c r="B319" s="95" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C319" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H319" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8853,7 +9151,7 @@
         <v>756</v>
       </c>
       <c r="H320" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8867,7 +9165,7 @@
         <v>464</v>
       </c>
       <c r="H321" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8878,21 +9176,21 @@
         <v>767</v>
       </c>
       <c r="H322" s="118" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="70" t="s">
         <v>591</v>
       </c>
-      <c r="B323" s="95" t="s">
+      <c r="B323" s="133" t="s">
+        <v>897</v>
+      </c>
+      <c r="C323" s="74" t="s">
         <v>773</v>
       </c>
-      <c r="C323" s="74" t="s">
-        <v>774</v>
-      </c>
       <c r="H323" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8903,7 +9201,7 @@
         <v>177</v>
       </c>
       <c r="H324" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8914,13 +9212,13 @@
         <v>770</v>
       </c>
       <c r="C325" s="70" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D325" s="70" t="s">
         <v>481</v>
       </c>
       <c r="H325" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8934,7 +9232,7 @@
         <v>590</v>
       </c>
       <c r="H326" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8945,13 +9243,13 @@
         <v>442</v>
       </c>
       <c r="C327" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D327" s="95" t="s">
         <v>724</v>
       </c>
       <c r="H327" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8965,7 +9263,7 @@
         <v>752</v>
       </c>
       <c r="H328" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8973,10 +9271,10 @@
         <v>597</v>
       </c>
       <c r="B329" s="113" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H329" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8984,10 +9282,10 @@
         <v>598</v>
       </c>
       <c r="B330" s="135" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H330" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9001,7 +9299,7 @@
         <v>464</v>
       </c>
       <c r="H331" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9009,16 +9307,16 @@
         <v>600</v>
       </c>
       <c r="B332" s="95" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C332" s="95" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D332" s="110" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H332" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9029,10 +9327,10 @@
         <v>746</v>
       </c>
       <c r="C333" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H333" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9044,7 +9342,7 @@
       </c>
       <c r="C334" s="98"/>
       <c r="H334" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9055,7 +9353,7 @@
         <v>177</v>
       </c>
       <c r="H335" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9066,7 +9364,7 @@
         <v>261</v>
       </c>
       <c r="H336" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9077,10 +9375,10 @@
         <v>764</v>
       </c>
       <c r="C337" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H337" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9088,10 +9386,10 @@
         <v>607</v>
       </c>
       <c r="B338" s="95" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H338" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -9105,7 +9403,7 @@
         <v>590</v>
       </c>
       <c r="H339" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9113,13 +9411,13 @@
         <v>609</v>
       </c>
       <c r="B340" s="95" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C340" s="95" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H340" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9133,7 +9431,7 @@
         <v>659</v>
       </c>
       <c r="H341" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9141,13 +9439,13 @@
         <v>611</v>
       </c>
       <c r="B342" s="70" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C342" s="133" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H342" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9155,16 +9453,16 @@
         <v>612</v>
       </c>
       <c r="B343" s="97" t="s">
+        <v>794</v>
+      </c>
+      <c r="C343" s="97" t="s">
         <v>795</v>
-      </c>
-      <c r="C343" s="97" t="s">
-        <v>796</v>
       </c>
       <c r="D343" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H343" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9178,10 +9476,10 @@
         <v>733</v>
       </c>
       <c r="D344" s="95" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H344" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9189,16 +9487,16 @@
         <v>613</v>
       </c>
       <c r="B345" s="135" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C345" s="97" t="s">
+        <v>794</v>
+      </c>
+      <c r="D345" s="97" t="s">
         <v>795</v>
       </c>
-      <c r="D345" s="97" t="s">
-        <v>796</v>
-      </c>
       <c r="H345" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9206,16 +9504,16 @@
         <v>614</v>
       </c>
       <c r="B346" s="95" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C346" s="95" t="s">
         <v>760</v>
       </c>
       <c r="D346" s="135" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H346" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9223,13 +9521,13 @@
         <v>615</v>
       </c>
       <c r="B347" s="133" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C347" s="133" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H347" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9237,13 +9535,13 @@
         <v>616</v>
       </c>
       <c r="B348" s="95" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C348" s="95" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H348" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9254,7 +9552,7 @@
         <v>618</v>
       </c>
       <c r="H349" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9262,10 +9560,10 @@
         <v>619</v>
       </c>
       <c r="B350" s="113" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H350" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9279,7 +9577,7 @@
         <v>723</v>
       </c>
       <c r="H351" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9290,10 +9588,10 @@
         <v>770</v>
       </c>
       <c r="C352" s="95" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H352" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9307,7 +9605,7 @@
         <v>737</v>
       </c>
       <c r="H353" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9315,13 +9613,13 @@
         <v>627</v>
       </c>
       <c r="B354" s="113" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C354" s="113" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="H354" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9332,7 +9630,7 @@
         <v>261</v>
       </c>
       <c r="H355" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9343,7 +9641,7 @@
         <v>618</v>
       </c>
       <c r="H356" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9357,10 +9655,10 @@
         <v>748</v>
       </c>
       <c r="D357" s="70" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H357" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9371,7 +9669,7 @@
         <v>177</v>
       </c>
       <c r="H358" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9382,7 +9680,7 @@
         <v>723</v>
       </c>
       <c r="H359" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9393,10 +9691,10 @@
         <v>764</v>
       </c>
       <c r="C360" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H360" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9410,7 +9708,7 @@
         <v>512</v>
       </c>
       <c r="H361" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9418,13 +9716,13 @@
         <v>638</v>
       </c>
       <c r="B362" s="95" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C362" s="110" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H362" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9432,16 +9730,16 @@
         <v>639</v>
       </c>
       <c r="B363" s="95" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C363" s="135" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D363" s="74" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H363" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9455,7 +9753,7 @@
         <v>726</v>
       </c>
       <c r="H364" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9463,14 +9761,14 @@
         <v>719</v>
       </c>
       <c r="B365" s="115" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C365" s="95" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D365" s="112"/>
       <c r="H365" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9483,12 +9781,12 @@
       <c r="C366" s="70" t="s">
         <v>747</v>
       </c>
-      <c r="D366" s="111" t="s">
-        <v>815</v>
+      <c r="D366" s="136" t="s">
+        <v>861</v>
       </c>
       <c r="E366" s="70"/>
       <c r="H366" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9496,13 +9794,13 @@
         <v>640</v>
       </c>
       <c r="B367" s="95" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C367" s="95" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H367" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9517,7 +9815,7 @@
       </c>
       <c r="D368" s="89"/>
       <c r="H368" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9531,7 +9829,7 @@
         <v>464</v>
       </c>
       <c r="H369" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9545,7 +9843,7 @@
         <v>723</v>
       </c>
       <c r="H370" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9556,10 +9854,10 @@
         <v>753</v>
       </c>
       <c r="C371" s="110" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H371" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9572,11 +9870,11 @@
       <c r="C372" s="95" t="s">
         <v>747</v>
       </c>
-      <c r="D372" s="111" t="s">
-        <v>815</v>
+      <c r="D372" s="136" t="s">
+        <v>861</v>
       </c>
       <c r="H372" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9591,7 +9889,7 @@
       </c>
       <c r="D373" s="89"/>
       <c r="H373" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9602,13 +9900,13 @@
         <v>753</v>
       </c>
       <c r="C374" s="95" t="s">
-        <v>848</v>
-      </c>
-      <c r="D374" s="111" t="s">
-        <v>815</v>
+        <v>846</v>
+      </c>
+      <c r="D374" s="136" t="s">
+        <v>861</v>
       </c>
       <c r="H374" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9616,10 +9914,10 @@
         <v>649</v>
       </c>
       <c r="B375" s="95" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H375" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9627,13 +9925,13 @@
         <v>650</v>
       </c>
       <c r="B376" s="97" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C376" s="97" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H376" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9641,10 +9939,10 @@
         <v>5</v>
       </c>
       <c r="B377" s="133" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H377" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9659,7 +9957,7 @@
       <c r="E378" s="79"/>
       <c r="F378" s="79"/>
       <c r="H378" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9670,7 +9968,7 @@
         <v>259</v>
       </c>
       <c r="H379" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9681,7 +9979,7 @@
         <v>261</v>
       </c>
       <c r="H380" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9695,7 +9993,7 @@
         <v>464</v>
       </c>
       <c r="H381" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9703,7 +10001,7 @@
         <v>358</v>
       </c>
       <c r="B382" s="113" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C382" s="70" t="s">
         <v>724</v>
@@ -9712,7 +10010,7 @@
         <v>751</v>
       </c>
       <c r="H382" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9720,15 +10018,15 @@
         <v>656</v>
       </c>
       <c r="B383" s="70" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C383" s="136" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D383" s="111"/>
       <c r="E383" s="70"/>
       <c r="H383" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9736,17 +10034,17 @@
         <v>519</v>
       </c>
       <c r="B384" s="95" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C384" s="70" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D384" s="110" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E384" s="70"/>
       <c r="H384" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9754,16 +10052,16 @@
         <v>518</v>
       </c>
       <c r="B385" s="95" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C385" s="70" t="s">
-        <v>854</v>
-      </c>
-      <c r="D385" s="111" t="s">
-        <v>815</v>
+        <v>852</v>
+      </c>
+      <c r="D385" s="136" t="s">
+        <v>861</v>
       </c>
       <c r="H385" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9771,13 +10069,13 @@
         <v>654</v>
       </c>
       <c r="B386" s="95" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C386" s="110" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H386" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9788,10 +10086,10 @@
         <v>748</v>
       </c>
       <c r="C387" s="136" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H387" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9802,11 +10100,11 @@
         <v>747</v>
       </c>
       <c r="C388" s="136" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D388" s="89"/>
       <c r="H388" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9820,7 +10118,7 @@
         <v>764</v>
       </c>
       <c r="H389" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9828,7 +10126,7 @@
         <v>661</v>
       </c>
       <c r="B390" s="115" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C390" s="70" t="s">
         <v>749</v>
@@ -9836,7 +10134,7 @@
       <c r="D390" s="101"/>
       <c r="E390" s="101"/>
       <c r="H390" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9847,7 +10145,7 @@
         <v>177</v>
       </c>
       <c r="H391" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9858,7 +10156,7 @@
         <v>723</v>
       </c>
       <c r="H392" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9869,10 +10167,10 @@
         <v>512</v>
       </c>
       <c r="C393" s="70" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H393" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9886,7 +10184,7 @@
         <v>737</v>
       </c>
       <c r="H394" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9894,13 +10192,13 @@
         <v>668</v>
       </c>
       <c r="B395" s="133" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C395" s="133" t="s">
         <v>481</v>
       </c>
       <c r="H395" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9911,10 +10209,10 @@
         <v>770</v>
       </c>
       <c r="C396" s="95" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H396" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9928,10 +10226,10 @@
         <v>739</v>
       </c>
       <c r="D397" s="109" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H397" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9942,10 +10240,10 @@
         <v>735</v>
       </c>
       <c r="C398" s="109" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H398" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9953,10 +10251,10 @@
         <v>673</v>
       </c>
       <c r="B399" s="101" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H399" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9967,10 +10265,10 @@
         <v>764</v>
       </c>
       <c r="C400" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H400" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9981,7 +10279,7 @@
         <v>723</v>
       </c>
       <c r="H401" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -9992,7 +10290,7 @@
         <v>256</v>
       </c>
       <c r="H402" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10000,10 +10298,10 @@
         <v>677</v>
       </c>
       <c r="B403" s="133" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="H403" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10011,16 +10309,16 @@
         <v>678</v>
       </c>
       <c r="B404" s="95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C404" s="95" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D404" s="110" t="s">
         <v>723</v>
       </c>
       <c r="H404" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10028,13 +10326,13 @@
         <v>679</v>
       </c>
       <c r="B405" s="113" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C405" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="H405" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10052,7 +10350,7 @@
       </c>
       <c r="F406" s="94"/>
       <c r="H406" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10063,7 +10361,7 @@
         <v>742</v>
       </c>
       <c r="H407" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10071,14 +10369,14 @@
         <v>201</v>
       </c>
       <c r="B408" s="74" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C408" s="110" t="s">
         <v>740</v>
       </c>
       <c r="D408" s="70"/>
       <c r="H408" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10086,13 +10384,13 @@
         <v>202</v>
       </c>
       <c r="B409" s="74" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C409" s="110" t="s">
         <v>740</v>
       </c>
       <c r="H409" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10100,13 +10398,13 @@
         <v>685</v>
       </c>
       <c r="B410" s="74" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C410" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H410" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10114,13 +10412,13 @@
         <v>683</v>
       </c>
       <c r="B411" s="74" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C411" s="74" t="s">
         <v>684</v>
       </c>
       <c r="H411" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10128,10 +10426,10 @@
         <v>686</v>
       </c>
       <c r="B412" s="74" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H412" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10142,7 +10440,7 @@
         <v>259</v>
       </c>
       <c r="H413" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10153,7 +10451,7 @@
         <v>256</v>
       </c>
       <c r="H414" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10161,13 +10459,13 @@
         <v>690</v>
       </c>
       <c r="B415" s="95" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C415" s="70" t="s">
         <v>723</v>
       </c>
       <c r="H415" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10175,10 +10473,10 @@
         <v>693</v>
       </c>
       <c r="B416" s="133" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H416" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10186,13 +10484,13 @@
         <v>697</v>
       </c>
       <c r="B417" s="70" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C417" s="74" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H417" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10200,10 +10498,10 @@
         <v>698</v>
       </c>
       <c r="B418" s="74" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H418" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10217,7 +10515,7 @@
         <v>764</v>
       </c>
       <c r="H419" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10225,13 +10523,13 @@
         <v>700</v>
       </c>
       <c r="B420" s="74" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C420" s="74" t="s">
         <v>684</v>
       </c>
       <c r="H420" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10245,7 +10543,7 @@
         <v>753</v>
       </c>
       <c r="H421" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10253,13 +10551,13 @@
         <v>702</v>
       </c>
       <c r="B422" s="74" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C422" s="74" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H422" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="423" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10267,13 +10565,13 @@
         <v>703</v>
       </c>
       <c r="B423" s="133" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C423" s="74" t="s">
         <v>764</v>
       </c>
       <c r="H423" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10284,7 +10582,7 @@
         <v>177</v>
       </c>
       <c r="H424" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10292,13 +10590,13 @@
         <v>706</v>
       </c>
       <c r="B425" s="70" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C425" s="133" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H425" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10312,7 +10610,7 @@
         <v>723</v>
       </c>
       <c r="H426" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10329,7 +10627,7 @@
         <v>722</v>
       </c>
       <c r="H427" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10340,7 +10638,7 @@
         <v>723</v>
       </c>
       <c r="H428" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10348,7 +10646,7 @@
         <v>710</v>
       </c>
       <c r="B429" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C429" s="70" t="s">
         <v>731</v>
@@ -10357,7 +10655,7 @@
         <v>723</v>
       </c>
       <c r="H429" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10368,7 +10666,7 @@
         <v>723</v>
       </c>
       <c r="H430" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="431" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10379,10 +10677,10 @@
         <v>764</v>
       </c>
       <c r="C431" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H431" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="432" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -10396,7 +10694,7 @@
         <v>723</v>
       </c>
       <c r="H432" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -10410,14 +10708,14 @@
         <v>767</v>
       </c>
       <c r="H433" s="118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B433" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Genera Курьерская доставка (General_Express_Delivery)"/>
+        <filter val="General_Подтверждение сим-карты (General_Sim_Confirmation)"/>
       </filters>
     </filterColumn>
   </autoFilter>
